--- a/scripts/cli/authority_stats.xlsx
+++ b/scripts/cli/authority_stats.xlsx
@@ -254,10 +254,10 @@
     <t>https://www.ilovefreegle.org/shortlinks</t>
   </si>
   <si>
-    <t>The full data associated with any shortlinks that you have set up can be viewed by clicking  the link below and then scrolling to the appropriate shortlink.</t>
+    <t>Benefit (£)</t>
   </si>
   <si>
-    <t>Benefit (£)</t>
+    <t>The full data associated with any shortlinks can be viewed by clicking  the link below and then scrolling to the appropriate shortlink.</t>
   </si>
 </sst>
 </file>
@@ -831,6 +831,12 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="14" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,12 +856,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:AMR561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1667,12 +1667,12 @@
     </row>
     <row r="7" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -8921,10 +8921,10 @@
       <c r="A14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:1032" x14ac:dyDescent="0.3">
@@ -10051,36 +10051,36 @@
     </row>
     <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="62" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="57" t="s">
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="57" t="s">
-        <v>20</v>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="59" t="s">
+        <v>19</v>
       </c>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="57" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="58"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="60"/>
     </row>
     <row r="19" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
@@ -10620,7 +10620,7 @@
     </row>
     <row r="27" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>

--- a/scripts/cli/authority_stats.xlsx
+++ b/scripts/cli/authority_stats.xlsx
@@ -264,9 +264,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-809]mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0;[Red]&quot;-£&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -725,7 +727,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,9 +780,6 @@
     <xf numFmtId="3" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -804,12 +803,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,6 +830,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,6 +854,17 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -1249,7 +1256,7 @@
   <dimension ref="A1:AMR561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1667,12 +1674,12 @@
     </row>
     <row r="7" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -6852,7 +6859,7 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="27"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -7885,10 +7892,10 @@
       <c r="A13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -8918,14 +8925,14 @@
       <c r="AMR13" s="19"/>
     </row>
     <row r="14" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -10025,175 +10032,175 @@
       <c r="BY16" s="3"/>
     </row>
     <row r="17" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
     </row>
     <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="64" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="59" t="s">
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="59" t="s">
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="59" t="s">
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="60"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="58"/>
     </row>
     <row r="19" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>43466</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>43497</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <v>43525</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>43466</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>43497</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>43525</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>43466</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <v>43497</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>43525</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="35">
         <v>43466</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="35">
         <v>43497</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="35">
         <v>43525</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="35">
         <v>43466</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="35">
         <v>43497</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="35">
         <v>43525</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="40"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="39"/>
     </row>
     <row r="21" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="43"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
@@ -10244,7 +10251,7 @@
       <c r="BY21" s="15"/>
     </row>
     <row r="22" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -10322,17 +10329,17 @@
       <c r="BX22" s="15"/>
       <c r="BY22" s="15"/>
     </row>
-    <row r="23" spans="1:1032" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:1032" s="45" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -10405,7 +10412,7 @@
       <c r="BX23" s="15"/>
       <c r="BY23" s="15"/>
     </row>
-    <row r="24" spans="1:1032" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1032" s="45" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -10484,8 +10491,8 @@
       <c r="BX24" s="15"/>
       <c r="BY24" s="15"/>
     </row>
-    <row r="25" spans="1:1032" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:1032" s="47" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="22">
@@ -10619,7 +10626,7 @@
       <c r="BY26" s="15"/>
     </row>
     <row r="27" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="19"/>
@@ -11655,10 +11662,10 @@
       <c r="AMR27" s="19"/>
     </row>
     <row r="28" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -11680,7 +11687,7 @@
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="15"/>
-      <c r="X28" s="51"/>
+      <c r="X28" s="48"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="19"/>
@@ -12713,9 +12720,9 @@
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="15"/>
-      <c r="W29" s="52"/>
+      <c r="W29" s="49"/>
       <c r="X29" s="19"/>
-      <c r="Y29" s="51"/>
+      <c r="Y29" s="48"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
@@ -14759,7 +14766,7 @@
       <c r="AMR30" s="19"/>
     </row>
     <row r="31" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>

--- a/scripts/cli/authority_stats.xlsx
+++ b/scripts/cli/authority_stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,18 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Standard report" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -183,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -259,6 +250,12 @@
   <si>
     <t>The full data associated with any shortlinks can be viewed by clicking  the link below and then scrolling to the appropriate shortlink.</t>
   </si>
+  <si>
+    <t>Current total number of Freeglers</t>
+  </si>
+  <si>
+    <t>Calculated using WRAP's Benefits of Reuse tool.</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +267,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +490,26 @@
       <i/>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -727,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -833,6 +850,20 @@
     <xf numFmtId="166" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,17 +885,6 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -1256,7 +1276,7 @@
   <dimension ref="A1:AMR561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+      <selection activeCell="N18" sqref="N18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,12 +1694,12 @@
     </row>
     <row r="7" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -7892,10 +7912,10 @@
       <c r="A13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -10058,36 +10078,36 @@
     </row>
     <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="62" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="57" t="s">
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="57" t="s">
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="57" t="s">
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="58"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
@@ -10170,10 +10190,10 @@
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="39"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="68"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="61"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
@@ -44441,4 +44461,49 @@
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/scripts/cli/authority_stats.xlsx
+++ b/scripts/cli/authority_stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Standard report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Natalie Ibbott</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,6 +46,30 @@
           </rPr>
           <t xml:space="preserve">
 Current total number of Freeglers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Natalie Ibbott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Calculated using WRAP's Benefits of Reuse tool.</t>
         </r>
       </text>
     </comment>
@@ -73,7 +97,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Natalie Ibbott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Current total number of Freeglers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,55 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Natalie Ibbott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Current total number of Freeglers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Natalie Ibbott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Calculated using WRAP's Benefits of Reuse tool.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N18" authorId="0" shapeId="0">
+    <comment ref="N17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Kgs reused</t>
-  </si>
-  <si>
-    <t>Authority area</t>
   </si>
   <si>
     <t>Benefit</t>
@@ -204,9 +201,6 @@
   </si>
   <si>
     <t>Shortlink data summary</t>
-  </si>
-  <si>
-    <t>xxx council</t>
   </si>
   <si>
     <t>Total</t>
@@ -594,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -723,6 +717,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -744,7 +749,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -788,12 +793,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,7 +801,6 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="24" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,9 +827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -864,6 +859,24 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,6 +898,7 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -1273,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMR561"/>
+  <dimension ref="A1:AMR562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:Q18"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1304,7 @@
   <sheetData>
     <row r="1" spans="1:1032" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1694,12 +1708,12 @@
     </row>
     <row r="7" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="68" t="s">
-        <v>7</v>
+      <c r="B7" s="72" t="s">
+        <v>6</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -2729,9 +2743,7 @@
       <c r="AMR7" s="19"/>
     </row>
     <row r="8" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="21"/>
       <c r="B8" s="22">
         <v>43466</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>43525</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -3774,12 +3786,12 @@
     </row>
     <row r="9" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -3792,10 +3804,6 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="17"/>
@@ -4810,12 +4818,12 @@
     </row>
     <row r="10" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5842,12 +5850,12 @@
     </row>
     <row r="11" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -5860,6 +5868,10 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
       <c r="X11" s="17"/>
@@ -6874,12 +6886,12 @@
     </row>
     <row r="12" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -7909,2275 +7921,1262 @@
       <c r="AMR12" s="19"/>
     </row>
     <row r="13" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:1032" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
+      <c r="CD14" s="4"/>
+      <c r="CE14" s="4"/>
+      <c r="CF14" s="4"/>
+      <c r="CG14" s="4"/>
+      <c r="CH14" s="4"/>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="4"/>
+      <c r="CK14" s="4"/>
+      <c r="CL14" s="4"/>
+      <c r="CM14" s="4"/>
+      <c r="CN14" s="4"/>
+      <c r="CO14" s="4"/>
+      <c r="CP14" s="4"/>
+      <c r="CQ14" s="4"/>
+      <c r="CR14" s="4"/>
+      <c r="CS14" s="4"/>
+      <c r="CT14" s="4"/>
+      <c r="CU14" s="4"/>
+      <c r="CV14" s="4"/>
+      <c r="CW14" s="4"/>
+      <c r="CX14" s="4"/>
+      <c r="CY14" s="4"/>
+      <c r="CZ14" s="4"/>
+      <c r="DA14" s="4"/>
+      <c r="DB14" s="4"/>
+      <c r="DC14" s="4"/>
+      <c r="DD14" s="4"/>
+      <c r="DE14" s="4"/>
+      <c r="DF14" s="4"/>
+      <c r="DG14" s="4"/>
+      <c r="DH14" s="4"/>
+      <c r="DI14" s="4"/>
+      <c r="DJ14" s="4"/>
+      <c r="DK14" s="4"/>
+      <c r="DL14" s="4"/>
+      <c r="DM14" s="4"/>
+      <c r="DN14" s="4"/>
+      <c r="DO14" s="4"/>
+      <c r="DP14" s="4"/>
+      <c r="DQ14" s="4"/>
+      <c r="DR14" s="4"/>
+      <c r="DS14" s="4"/>
+      <c r="DT14" s="4"/>
+      <c r="DU14" s="4"/>
+      <c r="DV14" s="4"/>
+      <c r="DW14" s="4"/>
+      <c r="DX14" s="4"/>
+      <c r="DY14" s="4"/>
+      <c r="DZ14" s="4"/>
+      <c r="EA14" s="4"/>
+      <c r="EB14" s="4"/>
+      <c r="EC14" s="4"/>
+      <c r="ED14" s="4"/>
+      <c r="EE14" s="4"/>
+      <c r="EF14" s="4"/>
+      <c r="EG14" s="4"/>
+      <c r="EH14" s="4"/>
+      <c r="EI14" s="4"/>
+      <c r="EJ14" s="4"/>
+      <c r="EK14" s="4"/>
+      <c r="EL14" s="4"/>
+      <c r="EM14" s="4"/>
+      <c r="EN14" s="4"/>
+      <c r="EO14" s="4"/>
+      <c r="EP14" s="4"/>
+      <c r="EQ14" s="4"/>
+      <c r="ER14" s="4"/>
+      <c r="ES14" s="4"/>
+      <c r="ET14" s="4"/>
+      <c r="EU14" s="4"/>
+      <c r="EV14" s="4"/>
+      <c r="EW14" s="4"/>
+      <c r="EX14" s="4"/>
+      <c r="EY14" s="4"/>
+      <c r="EZ14" s="4"/>
+      <c r="FA14" s="4"/>
+      <c r="FB14" s="4"/>
+      <c r="FC14" s="4"/>
+      <c r="FD14" s="4"/>
+      <c r="FE14" s="4"/>
+      <c r="FF14" s="4"/>
+      <c r="FG14" s="4"/>
+      <c r="FH14" s="4"/>
+      <c r="FI14" s="4"/>
+      <c r="FJ14" s="4"/>
+      <c r="FK14" s="4"/>
+      <c r="FL14" s="4"/>
+      <c r="FM14" s="4"/>
+      <c r="FN14" s="4"/>
+      <c r="FO14" s="4"/>
+      <c r="FP14" s="4"/>
+      <c r="FQ14" s="4"/>
+      <c r="FR14" s="4"/>
+      <c r="FS14" s="4"/>
+      <c r="FT14" s="4"/>
+      <c r="FU14" s="4"/>
+      <c r="FV14" s="4"/>
+      <c r="FW14" s="4"/>
+      <c r="FX14" s="4"/>
+      <c r="FY14" s="4"/>
+      <c r="FZ14" s="4"/>
+      <c r="GA14" s="4"/>
+      <c r="GB14" s="4"/>
+      <c r="GC14" s="4"/>
+      <c r="GD14" s="4"/>
+      <c r="GE14" s="4"/>
+      <c r="GF14" s="4"/>
+      <c r="GG14" s="4"/>
+      <c r="GH14" s="4"/>
+      <c r="GI14" s="4"/>
+      <c r="GJ14" s="4"/>
+      <c r="GK14" s="4"/>
+      <c r="GL14" s="4"/>
+      <c r="GM14" s="4"/>
+      <c r="GN14" s="4"/>
+      <c r="GO14" s="4"/>
+      <c r="GP14" s="4"/>
+      <c r="GQ14" s="4"/>
+      <c r="GR14" s="4"/>
+      <c r="GS14" s="4"/>
+      <c r="GT14" s="4"/>
+      <c r="GU14" s="4"/>
+      <c r="GV14" s="4"/>
+      <c r="GW14" s="4"/>
+      <c r="GX14" s="4"/>
+      <c r="GY14" s="4"/>
+      <c r="GZ14" s="4"/>
+      <c r="HA14" s="4"/>
+      <c r="HB14" s="4"/>
+      <c r="HC14" s="4"/>
+      <c r="HD14" s="4"/>
+      <c r="HE14" s="4"/>
+      <c r="HF14" s="4"/>
+      <c r="HG14" s="4"/>
+      <c r="HH14" s="4"/>
+      <c r="HI14" s="4"/>
+      <c r="HJ14" s="4"/>
+      <c r="HK14" s="4"/>
+      <c r="HL14" s="4"/>
+      <c r="HM14" s="4"/>
+      <c r="HN14" s="4"/>
+      <c r="HO14" s="4"/>
+      <c r="HP14" s="4"/>
+      <c r="HQ14" s="4"/>
+      <c r="HR14" s="4"/>
+      <c r="HS14" s="4"/>
+      <c r="HT14" s="4"/>
+      <c r="HU14" s="4"/>
+      <c r="HV14" s="4"/>
+      <c r="HW14" s="4"/>
+      <c r="HX14" s="4"/>
+      <c r="HY14" s="4"/>
+      <c r="HZ14" s="4"/>
+      <c r="IA14" s="4"/>
+      <c r="IB14" s="4"/>
+      <c r="IC14" s="4"/>
+      <c r="ID14" s="4"/>
+      <c r="IE14" s="4"/>
+      <c r="IF14" s="4"/>
+      <c r="IG14" s="4"/>
+      <c r="IH14" s="4"/>
+      <c r="II14" s="4"/>
+      <c r="IJ14" s="4"/>
+      <c r="IK14" s="4"/>
+      <c r="IL14" s="4"/>
+      <c r="IM14" s="4"/>
+      <c r="IN14" s="4"/>
+      <c r="IO14" s="4"/>
+      <c r="IP14" s="4"/>
+      <c r="IQ14" s="4"/>
+      <c r="IR14" s="4"/>
+      <c r="IS14" s="4"/>
+      <c r="IT14" s="4"/>
+      <c r="IU14" s="4"/>
+      <c r="IV14" s="4"/>
+      <c r="IW14" s="4"/>
+      <c r="IX14" s="4"/>
+      <c r="IY14" s="4"/>
+      <c r="IZ14" s="4"/>
+      <c r="JA14" s="4"/>
+      <c r="JB14" s="4"/>
+      <c r="JC14" s="4"/>
+      <c r="JD14" s="4"/>
+      <c r="JE14" s="4"/>
+      <c r="JF14" s="4"/>
+      <c r="JG14" s="4"/>
+      <c r="JH14" s="4"/>
+      <c r="JI14" s="4"/>
+      <c r="JJ14" s="4"/>
+      <c r="JK14" s="4"/>
+      <c r="JL14" s="4"/>
+      <c r="JM14" s="4"/>
+      <c r="JN14" s="4"/>
+      <c r="JO14" s="4"/>
+      <c r="JP14" s="4"/>
+      <c r="JQ14" s="4"/>
+      <c r="JR14" s="4"/>
+      <c r="JS14" s="4"/>
+      <c r="JT14" s="4"/>
+      <c r="JU14" s="4"/>
+      <c r="JV14" s="4"/>
+      <c r="JW14" s="4"/>
+      <c r="JX14" s="4"/>
+      <c r="JY14" s="4"/>
+      <c r="JZ14" s="4"/>
+      <c r="KA14" s="4"/>
+      <c r="KB14" s="4"/>
+      <c r="KC14" s="4"/>
+      <c r="KD14" s="4"/>
+      <c r="KE14" s="4"/>
+      <c r="KF14" s="4"/>
+      <c r="KG14" s="4"/>
+      <c r="KH14" s="4"/>
+      <c r="KI14" s="4"/>
+      <c r="KJ14" s="4"/>
+      <c r="KK14" s="4"/>
+      <c r="KL14" s="4"/>
+      <c r="KM14" s="4"/>
+      <c r="KN14" s="4"/>
+      <c r="KO14" s="4"/>
+      <c r="KP14" s="4"/>
+      <c r="KQ14" s="4"/>
+      <c r="KR14" s="4"/>
+      <c r="KS14" s="4"/>
+      <c r="KT14" s="4"/>
+      <c r="KU14" s="4"/>
+      <c r="KV14" s="4"/>
+      <c r="KW14" s="4"/>
+      <c r="KX14" s="4"/>
+      <c r="KY14" s="4"/>
+      <c r="KZ14" s="4"/>
+      <c r="LA14" s="4"/>
+      <c r="LB14" s="4"/>
+      <c r="LC14" s="4"/>
+      <c r="LD14" s="4"/>
+      <c r="LE14" s="4"/>
+      <c r="LF14" s="4"/>
+      <c r="LG14" s="4"/>
+      <c r="LH14" s="4"/>
+      <c r="LI14" s="4"/>
+      <c r="LJ14" s="4"/>
+      <c r="LK14" s="4"/>
+      <c r="LL14" s="4"/>
+      <c r="LM14" s="4"/>
+      <c r="LN14" s="4"/>
+      <c r="LO14" s="4"/>
+      <c r="LP14" s="4"/>
+      <c r="LQ14" s="4"/>
+      <c r="LR14" s="4"/>
+      <c r="LS14" s="4"/>
+      <c r="LT14" s="4"/>
+      <c r="LU14" s="4"/>
+      <c r="LV14" s="4"/>
+      <c r="LW14" s="4"/>
+      <c r="LX14" s="4"/>
+      <c r="LY14" s="4"/>
+      <c r="LZ14" s="4"/>
+      <c r="MA14" s="4"/>
+      <c r="MB14" s="4"/>
+      <c r="MC14" s="4"/>
+      <c r="MD14" s="4"/>
+      <c r="ME14" s="4"/>
+      <c r="MF14" s="4"/>
+      <c r="MG14" s="4"/>
+      <c r="MH14" s="4"/>
+      <c r="MI14" s="4"/>
+      <c r="MJ14" s="4"/>
+      <c r="MK14" s="4"/>
+      <c r="ML14" s="4"/>
+      <c r="MM14" s="4"/>
+      <c r="MN14" s="4"/>
+      <c r="MO14" s="4"/>
+      <c r="MP14" s="4"/>
+      <c r="MQ14" s="4"/>
+      <c r="MR14" s="4"/>
+      <c r="MS14" s="4"/>
+      <c r="MT14" s="4"/>
+      <c r="MU14" s="4"/>
+      <c r="MV14" s="4"/>
+      <c r="MW14" s="4"/>
+      <c r="MX14" s="4"/>
+      <c r="MY14" s="4"/>
+      <c r="MZ14" s="4"/>
+      <c r="NA14" s="4"/>
+      <c r="NB14" s="4"/>
+      <c r="NC14" s="4"/>
+      <c r="ND14" s="4"/>
+      <c r="NE14" s="4"/>
+      <c r="NF14" s="4"/>
+      <c r="NG14" s="4"/>
+      <c r="NH14" s="4"/>
+      <c r="NI14" s="4"/>
+      <c r="NJ14" s="4"/>
+      <c r="NK14" s="4"/>
+      <c r="NL14" s="4"/>
+      <c r="NM14" s="4"/>
+      <c r="NN14" s="4"/>
+      <c r="NO14" s="4"/>
+      <c r="NP14" s="4"/>
+      <c r="NQ14" s="4"/>
+      <c r="NR14" s="4"/>
+      <c r="NS14" s="4"/>
+      <c r="NT14" s="4"/>
+      <c r="NU14" s="4"/>
+      <c r="NV14" s="4"/>
+      <c r="NW14" s="4"/>
+      <c r="NX14" s="4"/>
+      <c r="NY14" s="4"/>
+      <c r="NZ14" s="4"/>
+      <c r="OA14" s="4"/>
+      <c r="OB14" s="4"/>
+      <c r="OC14" s="4"/>
+      <c r="OD14" s="4"/>
+      <c r="OE14" s="4"/>
+      <c r="OF14" s="4"/>
+      <c r="OG14" s="4"/>
+      <c r="OH14" s="4"/>
+      <c r="OI14" s="4"/>
+      <c r="OJ14" s="4"/>
+      <c r="OK14" s="4"/>
+      <c r="OL14" s="4"/>
+      <c r="OM14" s="4"/>
+      <c r="ON14" s="4"/>
+      <c r="OO14" s="4"/>
+      <c r="OP14" s="4"/>
+      <c r="OQ14" s="4"/>
+      <c r="OR14" s="4"/>
+      <c r="OS14" s="4"/>
+      <c r="OT14" s="4"/>
+      <c r="OU14" s="4"/>
+      <c r="OV14" s="4"/>
+      <c r="OW14" s="4"/>
+      <c r="OX14" s="4"/>
+      <c r="OY14" s="4"/>
+      <c r="OZ14" s="4"/>
+      <c r="PA14" s="4"/>
+      <c r="PB14" s="4"/>
+      <c r="PC14" s="4"/>
+      <c r="PD14" s="4"/>
+      <c r="PE14" s="4"/>
+      <c r="PF14" s="4"/>
+      <c r="PG14" s="4"/>
+      <c r="PH14" s="4"/>
+      <c r="PI14" s="4"/>
+      <c r="PJ14" s="4"/>
+      <c r="PK14" s="4"/>
+      <c r="PL14" s="4"/>
+      <c r="PM14" s="4"/>
+      <c r="PN14" s="4"/>
+      <c r="PO14" s="4"/>
+      <c r="PP14" s="4"/>
+      <c r="PQ14" s="4"/>
+      <c r="PR14" s="4"/>
+      <c r="PS14" s="4"/>
+      <c r="PT14" s="4"/>
+      <c r="PU14" s="4"/>
+      <c r="PV14" s="4"/>
+      <c r="PW14" s="4"/>
+      <c r="PX14" s="4"/>
+      <c r="PY14" s="4"/>
+      <c r="PZ14" s="4"/>
+      <c r="QA14" s="4"/>
+      <c r="QB14" s="4"/>
+      <c r="QC14" s="4"/>
+      <c r="QD14" s="4"/>
+      <c r="QE14" s="4"/>
+      <c r="QF14" s="4"/>
+      <c r="QG14" s="4"/>
+      <c r="QH14" s="4"/>
+      <c r="QI14" s="4"/>
+      <c r="QJ14" s="4"/>
+      <c r="QK14" s="4"/>
+      <c r="QL14" s="4"/>
+      <c r="QM14" s="4"/>
+      <c r="QN14" s="4"/>
+      <c r="QO14" s="4"/>
+      <c r="QP14" s="4"/>
+      <c r="QQ14" s="4"/>
+      <c r="QR14" s="4"/>
+      <c r="QS14" s="4"/>
+      <c r="QT14" s="4"/>
+      <c r="QU14" s="4"/>
+      <c r="QV14" s="4"/>
+      <c r="QW14" s="4"/>
+      <c r="QX14" s="4"/>
+      <c r="QY14" s="4"/>
+      <c r="QZ14" s="4"/>
+      <c r="RA14" s="4"/>
+      <c r="RB14" s="4"/>
+      <c r="RC14" s="4"/>
+      <c r="RD14" s="4"/>
+      <c r="RE14" s="4"/>
+      <c r="RF14" s="4"/>
+      <c r="RG14" s="4"/>
+      <c r="RH14" s="4"/>
+      <c r="RI14" s="4"/>
+      <c r="RJ14" s="4"/>
+      <c r="RK14" s="4"/>
+      <c r="RL14" s="4"/>
+      <c r="RM14" s="4"/>
+      <c r="RN14" s="4"/>
+      <c r="RO14" s="4"/>
+      <c r="RP14" s="4"/>
+      <c r="RQ14" s="4"/>
+      <c r="RR14" s="4"/>
+      <c r="RS14" s="4"/>
+      <c r="RT14" s="4"/>
+      <c r="RU14" s="4"/>
+      <c r="RV14" s="4"/>
+      <c r="RW14" s="4"/>
+      <c r="RX14" s="4"/>
+      <c r="RY14" s="4"/>
+      <c r="RZ14" s="4"/>
+      <c r="SA14" s="4"/>
+      <c r="SB14" s="4"/>
+      <c r="SC14" s="4"/>
+      <c r="SD14" s="4"/>
+      <c r="SE14" s="4"/>
+      <c r="SF14" s="4"/>
+      <c r="SG14" s="4"/>
+      <c r="SH14" s="4"/>
+      <c r="SI14" s="4"/>
+      <c r="SJ14" s="4"/>
+      <c r="SK14" s="4"/>
+      <c r="SL14" s="4"/>
+      <c r="SM14" s="4"/>
+      <c r="SN14" s="4"/>
+      <c r="SO14" s="4"/>
+      <c r="SP14" s="4"/>
+      <c r="SQ14" s="4"/>
+      <c r="SR14" s="4"/>
+      <c r="SS14" s="4"/>
+      <c r="ST14" s="4"/>
+      <c r="SU14" s="4"/>
+      <c r="SV14" s="4"/>
+      <c r="SW14" s="4"/>
+      <c r="SX14" s="4"/>
+      <c r="SY14" s="4"/>
+      <c r="SZ14" s="4"/>
+      <c r="TA14" s="4"/>
+      <c r="TB14" s="4"/>
+      <c r="TC14" s="4"/>
+      <c r="TD14" s="4"/>
+      <c r="TE14" s="4"/>
+      <c r="TF14" s="4"/>
+      <c r="TG14" s="4"/>
+      <c r="TH14" s="4"/>
+      <c r="TI14" s="4"/>
+      <c r="TJ14" s="4"/>
+      <c r="TK14" s="4"/>
+      <c r="TL14" s="4"/>
+      <c r="TM14" s="4"/>
+      <c r="TN14" s="4"/>
+      <c r="TO14" s="4"/>
+      <c r="TP14" s="4"/>
+      <c r="TQ14" s="4"/>
+      <c r="TR14" s="4"/>
+      <c r="TS14" s="4"/>
+      <c r="TT14" s="4"/>
+      <c r="TU14" s="4"/>
+      <c r="TV14" s="4"/>
+      <c r="TW14" s="4"/>
+      <c r="TX14" s="4"/>
+      <c r="TY14" s="4"/>
+      <c r="TZ14" s="4"/>
+      <c r="UA14" s="4"/>
+      <c r="UB14" s="4"/>
+      <c r="UC14" s="4"/>
+      <c r="UD14" s="4"/>
+      <c r="UE14" s="4"/>
+      <c r="UF14" s="4"/>
+      <c r="UG14" s="4"/>
+      <c r="UH14" s="4"/>
+      <c r="UI14" s="4"/>
+      <c r="UJ14" s="4"/>
+      <c r="UK14" s="4"/>
+      <c r="UL14" s="4"/>
+      <c r="UM14" s="4"/>
+      <c r="UN14" s="4"/>
+      <c r="UO14" s="4"/>
+      <c r="UP14" s="4"/>
+      <c r="UQ14" s="4"/>
+      <c r="UR14" s="4"/>
+      <c r="US14" s="4"/>
+      <c r="UT14" s="4"/>
+      <c r="UU14" s="4"/>
+      <c r="UV14" s="4"/>
+      <c r="UW14" s="4"/>
+      <c r="UX14" s="4"/>
+      <c r="UY14" s="4"/>
+      <c r="UZ14" s="4"/>
+      <c r="VA14" s="4"/>
+      <c r="VB14" s="4"/>
+      <c r="VC14" s="4"/>
+      <c r="VD14" s="4"/>
+      <c r="VE14" s="4"/>
+      <c r="VF14" s="4"/>
+      <c r="VG14" s="4"/>
+      <c r="VH14" s="4"/>
+      <c r="VI14" s="4"/>
+      <c r="VJ14" s="4"/>
+      <c r="VK14" s="4"/>
+      <c r="VL14" s="4"/>
+      <c r="VM14" s="4"/>
+      <c r="VN14" s="4"/>
+      <c r="VO14" s="4"/>
+      <c r="VP14" s="4"/>
+      <c r="VQ14" s="4"/>
+      <c r="VR14" s="4"/>
+      <c r="VS14" s="4"/>
+      <c r="VT14" s="4"/>
+      <c r="VU14" s="4"/>
+      <c r="VV14" s="4"/>
+      <c r="VW14" s="4"/>
+      <c r="VX14" s="4"/>
+      <c r="VY14" s="4"/>
+      <c r="VZ14" s="4"/>
+      <c r="WA14" s="4"/>
+      <c r="WB14" s="4"/>
+      <c r="WC14" s="4"/>
+      <c r="WD14" s="4"/>
+      <c r="WE14" s="4"/>
+      <c r="WF14" s="4"/>
+      <c r="WG14" s="4"/>
+      <c r="WH14" s="4"/>
+      <c r="WI14" s="4"/>
+      <c r="WJ14" s="4"/>
+      <c r="WK14" s="4"/>
+      <c r="WL14" s="4"/>
+      <c r="WM14" s="4"/>
+      <c r="WN14" s="4"/>
+      <c r="WO14" s="4"/>
+      <c r="WP14" s="4"/>
+      <c r="WQ14" s="4"/>
+      <c r="WR14" s="4"/>
+      <c r="WS14" s="4"/>
+      <c r="WT14" s="4"/>
+      <c r="WU14" s="4"/>
+      <c r="WV14" s="4"/>
+      <c r="WW14" s="4"/>
+      <c r="WX14" s="4"/>
+      <c r="WY14" s="4"/>
+      <c r="WZ14" s="4"/>
+      <c r="XA14" s="4"/>
+      <c r="XB14" s="4"/>
+      <c r="XC14" s="4"/>
+      <c r="XD14" s="4"/>
+      <c r="XE14" s="4"/>
+      <c r="XF14" s="4"/>
+      <c r="XG14" s="4"/>
+      <c r="XH14" s="4"/>
+      <c r="XI14" s="4"/>
+      <c r="XJ14" s="4"/>
+      <c r="XK14" s="4"/>
+      <c r="XL14" s="4"/>
+      <c r="XM14" s="4"/>
+      <c r="XN14" s="4"/>
+      <c r="XO14" s="4"/>
+      <c r="XP14" s="4"/>
+      <c r="XQ14" s="4"/>
+      <c r="XR14" s="4"/>
+      <c r="XS14" s="4"/>
+      <c r="XT14" s="4"/>
+      <c r="XU14" s="4"/>
+      <c r="XV14" s="4"/>
+      <c r="XW14" s="4"/>
+      <c r="XX14" s="4"/>
+      <c r="XY14" s="4"/>
+      <c r="XZ14" s="4"/>
+      <c r="YA14" s="4"/>
+      <c r="YB14" s="4"/>
+      <c r="YC14" s="4"/>
+      <c r="YD14" s="4"/>
+      <c r="YE14" s="4"/>
+      <c r="YF14" s="4"/>
+      <c r="YG14" s="4"/>
+      <c r="YH14" s="4"/>
+      <c r="YI14" s="4"/>
+      <c r="YJ14" s="4"/>
+      <c r="YK14" s="4"/>
+      <c r="YL14" s="4"/>
+      <c r="YM14" s="4"/>
+      <c r="YN14" s="4"/>
+      <c r="YO14" s="4"/>
+      <c r="YP14" s="4"/>
+      <c r="YQ14" s="4"/>
+      <c r="YR14" s="4"/>
+      <c r="YS14" s="4"/>
+      <c r="YT14" s="4"/>
+      <c r="YU14" s="4"/>
+      <c r="YV14" s="4"/>
+      <c r="YW14" s="4"/>
+      <c r="YX14" s="4"/>
+      <c r="YY14" s="4"/>
+      <c r="YZ14" s="4"/>
+      <c r="ZA14" s="4"/>
+      <c r="ZB14" s="4"/>
+      <c r="ZC14" s="4"/>
+      <c r="ZD14" s="4"/>
+      <c r="ZE14" s="4"/>
+      <c r="ZF14" s="4"/>
+      <c r="ZG14" s="4"/>
+      <c r="ZH14" s="4"/>
+      <c r="ZI14" s="4"/>
+      <c r="ZJ14" s="4"/>
+      <c r="ZK14" s="4"/>
+      <c r="ZL14" s="4"/>
+      <c r="ZM14" s="4"/>
+      <c r="ZN14" s="4"/>
+      <c r="ZO14" s="4"/>
+      <c r="ZP14" s="4"/>
+      <c r="ZQ14" s="4"/>
+      <c r="ZR14" s="4"/>
+      <c r="ZS14" s="4"/>
+      <c r="ZT14" s="4"/>
+      <c r="ZU14" s="4"/>
+      <c r="ZV14" s="4"/>
+      <c r="ZW14" s="4"/>
+      <c r="ZX14" s="4"/>
+      <c r="ZY14" s="4"/>
+      <c r="ZZ14" s="4"/>
+      <c r="AAA14" s="4"/>
+      <c r="AAB14" s="4"/>
+      <c r="AAC14" s="4"/>
+      <c r="AAD14" s="4"/>
+      <c r="AAE14" s="4"/>
+      <c r="AAF14" s="4"/>
+      <c r="AAG14" s="4"/>
+      <c r="AAH14" s="4"/>
+      <c r="AAI14" s="4"/>
+      <c r="AAJ14" s="4"/>
+      <c r="AAK14" s="4"/>
+      <c r="AAL14" s="4"/>
+      <c r="AAM14" s="4"/>
+      <c r="AAN14" s="4"/>
+      <c r="AAO14" s="4"/>
+      <c r="AAP14" s="4"/>
+      <c r="AAQ14" s="4"/>
+      <c r="AAR14" s="4"/>
+      <c r="AAS14" s="4"/>
+      <c r="AAT14" s="4"/>
+      <c r="AAU14" s="4"/>
+      <c r="AAV14" s="4"/>
+      <c r="AAW14" s="4"/>
+      <c r="AAX14" s="4"/>
+      <c r="AAY14" s="4"/>
+      <c r="AAZ14" s="4"/>
+      <c r="ABA14" s="4"/>
+      <c r="ABB14" s="4"/>
+      <c r="ABC14" s="4"/>
+      <c r="ABD14" s="4"/>
+      <c r="ABE14" s="4"/>
+      <c r="ABF14" s="4"/>
+      <c r="ABG14" s="4"/>
+      <c r="ABH14" s="4"/>
+      <c r="ABI14" s="4"/>
+      <c r="ABJ14" s="4"/>
+      <c r="ABK14" s="4"/>
+      <c r="ABL14" s="4"/>
+      <c r="ABM14" s="4"/>
+      <c r="ABN14" s="4"/>
+      <c r="ABO14" s="4"/>
+      <c r="ABP14" s="4"/>
+      <c r="ABQ14" s="4"/>
+      <c r="ABR14" s="4"/>
+      <c r="ABS14" s="4"/>
+      <c r="ABT14" s="4"/>
+      <c r="ABU14" s="4"/>
+      <c r="ABV14" s="4"/>
+      <c r="ABW14" s="4"/>
+      <c r="ABX14" s="4"/>
+      <c r="ABY14" s="4"/>
+      <c r="ABZ14" s="4"/>
+      <c r="ACA14" s="4"/>
+      <c r="ACB14" s="4"/>
+      <c r="ACC14" s="4"/>
+      <c r="ACD14" s="4"/>
+      <c r="ACE14" s="4"/>
+      <c r="ACF14" s="4"/>
+      <c r="ACG14" s="4"/>
+      <c r="ACH14" s="4"/>
+      <c r="ACI14" s="4"/>
+      <c r="ACJ14" s="4"/>
+      <c r="ACK14" s="4"/>
+      <c r="ACL14" s="4"/>
+      <c r="ACM14" s="4"/>
+      <c r="ACN14" s="4"/>
+      <c r="ACO14" s="4"/>
+      <c r="ACP14" s="4"/>
+      <c r="ACQ14" s="4"/>
+      <c r="ACR14" s="4"/>
+      <c r="ACS14" s="4"/>
+      <c r="ACT14" s="4"/>
+      <c r="ACU14" s="4"/>
+      <c r="ACV14" s="4"/>
+      <c r="ACW14" s="4"/>
+      <c r="ACX14" s="4"/>
+      <c r="ACY14" s="4"/>
+      <c r="ACZ14" s="4"/>
+      <c r="ADA14" s="4"/>
+      <c r="ADB14" s="4"/>
+      <c r="ADC14" s="4"/>
+      <c r="ADD14" s="4"/>
+      <c r="ADE14" s="4"/>
+      <c r="ADF14" s="4"/>
+      <c r="ADG14" s="4"/>
+      <c r="ADH14" s="4"/>
+      <c r="ADI14" s="4"/>
+      <c r="ADJ14" s="4"/>
+      <c r="ADK14" s="4"/>
+      <c r="ADL14" s="4"/>
+      <c r="ADM14" s="4"/>
+      <c r="ADN14" s="4"/>
+      <c r="ADO14" s="4"/>
+      <c r="ADP14" s="4"/>
+      <c r="ADQ14" s="4"/>
+      <c r="ADR14" s="4"/>
+      <c r="ADS14" s="4"/>
+      <c r="ADT14" s="4"/>
+      <c r="ADU14" s="4"/>
+      <c r="ADV14" s="4"/>
+      <c r="ADW14" s="4"/>
+      <c r="ADX14" s="4"/>
+      <c r="ADY14" s="4"/>
+      <c r="ADZ14" s="4"/>
+      <c r="AEA14" s="4"/>
+      <c r="AEB14" s="4"/>
+      <c r="AEC14" s="4"/>
+      <c r="AED14" s="4"/>
+      <c r="AEE14" s="4"/>
+      <c r="AEF14" s="4"/>
+      <c r="AEG14" s="4"/>
+      <c r="AEH14" s="4"/>
+      <c r="AEI14" s="4"/>
+      <c r="AEJ14" s="4"/>
+      <c r="AEK14" s="4"/>
+      <c r="AEL14" s="4"/>
+      <c r="AEM14" s="4"/>
+      <c r="AEN14" s="4"/>
+      <c r="AEO14" s="4"/>
+      <c r="AEP14" s="4"/>
+      <c r="AEQ14" s="4"/>
+      <c r="AER14" s="4"/>
+      <c r="AES14" s="4"/>
+      <c r="AET14" s="4"/>
+      <c r="AEU14" s="4"/>
+      <c r="AEV14" s="4"/>
+      <c r="AEW14" s="4"/>
+      <c r="AEX14" s="4"/>
+      <c r="AEY14" s="4"/>
+      <c r="AEZ14" s="4"/>
+      <c r="AFA14" s="4"/>
+      <c r="AFB14" s="4"/>
+      <c r="AFC14" s="4"/>
+      <c r="AFD14" s="4"/>
+      <c r="AFE14" s="4"/>
+      <c r="AFF14" s="4"/>
+      <c r="AFG14" s="4"/>
+      <c r="AFH14" s="4"/>
+      <c r="AFI14" s="4"/>
+      <c r="AFJ14" s="4"/>
+      <c r="AFK14" s="4"/>
+      <c r="AFL14" s="4"/>
+      <c r="AFM14" s="4"/>
+      <c r="AFN14" s="4"/>
+      <c r="AFO14" s="4"/>
+      <c r="AFP14" s="4"/>
+      <c r="AFQ14" s="4"/>
+      <c r="AFR14" s="4"/>
+      <c r="AFS14" s="4"/>
+      <c r="AFT14" s="4"/>
+      <c r="AFU14" s="4"/>
+      <c r="AFV14" s="4"/>
+      <c r="AFW14" s="4"/>
+      <c r="AFX14" s="4"/>
+      <c r="AFY14" s="4"/>
+      <c r="AFZ14" s="4"/>
+      <c r="AGA14" s="4"/>
+      <c r="AGB14" s="4"/>
+      <c r="AGC14" s="4"/>
+      <c r="AGD14" s="4"/>
+      <c r="AGE14" s="4"/>
+      <c r="AGF14" s="4"/>
+      <c r="AGG14" s="4"/>
+      <c r="AGH14" s="4"/>
+      <c r="AGI14" s="4"/>
+      <c r="AGJ14" s="4"/>
+      <c r="AGK14" s="4"/>
+      <c r="AGL14" s="4"/>
+      <c r="AGM14" s="4"/>
+      <c r="AGN14" s="4"/>
+      <c r="AGO14" s="4"/>
+      <c r="AGP14" s="4"/>
+      <c r="AGQ14" s="4"/>
+      <c r="AGR14" s="4"/>
+      <c r="AGS14" s="4"/>
+      <c r="AGT14" s="4"/>
+      <c r="AGU14" s="4"/>
+      <c r="AGV14" s="4"/>
+      <c r="AGW14" s="4"/>
+      <c r="AGX14" s="4"/>
+      <c r="AGY14" s="4"/>
+      <c r="AGZ14" s="4"/>
+      <c r="AHA14" s="4"/>
+      <c r="AHB14" s="4"/>
+      <c r="AHC14" s="4"/>
+      <c r="AHD14" s="4"/>
+      <c r="AHE14" s="4"/>
+      <c r="AHF14" s="4"/>
+      <c r="AHG14" s="4"/>
+      <c r="AHH14" s="4"/>
+      <c r="AHI14" s="4"/>
+      <c r="AHJ14" s="4"/>
+      <c r="AHK14" s="4"/>
+      <c r="AHL14" s="4"/>
+      <c r="AHM14" s="4"/>
+      <c r="AHN14" s="4"/>
+      <c r="AHO14" s="4"/>
+      <c r="AHP14" s="4"/>
+      <c r="AHQ14" s="4"/>
+      <c r="AHR14" s="4"/>
+      <c r="AHS14" s="4"/>
+      <c r="AHT14" s="4"/>
+      <c r="AHU14" s="4"/>
+      <c r="AHV14" s="4"/>
+      <c r="AHW14" s="4"/>
+      <c r="AHX14" s="4"/>
+      <c r="AHY14" s="4"/>
+      <c r="AHZ14" s="4"/>
+      <c r="AIA14" s="4"/>
+      <c r="AIB14" s="4"/>
+      <c r="AIC14" s="4"/>
+      <c r="AID14" s="4"/>
+      <c r="AIE14" s="4"/>
+      <c r="AIF14" s="4"/>
+      <c r="AIG14" s="4"/>
+      <c r="AIH14" s="4"/>
+      <c r="AII14" s="4"/>
+      <c r="AIJ14" s="4"/>
+      <c r="AIK14" s="4"/>
+      <c r="AIL14" s="4"/>
+      <c r="AIM14" s="4"/>
+      <c r="AIN14" s="4"/>
+      <c r="AIO14" s="4"/>
+      <c r="AIP14" s="4"/>
+      <c r="AIQ14" s="4"/>
+      <c r="AIR14" s="4"/>
+      <c r="AIS14" s="4"/>
+      <c r="AIT14" s="4"/>
+      <c r="AIU14" s="4"/>
+      <c r="AIV14" s="4"/>
+      <c r="AIW14" s="4"/>
+      <c r="AIX14" s="4"/>
+      <c r="AIY14" s="4"/>
+      <c r="AIZ14" s="4"/>
+      <c r="AJA14" s="4"/>
+      <c r="AJB14" s="4"/>
+      <c r="AJC14" s="4"/>
+      <c r="AJD14" s="4"/>
+      <c r="AJE14" s="4"/>
+      <c r="AJF14" s="4"/>
+      <c r="AJG14" s="4"/>
+      <c r="AJH14" s="4"/>
+      <c r="AJI14" s="4"/>
+      <c r="AJJ14" s="4"/>
+      <c r="AJK14" s="4"/>
+      <c r="AJL14" s="4"/>
+      <c r="AJM14" s="4"/>
+      <c r="AJN14" s="4"/>
+      <c r="AJO14" s="4"/>
+      <c r="AJP14" s="4"/>
+      <c r="AJQ14" s="4"/>
+      <c r="AJR14" s="4"/>
+      <c r="AJS14" s="4"/>
+      <c r="AJT14" s="4"/>
+      <c r="AJU14" s="4"/>
+      <c r="AJV14" s="4"/>
+      <c r="AJW14" s="4"/>
+      <c r="AJX14" s="4"/>
+      <c r="AJY14" s="4"/>
+      <c r="AJZ14" s="4"/>
+      <c r="AKA14" s="4"/>
+      <c r="AKB14" s="4"/>
+      <c r="AKC14" s="4"/>
+      <c r="AKD14" s="4"/>
+      <c r="AKE14" s="4"/>
+      <c r="AKF14" s="4"/>
+      <c r="AKG14" s="4"/>
+      <c r="AKH14" s="4"/>
+      <c r="AKI14" s="4"/>
+      <c r="AKJ14" s="4"/>
+      <c r="AKK14" s="4"/>
+      <c r="AKL14" s="4"/>
+      <c r="AKM14" s="4"/>
+      <c r="AKN14" s="4"/>
+      <c r="AKO14" s="4"/>
+      <c r="AKP14" s="4"/>
+      <c r="AKQ14" s="4"/>
+      <c r="AKR14" s="4"/>
+      <c r="AKS14" s="4"/>
+      <c r="AKT14" s="4"/>
+      <c r="AKU14" s="4"/>
+      <c r="AKV14" s="4"/>
+      <c r="AKW14" s="4"/>
+      <c r="AKX14" s="4"/>
+      <c r="AKY14" s="4"/>
+      <c r="AKZ14" s="4"/>
+      <c r="ALA14" s="4"/>
+      <c r="ALB14" s="4"/>
+      <c r="ALC14" s="4"/>
+      <c r="ALD14" s="4"/>
+      <c r="ALE14" s="4"/>
+      <c r="ALF14" s="4"/>
+      <c r="ALG14" s="4"/>
+      <c r="ALH14" s="4"/>
+      <c r="ALI14" s="4"/>
+      <c r="ALJ14" s="4"/>
+      <c r="ALK14" s="4"/>
+      <c r="ALL14" s="4"/>
+      <c r="ALM14" s="4"/>
+      <c r="ALN14" s="4"/>
+      <c r="ALO14" s="4"/>
+      <c r="ALP14" s="4"/>
+      <c r="ALQ14" s="4"/>
+      <c r="ALR14" s="4"/>
+      <c r="ALS14" s="4"/>
+      <c r="ALT14" s="4"/>
+      <c r="ALU14" s="4"/>
+      <c r="ALV14" s="4"/>
+      <c r="ALW14" s="4"/>
+      <c r="ALX14" s="4"/>
+      <c r="ALY14" s="4"/>
+      <c r="ALZ14" s="4"/>
+      <c r="AMA14" s="4"/>
+      <c r="AMB14" s="4"/>
+      <c r="AMC14" s="4"/>
+      <c r="AMD14" s="4"/>
+      <c r="AME14" s="4"/>
+      <c r="AMF14" s="4"/>
+      <c r="AMG14" s="4"/>
+      <c r="AMH14" s="4"/>
+      <c r="AMI14" s="4"/>
+      <c r="AMJ14" s="4"/>
+      <c r="AMK14" s="4"/>
+      <c r="AML14" s="4"/>
+      <c r="AMM14" s="4"/>
+      <c r="AMN14" s="4"/>
+      <c r="AMO14" s="4"/>
+      <c r="AMP14" s="4"/>
+      <c r="AMQ14" s="4"/>
+      <c r="AMR14" s="4"/>
+    </row>
+    <row r="15" spans="1:1032" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+    </row>
+    <row r="16" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+    </row>
+    <row r="17" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="15"/>
-      <c r="BK13" s="15"/>
-      <c r="BL13" s="15"/>
-      <c r="BM13" s="15"/>
-      <c r="BN13" s="15"/>
-      <c r="BO13" s="15"/>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BR13" s="15"/>
-      <c r="BS13" s="15"/>
-      <c r="BT13" s="15"/>
-      <c r="BU13" s="15"/>
-      <c r="BV13" s="15"/>
-      <c r="BW13" s="15"/>
-      <c r="BX13" s="15"/>
-      <c r="BY13" s="15"/>
-      <c r="BZ13" s="19"/>
-      <c r="CA13" s="19"/>
-      <c r="CB13" s="19"/>
-      <c r="CC13" s="19"/>
-      <c r="CD13" s="19"/>
-      <c r="CE13" s="19"/>
-      <c r="CF13" s="19"/>
-      <c r="CG13" s="19"/>
-      <c r="CH13" s="19"/>
-      <c r="CI13" s="19"/>
-      <c r="CJ13" s="19"/>
-      <c r="CK13" s="19"/>
-      <c r="CL13" s="19"/>
-      <c r="CM13" s="19"/>
-      <c r="CN13" s="19"/>
-      <c r="CO13" s="19"/>
-      <c r="CP13" s="19"/>
-      <c r="CQ13" s="19"/>
-      <c r="CR13" s="19"/>
-      <c r="CS13" s="19"/>
-      <c r="CT13" s="19"/>
-      <c r="CU13" s="19"/>
-      <c r="CV13" s="19"/>
-      <c r="CW13" s="19"/>
-      <c r="CX13" s="19"/>
-      <c r="CY13" s="19"/>
-      <c r="CZ13" s="19"/>
-      <c r="DA13" s="19"/>
-      <c r="DB13" s="19"/>
-      <c r="DC13" s="19"/>
-      <c r="DD13" s="19"/>
-      <c r="DE13" s="19"/>
-      <c r="DF13" s="19"/>
-      <c r="DG13" s="19"/>
-      <c r="DH13" s="19"/>
-      <c r="DI13" s="19"/>
-      <c r="DJ13" s="19"/>
-      <c r="DK13" s="19"/>
-      <c r="DL13" s="19"/>
-      <c r="DM13" s="19"/>
-      <c r="DN13" s="19"/>
-      <c r="DO13" s="19"/>
-      <c r="DP13" s="19"/>
-      <c r="DQ13" s="19"/>
-      <c r="DR13" s="19"/>
-      <c r="DS13" s="19"/>
-      <c r="DT13" s="19"/>
-      <c r="DU13" s="19"/>
-      <c r="DV13" s="19"/>
-      <c r="DW13" s="19"/>
-      <c r="DX13" s="19"/>
-      <c r="DY13" s="19"/>
-      <c r="DZ13" s="19"/>
-      <c r="EA13" s="19"/>
-      <c r="EB13" s="19"/>
-      <c r="EC13" s="19"/>
-      <c r="ED13" s="19"/>
-      <c r="EE13" s="19"/>
-      <c r="EF13" s="19"/>
-      <c r="EG13" s="19"/>
-      <c r="EH13" s="19"/>
-      <c r="EI13" s="19"/>
-      <c r="EJ13" s="19"/>
-      <c r="EK13" s="19"/>
-      <c r="EL13" s="19"/>
-      <c r="EM13" s="19"/>
-      <c r="EN13" s="19"/>
-      <c r="EO13" s="19"/>
-      <c r="EP13" s="19"/>
-      <c r="EQ13" s="19"/>
-      <c r="ER13" s="19"/>
-      <c r="ES13" s="19"/>
-      <c r="ET13" s="19"/>
-      <c r="EU13" s="19"/>
-      <c r="EV13" s="19"/>
-      <c r="EW13" s="19"/>
-      <c r="EX13" s="19"/>
-      <c r="EY13" s="19"/>
-      <c r="EZ13" s="19"/>
-      <c r="FA13" s="19"/>
-      <c r="FB13" s="19"/>
-      <c r="FC13" s="19"/>
-      <c r="FD13" s="19"/>
-      <c r="FE13" s="19"/>
-      <c r="FF13" s="19"/>
-      <c r="FG13" s="19"/>
-      <c r="FH13" s="19"/>
-      <c r="FI13" s="19"/>
-      <c r="FJ13" s="19"/>
-      <c r="FK13" s="19"/>
-      <c r="FL13" s="19"/>
-      <c r="FM13" s="19"/>
-      <c r="FN13" s="19"/>
-      <c r="FO13" s="19"/>
-      <c r="FP13" s="19"/>
-      <c r="FQ13" s="19"/>
-      <c r="FR13" s="19"/>
-      <c r="FS13" s="19"/>
-      <c r="FT13" s="19"/>
-      <c r="FU13" s="19"/>
-      <c r="FV13" s="19"/>
-      <c r="FW13" s="19"/>
-      <c r="FX13" s="19"/>
-      <c r="FY13" s="19"/>
-      <c r="FZ13" s="19"/>
-      <c r="GA13" s="19"/>
-      <c r="GB13" s="19"/>
-      <c r="GC13" s="19"/>
-      <c r="GD13" s="19"/>
-      <c r="GE13" s="19"/>
-      <c r="GF13" s="19"/>
-      <c r="GG13" s="19"/>
-      <c r="GH13" s="19"/>
-      <c r="GI13" s="19"/>
-      <c r="GJ13" s="19"/>
-      <c r="GK13" s="19"/>
-      <c r="GL13" s="19"/>
-      <c r="GM13" s="19"/>
-      <c r="GN13" s="19"/>
-      <c r="GO13" s="19"/>
-      <c r="GP13" s="19"/>
-      <c r="GQ13" s="19"/>
-      <c r="GR13" s="19"/>
-      <c r="GS13" s="19"/>
-      <c r="GT13" s="19"/>
-      <c r="GU13" s="19"/>
-      <c r="GV13" s="19"/>
-      <c r="GW13" s="19"/>
-      <c r="GX13" s="19"/>
-      <c r="GY13" s="19"/>
-      <c r="GZ13" s="19"/>
-      <c r="HA13" s="19"/>
-      <c r="HB13" s="19"/>
-      <c r="HC13" s="19"/>
-      <c r="HD13" s="19"/>
-      <c r="HE13" s="19"/>
-      <c r="HF13" s="19"/>
-      <c r="HG13" s="19"/>
-      <c r="HH13" s="19"/>
-      <c r="HI13" s="19"/>
-      <c r="HJ13" s="19"/>
-      <c r="HK13" s="19"/>
-      <c r="HL13" s="19"/>
-      <c r="HM13" s="19"/>
-      <c r="HN13" s="19"/>
-      <c r="HO13" s="19"/>
-      <c r="HP13" s="19"/>
-      <c r="HQ13" s="19"/>
-      <c r="HR13" s="19"/>
-      <c r="HS13" s="19"/>
-      <c r="HT13" s="19"/>
-      <c r="HU13" s="19"/>
-      <c r="HV13" s="19"/>
-      <c r="HW13" s="19"/>
-      <c r="HX13" s="19"/>
-      <c r="HY13" s="19"/>
-      <c r="HZ13" s="19"/>
-      <c r="IA13" s="19"/>
-      <c r="IB13" s="19"/>
-      <c r="IC13" s="19"/>
-      <c r="ID13" s="19"/>
-      <c r="IE13" s="19"/>
-      <c r="IF13" s="19"/>
-      <c r="IG13" s="19"/>
-      <c r="IH13" s="19"/>
-      <c r="II13" s="19"/>
-      <c r="IJ13" s="19"/>
-      <c r="IK13" s="19"/>
-      <c r="IL13" s="19"/>
-      <c r="IM13" s="19"/>
-      <c r="IN13" s="19"/>
-      <c r="IO13" s="19"/>
-      <c r="IP13" s="19"/>
-      <c r="IQ13" s="19"/>
-      <c r="IR13" s="19"/>
-      <c r="IS13" s="19"/>
-      <c r="IT13" s="19"/>
-      <c r="IU13" s="19"/>
-      <c r="IV13" s="19"/>
-      <c r="IW13" s="19"/>
-      <c r="IX13" s="19"/>
-      <c r="IY13" s="19"/>
-      <c r="IZ13" s="19"/>
-      <c r="JA13" s="19"/>
-      <c r="JB13" s="19"/>
-      <c r="JC13" s="19"/>
-      <c r="JD13" s="19"/>
-      <c r="JE13" s="19"/>
-      <c r="JF13" s="19"/>
-      <c r="JG13" s="19"/>
-      <c r="JH13" s="19"/>
-      <c r="JI13" s="19"/>
-      <c r="JJ13" s="19"/>
-      <c r="JK13" s="19"/>
-      <c r="JL13" s="19"/>
-      <c r="JM13" s="19"/>
-      <c r="JN13" s="19"/>
-      <c r="JO13" s="19"/>
-      <c r="JP13" s="19"/>
-      <c r="JQ13" s="19"/>
-      <c r="JR13" s="19"/>
-      <c r="JS13" s="19"/>
-      <c r="JT13" s="19"/>
-      <c r="JU13" s="19"/>
-      <c r="JV13" s="19"/>
-      <c r="JW13" s="19"/>
-      <c r="JX13" s="19"/>
-      <c r="JY13" s="19"/>
-      <c r="JZ13" s="19"/>
-      <c r="KA13" s="19"/>
-      <c r="KB13" s="19"/>
-      <c r="KC13" s="19"/>
-      <c r="KD13" s="19"/>
-      <c r="KE13" s="19"/>
-      <c r="KF13" s="19"/>
-      <c r="KG13" s="19"/>
-      <c r="KH13" s="19"/>
-      <c r="KI13" s="19"/>
-      <c r="KJ13" s="19"/>
-      <c r="KK13" s="19"/>
-      <c r="KL13" s="19"/>
-      <c r="KM13" s="19"/>
-      <c r="KN13" s="19"/>
-      <c r="KO13" s="19"/>
-      <c r="KP13" s="19"/>
-      <c r="KQ13" s="19"/>
-      <c r="KR13" s="19"/>
-      <c r="KS13" s="19"/>
-      <c r="KT13" s="19"/>
-      <c r="KU13" s="19"/>
-      <c r="KV13" s="19"/>
-      <c r="KW13" s="19"/>
-      <c r="KX13" s="19"/>
-      <c r="KY13" s="19"/>
-      <c r="KZ13" s="19"/>
-      <c r="LA13" s="19"/>
-      <c r="LB13" s="19"/>
-      <c r="LC13" s="19"/>
-      <c r="LD13" s="19"/>
-      <c r="LE13" s="19"/>
-      <c r="LF13" s="19"/>
-      <c r="LG13" s="19"/>
-      <c r="LH13" s="19"/>
-      <c r="LI13" s="19"/>
-      <c r="LJ13" s="19"/>
-      <c r="LK13" s="19"/>
-      <c r="LL13" s="19"/>
-      <c r="LM13" s="19"/>
-      <c r="LN13" s="19"/>
-      <c r="LO13" s="19"/>
-      <c r="LP13" s="19"/>
-      <c r="LQ13" s="19"/>
-      <c r="LR13" s="19"/>
-      <c r="LS13" s="19"/>
-      <c r="LT13" s="19"/>
-      <c r="LU13" s="19"/>
-      <c r="LV13" s="19"/>
-      <c r="LW13" s="19"/>
-      <c r="LX13" s="19"/>
-      <c r="LY13" s="19"/>
-      <c r="LZ13" s="19"/>
-      <c r="MA13" s="19"/>
-      <c r="MB13" s="19"/>
-      <c r="MC13" s="19"/>
-      <c r="MD13" s="19"/>
-      <c r="ME13" s="19"/>
-      <c r="MF13" s="19"/>
-      <c r="MG13" s="19"/>
-      <c r="MH13" s="19"/>
-      <c r="MI13" s="19"/>
-      <c r="MJ13" s="19"/>
-      <c r="MK13" s="19"/>
-      <c r="ML13" s="19"/>
-      <c r="MM13" s="19"/>
-      <c r="MN13" s="19"/>
-      <c r="MO13" s="19"/>
-      <c r="MP13" s="19"/>
-      <c r="MQ13" s="19"/>
-      <c r="MR13" s="19"/>
-      <c r="MS13" s="19"/>
-      <c r="MT13" s="19"/>
-      <c r="MU13" s="19"/>
-      <c r="MV13" s="19"/>
-      <c r="MW13" s="19"/>
-      <c r="MX13" s="19"/>
-      <c r="MY13" s="19"/>
-      <c r="MZ13" s="19"/>
-      <c r="NA13" s="19"/>
-      <c r="NB13" s="19"/>
-      <c r="NC13" s="19"/>
-      <c r="ND13" s="19"/>
-      <c r="NE13" s="19"/>
-      <c r="NF13" s="19"/>
-      <c r="NG13" s="19"/>
-      <c r="NH13" s="19"/>
-      <c r="NI13" s="19"/>
-      <c r="NJ13" s="19"/>
-      <c r="NK13" s="19"/>
-      <c r="NL13" s="19"/>
-      <c r="NM13" s="19"/>
-      <c r="NN13" s="19"/>
-      <c r="NO13" s="19"/>
-      <c r="NP13" s="19"/>
-      <c r="NQ13" s="19"/>
-      <c r="NR13" s="19"/>
-      <c r="NS13" s="19"/>
-      <c r="NT13" s="19"/>
-      <c r="NU13" s="19"/>
-      <c r="NV13" s="19"/>
-      <c r="NW13" s="19"/>
-      <c r="NX13" s="19"/>
-      <c r="NY13" s="19"/>
-      <c r="NZ13" s="19"/>
-      <c r="OA13" s="19"/>
-      <c r="OB13" s="19"/>
-      <c r="OC13" s="19"/>
-      <c r="OD13" s="19"/>
-      <c r="OE13" s="19"/>
-      <c r="OF13" s="19"/>
-      <c r="OG13" s="19"/>
-      <c r="OH13" s="19"/>
-      <c r="OI13" s="19"/>
-      <c r="OJ13" s="19"/>
-      <c r="OK13" s="19"/>
-      <c r="OL13" s="19"/>
-      <c r="OM13" s="19"/>
-      <c r="ON13" s="19"/>
-      <c r="OO13" s="19"/>
-      <c r="OP13" s="19"/>
-      <c r="OQ13" s="19"/>
-      <c r="OR13" s="19"/>
-      <c r="OS13" s="19"/>
-      <c r="OT13" s="19"/>
-      <c r="OU13" s="19"/>
-      <c r="OV13" s="19"/>
-      <c r="OW13" s="19"/>
-      <c r="OX13" s="19"/>
-      <c r="OY13" s="19"/>
-      <c r="OZ13" s="19"/>
-      <c r="PA13" s="19"/>
-      <c r="PB13" s="19"/>
-      <c r="PC13" s="19"/>
-      <c r="PD13" s="19"/>
-      <c r="PE13" s="19"/>
-      <c r="PF13" s="19"/>
-      <c r="PG13" s="19"/>
-      <c r="PH13" s="19"/>
-      <c r="PI13" s="19"/>
-      <c r="PJ13" s="19"/>
-      <c r="PK13" s="19"/>
-      <c r="PL13" s="19"/>
-      <c r="PM13" s="19"/>
-      <c r="PN13" s="19"/>
-      <c r="PO13" s="19"/>
-      <c r="PP13" s="19"/>
-      <c r="PQ13" s="19"/>
-      <c r="PR13" s="19"/>
-      <c r="PS13" s="19"/>
-      <c r="PT13" s="19"/>
-      <c r="PU13" s="19"/>
-      <c r="PV13" s="19"/>
-      <c r="PW13" s="19"/>
-      <c r="PX13" s="19"/>
-      <c r="PY13" s="19"/>
-      <c r="PZ13" s="19"/>
-      <c r="QA13" s="19"/>
-      <c r="QB13" s="19"/>
-      <c r="QC13" s="19"/>
-      <c r="QD13" s="19"/>
-      <c r="QE13" s="19"/>
-      <c r="QF13" s="19"/>
-      <c r="QG13" s="19"/>
-      <c r="QH13" s="19"/>
-      <c r="QI13" s="19"/>
-      <c r="QJ13" s="19"/>
-      <c r="QK13" s="19"/>
-      <c r="QL13" s="19"/>
-      <c r="QM13" s="19"/>
-      <c r="QN13" s="19"/>
-      <c r="QO13" s="19"/>
-      <c r="QP13" s="19"/>
-      <c r="QQ13" s="19"/>
-      <c r="QR13" s="19"/>
-      <c r="QS13" s="19"/>
-      <c r="QT13" s="19"/>
-      <c r="QU13" s="19"/>
-      <c r="QV13" s="19"/>
-      <c r="QW13" s="19"/>
-      <c r="QX13" s="19"/>
-      <c r="QY13" s="19"/>
-      <c r="QZ13" s="19"/>
-      <c r="RA13" s="19"/>
-      <c r="RB13" s="19"/>
-      <c r="RC13" s="19"/>
-      <c r="RD13" s="19"/>
-      <c r="RE13" s="19"/>
-      <c r="RF13" s="19"/>
-      <c r="RG13" s="19"/>
-      <c r="RH13" s="19"/>
-      <c r="RI13" s="19"/>
-      <c r="RJ13" s="19"/>
-      <c r="RK13" s="19"/>
-      <c r="RL13" s="19"/>
-      <c r="RM13" s="19"/>
-      <c r="RN13" s="19"/>
-      <c r="RO13" s="19"/>
-      <c r="RP13" s="19"/>
-      <c r="RQ13" s="19"/>
-      <c r="RR13" s="19"/>
-      <c r="RS13" s="19"/>
-      <c r="RT13" s="19"/>
-      <c r="RU13" s="19"/>
-      <c r="RV13" s="19"/>
-      <c r="RW13" s="19"/>
-      <c r="RX13" s="19"/>
-      <c r="RY13" s="19"/>
-      <c r="RZ13" s="19"/>
-      <c r="SA13" s="19"/>
-      <c r="SB13" s="19"/>
-      <c r="SC13" s="19"/>
-      <c r="SD13" s="19"/>
-      <c r="SE13" s="19"/>
-      <c r="SF13" s="19"/>
-      <c r="SG13" s="19"/>
-      <c r="SH13" s="19"/>
-      <c r="SI13" s="19"/>
-      <c r="SJ13" s="19"/>
-      <c r="SK13" s="19"/>
-      <c r="SL13" s="19"/>
-      <c r="SM13" s="19"/>
-      <c r="SN13" s="19"/>
-      <c r="SO13" s="19"/>
-      <c r="SP13" s="19"/>
-      <c r="SQ13" s="19"/>
-      <c r="SR13" s="19"/>
-      <c r="SS13" s="19"/>
-      <c r="ST13" s="19"/>
-      <c r="SU13" s="19"/>
-      <c r="SV13" s="19"/>
-      <c r="SW13" s="19"/>
-      <c r="SX13" s="19"/>
-      <c r="SY13" s="19"/>
-      <c r="SZ13" s="19"/>
-      <c r="TA13" s="19"/>
-      <c r="TB13" s="19"/>
-      <c r="TC13" s="19"/>
-      <c r="TD13" s="19"/>
-      <c r="TE13" s="19"/>
-      <c r="TF13" s="19"/>
-      <c r="TG13" s="19"/>
-      <c r="TH13" s="19"/>
-      <c r="TI13" s="19"/>
-      <c r="TJ13" s="19"/>
-      <c r="TK13" s="19"/>
-      <c r="TL13" s="19"/>
-      <c r="TM13" s="19"/>
-      <c r="TN13" s="19"/>
-      <c r="TO13" s="19"/>
-      <c r="TP13" s="19"/>
-      <c r="TQ13" s="19"/>
-      <c r="TR13" s="19"/>
-      <c r="TS13" s="19"/>
-      <c r="TT13" s="19"/>
-      <c r="TU13" s="19"/>
-      <c r="TV13" s="19"/>
-      <c r="TW13" s="19"/>
-      <c r="TX13" s="19"/>
-      <c r="TY13" s="19"/>
-      <c r="TZ13" s="19"/>
-      <c r="UA13" s="19"/>
-      <c r="UB13" s="19"/>
-      <c r="UC13" s="19"/>
-      <c r="UD13" s="19"/>
-      <c r="UE13" s="19"/>
-      <c r="UF13" s="19"/>
-      <c r="UG13" s="19"/>
-      <c r="UH13" s="19"/>
-      <c r="UI13" s="19"/>
-      <c r="UJ13" s="19"/>
-      <c r="UK13" s="19"/>
-      <c r="UL13" s="19"/>
-      <c r="UM13" s="19"/>
-      <c r="UN13" s="19"/>
-      <c r="UO13" s="19"/>
-      <c r="UP13" s="19"/>
-      <c r="UQ13" s="19"/>
-      <c r="UR13" s="19"/>
-      <c r="US13" s="19"/>
-      <c r="UT13" s="19"/>
-      <c r="UU13" s="19"/>
-      <c r="UV13" s="19"/>
-      <c r="UW13" s="19"/>
-      <c r="UX13" s="19"/>
-      <c r="UY13" s="19"/>
-      <c r="UZ13" s="19"/>
-      <c r="VA13" s="19"/>
-      <c r="VB13" s="19"/>
-      <c r="VC13" s="19"/>
-      <c r="VD13" s="19"/>
-      <c r="VE13" s="19"/>
-      <c r="VF13" s="19"/>
-      <c r="VG13" s="19"/>
-      <c r="VH13" s="19"/>
-      <c r="VI13" s="19"/>
-      <c r="VJ13" s="19"/>
-      <c r="VK13" s="19"/>
-      <c r="VL13" s="19"/>
-      <c r="VM13" s="19"/>
-      <c r="VN13" s="19"/>
-      <c r="VO13" s="19"/>
-      <c r="VP13" s="19"/>
-      <c r="VQ13" s="19"/>
-      <c r="VR13" s="19"/>
-      <c r="VS13" s="19"/>
-      <c r="VT13" s="19"/>
-      <c r="VU13" s="19"/>
-      <c r="VV13" s="19"/>
-      <c r="VW13" s="19"/>
-      <c r="VX13" s="19"/>
-      <c r="VY13" s="19"/>
-      <c r="VZ13" s="19"/>
-      <c r="WA13" s="19"/>
-      <c r="WB13" s="19"/>
-      <c r="WC13" s="19"/>
-      <c r="WD13" s="19"/>
-      <c r="WE13" s="19"/>
-      <c r="WF13" s="19"/>
-      <c r="WG13" s="19"/>
-      <c r="WH13" s="19"/>
-      <c r="WI13" s="19"/>
-      <c r="WJ13" s="19"/>
-      <c r="WK13" s="19"/>
-      <c r="WL13" s="19"/>
-      <c r="WM13" s="19"/>
-      <c r="WN13" s="19"/>
-      <c r="WO13" s="19"/>
-      <c r="WP13" s="19"/>
-      <c r="WQ13" s="19"/>
-      <c r="WR13" s="19"/>
-      <c r="WS13" s="19"/>
-      <c r="WT13" s="19"/>
-      <c r="WU13" s="19"/>
-      <c r="WV13" s="19"/>
-      <c r="WW13" s="19"/>
-      <c r="WX13" s="19"/>
-      <c r="WY13" s="19"/>
-      <c r="WZ13" s="19"/>
-      <c r="XA13" s="19"/>
-      <c r="XB13" s="19"/>
-      <c r="XC13" s="19"/>
-      <c r="XD13" s="19"/>
-      <c r="XE13" s="19"/>
-      <c r="XF13" s="19"/>
-      <c r="XG13" s="19"/>
-      <c r="XH13" s="19"/>
-      <c r="XI13" s="19"/>
-      <c r="XJ13" s="19"/>
-      <c r="XK13" s="19"/>
-      <c r="XL13" s="19"/>
-      <c r="XM13" s="19"/>
-      <c r="XN13" s="19"/>
-      <c r="XO13" s="19"/>
-      <c r="XP13" s="19"/>
-      <c r="XQ13" s="19"/>
-      <c r="XR13" s="19"/>
-      <c r="XS13" s="19"/>
-      <c r="XT13" s="19"/>
-      <c r="XU13" s="19"/>
-      <c r="XV13" s="19"/>
-      <c r="XW13" s="19"/>
-      <c r="XX13" s="19"/>
-      <c r="XY13" s="19"/>
-      <c r="XZ13" s="19"/>
-      <c r="YA13" s="19"/>
-      <c r="YB13" s="19"/>
-      <c r="YC13" s="19"/>
-      <c r="YD13" s="19"/>
-      <c r="YE13" s="19"/>
-      <c r="YF13" s="19"/>
-      <c r="YG13" s="19"/>
-      <c r="YH13" s="19"/>
-      <c r="YI13" s="19"/>
-      <c r="YJ13" s="19"/>
-      <c r="YK13" s="19"/>
-      <c r="YL13" s="19"/>
-      <c r="YM13" s="19"/>
-      <c r="YN13" s="19"/>
-      <c r="YO13" s="19"/>
-      <c r="YP13" s="19"/>
-      <c r="YQ13" s="19"/>
-      <c r="YR13" s="19"/>
-      <c r="YS13" s="19"/>
-      <c r="YT13" s="19"/>
-      <c r="YU13" s="19"/>
-      <c r="YV13" s="19"/>
-      <c r="YW13" s="19"/>
-      <c r="YX13" s="19"/>
-      <c r="YY13" s="19"/>
-      <c r="YZ13" s="19"/>
-      <c r="ZA13" s="19"/>
-      <c r="ZB13" s="19"/>
-      <c r="ZC13" s="19"/>
-      <c r="ZD13" s="19"/>
-      <c r="ZE13" s="19"/>
-      <c r="ZF13" s="19"/>
-      <c r="ZG13" s="19"/>
-      <c r="ZH13" s="19"/>
-      <c r="ZI13" s="19"/>
-      <c r="ZJ13" s="19"/>
-      <c r="ZK13" s="19"/>
-      <c r="ZL13" s="19"/>
-      <c r="ZM13" s="19"/>
-      <c r="ZN13" s="19"/>
-      <c r="ZO13" s="19"/>
-      <c r="ZP13" s="19"/>
-      <c r="ZQ13" s="19"/>
-      <c r="ZR13" s="19"/>
-      <c r="ZS13" s="19"/>
-      <c r="ZT13" s="19"/>
-      <c r="ZU13" s="19"/>
-      <c r="ZV13" s="19"/>
-      <c r="ZW13" s="19"/>
-      <c r="ZX13" s="19"/>
-      <c r="ZY13" s="19"/>
-      <c r="ZZ13" s="19"/>
-      <c r="AAA13" s="19"/>
-      <c r="AAB13" s="19"/>
-      <c r="AAC13" s="19"/>
-      <c r="AAD13" s="19"/>
-      <c r="AAE13" s="19"/>
-      <c r="AAF13" s="19"/>
-      <c r="AAG13" s="19"/>
-      <c r="AAH13" s="19"/>
-      <c r="AAI13" s="19"/>
-      <c r="AAJ13" s="19"/>
-      <c r="AAK13" s="19"/>
-      <c r="AAL13" s="19"/>
-      <c r="AAM13" s="19"/>
-      <c r="AAN13" s="19"/>
-      <c r="AAO13" s="19"/>
-      <c r="AAP13" s="19"/>
-      <c r="AAQ13" s="19"/>
-      <c r="AAR13" s="19"/>
-      <c r="AAS13" s="19"/>
-      <c r="AAT13" s="19"/>
-      <c r="AAU13" s="19"/>
-      <c r="AAV13" s="19"/>
-      <c r="AAW13" s="19"/>
-      <c r="AAX13" s="19"/>
-      <c r="AAY13" s="19"/>
-      <c r="AAZ13" s="19"/>
-      <c r="ABA13" s="19"/>
-      <c r="ABB13" s="19"/>
-      <c r="ABC13" s="19"/>
-      <c r="ABD13" s="19"/>
-      <c r="ABE13" s="19"/>
-      <c r="ABF13" s="19"/>
-      <c r="ABG13" s="19"/>
-      <c r="ABH13" s="19"/>
-      <c r="ABI13" s="19"/>
-      <c r="ABJ13" s="19"/>
-      <c r="ABK13" s="19"/>
-      <c r="ABL13" s="19"/>
-      <c r="ABM13" s="19"/>
-      <c r="ABN13" s="19"/>
-      <c r="ABO13" s="19"/>
-      <c r="ABP13" s="19"/>
-      <c r="ABQ13" s="19"/>
-      <c r="ABR13" s="19"/>
-      <c r="ABS13" s="19"/>
-      <c r="ABT13" s="19"/>
-      <c r="ABU13" s="19"/>
-      <c r="ABV13" s="19"/>
-      <c r="ABW13" s="19"/>
-      <c r="ABX13" s="19"/>
-      <c r="ABY13" s="19"/>
-      <c r="ABZ13" s="19"/>
-      <c r="ACA13" s="19"/>
-      <c r="ACB13" s="19"/>
-      <c r="ACC13" s="19"/>
-      <c r="ACD13" s="19"/>
-      <c r="ACE13" s="19"/>
-      <c r="ACF13" s="19"/>
-      <c r="ACG13" s="19"/>
-      <c r="ACH13" s="19"/>
-      <c r="ACI13" s="19"/>
-      <c r="ACJ13" s="19"/>
-      <c r="ACK13" s="19"/>
-      <c r="ACL13" s="19"/>
-      <c r="ACM13" s="19"/>
-      <c r="ACN13" s="19"/>
-      <c r="ACO13" s="19"/>
-      <c r="ACP13" s="19"/>
-      <c r="ACQ13" s="19"/>
-      <c r="ACR13" s="19"/>
-      <c r="ACS13" s="19"/>
-      <c r="ACT13" s="19"/>
-      <c r="ACU13" s="19"/>
-      <c r="ACV13" s="19"/>
-      <c r="ACW13" s="19"/>
-      <c r="ACX13" s="19"/>
-      <c r="ACY13" s="19"/>
-      <c r="ACZ13" s="19"/>
-      <c r="ADA13" s="19"/>
-      <c r="ADB13" s="19"/>
-      <c r="ADC13" s="19"/>
-      <c r="ADD13" s="19"/>
-      <c r="ADE13" s="19"/>
-      <c r="ADF13" s="19"/>
-      <c r="ADG13" s="19"/>
-      <c r="ADH13" s="19"/>
-      <c r="ADI13" s="19"/>
-      <c r="ADJ13" s="19"/>
-      <c r="ADK13" s="19"/>
-      <c r="ADL13" s="19"/>
-      <c r="ADM13" s="19"/>
-      <c r="ADN13" s="19"/>
-      <c r="ADO13" s="19"/>
-      <c r="ADP13" s="19"/>
-      <c r="ADQ13" s="19"/>
-      <c r="ADR13" s="19"/>
-      <c r="ADS13" s="19"/>
-      <c r="ADT13" s="19"/>
-      <c r="ADU13" s="19"/>
-      <c r="ADV13" s="19"/>
-      <c r="ADW13" s="19"/>
-      <c r="ADX13" s="19"/>
-      <c r="ADY13" s="19"/>
-      <c r="ADZ13" s="19"/>
-      <c r="AEA13" s="19"/>
-      <c r="AEB13" s="19"/>
-      <c r="AEC13" s="19"/>
-      <c r="AED13" s="19"/>
-      <c r="AEE13" s="19"/>
-      <c r="AEF13" s="19"/>
-      <c r="AEG13" s="19"/>
-      <c r="AEH13" s="19"/>
-      <c r="AEI13" s="19"/>
-      <c r="AEJ13" s="19"/>
-      <c r="AEK13" s="19"/>
-      <c r="AEL13" s="19"/>
-      <c r="AEM13" s="19"/>
-      <c r="AEN13" s="19"/>
-      <c r="AEO13" s="19"/>
-      <c r="AEP13" s="19"/>
-      <c r="AEQ13" s="19"/>
-      <c r="AER13" s="19"/>
-      <c r="AES13" s="19"/>
-      <c r="AET13" s="19"/>
-      <c r="AEU13" s="19"/>
-      <c r="AEV13" s="19"/>
-      <c r="AEW13" s="19"/>
-      <c r="AEX13" s="19"/>
-      <c r="AEY13" s="19"/>
-      <c r="AEZ13" s="19"/>
-      <c r="AFA13" s="19"/>
-      <c r="AFB13" s="19"/>
-      <c r="AFC13" s="19"/>
-      <c r="AFD13" s="19"/>
-      <c r="AFE13" s="19"/>
-      <c r="AFF13" s="19"/>
-      <c r="AFG13" s="19"/>
-      <c r="AFH13" s="19"/>
-      <c r="AFI13" s="19"/>
-      <c r="AFJ13" s="19"/>
-      <c r="AFK13" s="19"/>
-      <c r="AFL13" s="19"/>
-      <c r="AFM13" s="19"/>
-      <c r="AFN13" s="19"/>
-      <c r="AFO13" s="19"/>
-      <c r="AFP13" s="19"/>
-      <c r="AFQ13" s="19"/>
-      <c r="AFR13" s="19"/>
-      <c r="AFS13" s="19"/>
-      <c r="AFT13" s="19"/>
-      <c r="AFU13" s="19"/>
-      <c r="AFV13" s="19"/>
-      <c r="AFW13" s="19"/>
-      <c r="AFX13" s="19"/>
-      <c r="AFY13" s="19"/>
-      <c r="AFZ13" s="19"/>
-      <c r="AGA13" s="19"/>
-      <c r="AGB13" s="19"/>
-      <c r="AGC13" s="19"/>
-      <c r="AGD13" s="19"/>
-      <c r="AGE13" s="19"/>
-      <c r="AGF13" s="19"/>
-      <c r="AGG13" s="19"/>
-      <c r="AGH13" s="19"/>
-      <c r="AGI13" s="19"/>
-      <c r="AGJ13" s="19"/>
-      <c r="AGK13" s="19"/>
-      <c r="AGL13" s="19"/>
-      <c r="AGM13" s="19"/>
-      <c r="AGN13" s="19"/>
-      <c r="AGO13" s="19"/>
-      <c r="AGP13" s="19"/>
-      <c r="AGQ13" s="19"/>
-      <c r="AGR13" s="19"/>
-      <c r="AGS13" s="19"/>
-      <c r="AGT13" s="19"/>
-      <c r="AGU13" s="19"/>
-      <c r="AGV13" s="19"/>
-      <c r="AGW13" s="19"/>
-      <c r="AGX13" s="19"/>
-      <c r="AGY13" s="19"/>
-      <c r="AGZ13" s="19"/>
-      <c r="AHA13" s="19"/>
-      <c r="AHB13" s="19"/>
-      <c r="AHC13" s="19"/>
-      <c r="AHD13" s="19"/>
-      <c r="AHE13" s="19"/>
-      <c r="AHF13" s="19"/>
-      <c r="AHG13" s="19"/>
-      <c r="AHH13" s="19"/>
-      <c r="AHI13" s="19"/>
-      <c r="AHJ13" s="19"/>
-      <c r="AHK13" s="19"/>
-      <c r="AHL13" s="19"/>
-      <c r="AHM13" s="19"/>
-      <c r="AHN13" s="19"/>
-      <c r="AHO13" s="19"/>
-      <c r="AHP13" s="19"/>
-      <c r="AHQ13" s="19"/>
-      <c r="AHR13" s="19"/>
-      <c r="AHS13" s="19"/>
-      <c r="AHT13" s="19"/>
-      <c r="AHU13" s="19"/>
-      <c r="AHV13" s="19"/>
-      <c r="AHW13" s="19"/>
-      <c r="AHX13" s="19"/>
-      <c r="AHY13" s="19"/>
-      <c r="AHZ13" s="19"/>
-      <c r="AIA13" s="19"/>
-      <c r="AIB13" s="19"/>
-      <c r="AIC13" s="19"/>
-      <c r="AID13" s="19"/>
-      <c r="AIE13" s="19"/>
-      <c r="AIF13" s="19"/>
-      <c r="AIG13" s="19"/>
-      <c r="AIH13" s="19"/>
-      <c r="AII13" s="19"/>
-      <c r="AIJ13" s="19"/>
-      <c r="AIK13" s="19"/>
-      <c r="AIL13" s="19"/>
-      <c r="AIM13" s="19"/>
-      <c r="AIN13" s="19"/>
-      <c r="AIO13" s="19"/>
-      <c r="AIP13" s="19"/>
-      <c r="AIQ13" s="19"/>
-      <c r="AIR13" s="19"/>
-      <c r="AIS13" s="19"/>
-      <c r="AIT13" s="19"/>
-      <c r="AIU13" s="19"/>
-      <c r="AIV13" s="19"/>
-      <c r="AIW13" s="19"/>
-      <c r="AIX13" s="19"/>
-      <c r="AIY13" s="19"/>
-      <c r="AIZ13" s="19"/>
-      <c r="AJA13" s="19"/>
-      <c r="AJB13" s="19"/>
-      <c r="AJC13" s="19"/>
-      <c r="AJD13" s="19"/>
-      <c r="AJE13" s="19"/>
-      <c r="AJF13" s="19"/>
-      <c r="AJG13" s="19"/>
-      <c r="AJH13" s="19"/>
-      <c r="AJI13" s="19"/>
-      <c r="AJJ13" s="19"/>
-      <c r="AJK13" s="19"/>
-      <c r="AJL13" s="19"/>
-      <c r="AJM13" s="19"/>
-      <c r="AJN13" s="19"/>
-      <c r="AJO13" s="19"/>
-      <c r="AJP13" s="19"/>
-      <c r="AJQ13" s="19"/>
-      <c r="AJR13" s="19"/>
-      <c r="AJS13" s="19"/>
-      <c r="AJT13" s="19"/>
-      <c r="AJU13" s="19"/>
-      <c r="AJV13" s="19"/>
-      <c r="AJW13" s="19"/>
-      <c r="AJX13" s="19"/>
-      <c r="AJY13" s="19"/>
-      <c r="AJZ13" s="19"/>
-      <c r="AKA13" s="19"/>
-      <c r="AKB13" s="19"/>
-      <c r="AKC13" s="19"/>
-      <c r="AKD13" s="19"/>
-      <c r="AKE13" s="19"/>
-      <c r="AKF13" s="19"/>
-      <c r="AKG13" s="19"/>
-      <c r="AKH13" s="19"/>
-      <c r="AKI13" s="19"/>
-      <c r="AKJ13" s="19"/>
-      <c r="AKK13" s="19"/>
-      <c r="AKL13" s="19"/>
-      <c r="AKM13" s="19"/>
-      <c r="AKN13" s="19"/>
-      <c r="AKO13" s="19"/>
-      <c r="AKP13" s="19"/>
-      <c r="AKQ13" s="19"/>
-      <c r="AKR13" s="19"/>
-      <c r="AKS13" s="19"/>
-      <c r="AKT13" s="19"/>
-      <c r="AKU13" s="19"/>
-      <c r="AKV13" s="19"/>
-      <c r="AKW13" s="19"/>
-      <c r="AKX13" s="19"/>
-      <c r="AKY13" s="19"/>
-      <c r="AKZ13" s="19"/>
-      <c r="ALA13" s="19"/>
-      <c r="ALB13" s="19"/>
-      <c r="ALC13" s="19"/>
-      <c r="ALD13" s="19"/>
-      <c r="ALE13" s="19"/>
-      <c r="ALF13" s="19"/>
-      <c r="ALG13" s="19"/>
-      <c r="ALH13" s="19"/>
-      <c r="ALI13" s="19"/>
-      <c r="ALJ13" s="19"/>
-      <c r="ALK13" s="19"/>
-      <c r="ALL13" s="19"/>
-      <c r="ALM13" s="19"/>
-      <c r="ALN13" s="19"/>
-      <c r="ALO13" s="19"/>
-      <c r="ALP13" s="19"/>
-      <c r="ALQ13" s="19"/>
-      <c r="ALR13" s="19"/>
-      <c r="ALS13" s="19"/>
-      <c r="ALT13" s="19"/>
-      <c r="ALU13" s="19"/>
-      <c r="ALV13" s="19"/>
-      <c r="ALW13" s="19"/>
-      <c r="ALX13" s="19"/>
-      <c r="ALY13" s="19"/>
-      <c r="ALZ13" s="19"/>
-      <c r="AMA13" s="19"/>
-      <c r="AMB13" s="19"/>
-      <c r="AMC13" s="19"/>
-      <c r="AMD13" s="19"/>
-      <c r="AME13" s="19"/>
-      <c r="AMF13" s="19"/>
-      <c r="AMG13" s="19"/>
-      <c r="AMH13" s="19"/>
-      <c r="AMI13" s="19"/>
-      <c r="AMJ13" s="19"/>
-      <c r="AMK13" s="19"/>
-      <c r="AML13" s="19"/>
-      <c r="AMM13" s="19"/>
-      <c r="AMN13" s="19"/>
-      <c r="AMO13" s="19"/>
-      <c r="AMP13" s="19"/>
-      <c r="AMQ13" s="19"/>
-      <c r="AMR13" s="19"/>
-    </row>
-    <row r="14" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:1032" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
-      <c r="BL15" s="4"/>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="4"/>
-      <c r="BP15" s="4"/>
-      <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
-      <c r="BS15" s="4"/>
-      <c r="BT15" s="4"/>
-      <c r="BU15" s="4"/>
-      <c r="BV15" s="4"/>
-      <c r="BW15" s="4"/>
-      <c r="BX15" s="4"/>
-      <c r="BY15" s="4"/>
-      <c r="BZ15" s="4"/>
-      <c r="CA15" s="4"/>
-      <c r="CB15" s="4"/>
-      <c r="CC15" s="4"/>
-      <c r="CD15" s="4"/>
-      <c r="CE15" s="4"/>
-      <c r="CF15" s="4"/>
-      <c r="CG15" s="4"/>
-      <c r="CH15" s="4"/>
-      <c r="CI15" s="4"/>
-      <c r="CJ15" s="4"/>
-      <c r="CK15" s="4"/>
-      <c r="CL15" s="4"/>
-      <c r="CM15" s="4"/>
-      <c r="CN15" s="4"/>
-      <c r="CO15" s="4"/>
-      <c r="CP15" s="4"/>
-      <c r="CQ15" s="4"/>
-      <c r="CR15" s="4"/>
-      <c r="CS15" s="4"/>
-      <c r="CT15" s="4"/>
-      <c r="CU15" s="4"/>
-      <c r="CV15" s="4"/>
-      <c r="CW15" s="4"/>
-      <c r="CX15" s="4"/>
-      <c r="CY15" s="4"/>
-      <c r="CZ15" s="4"/>
-      <c r="DA15" s="4"/>
-      <c r="DB15" s="4"/>
-      <c r="DC15" s="4"/>
-      <c r="DD15" s="4"/>
-      <c r="DE15" s="4"/>
-      <c r="DF15" s="4"/>
-      <c r="DG15" s="4"/>
-      <c r="DH15" s="4"/>
-      <c r="DI15" s="4"/>
-      <c r="DJ15" s="4"/>
-      <c r="DK15" s="4"/>
-      <c r="DL15" s="4"/>
-      <c r="DM15" s="4"/>
-      <c r="DN15" s="4"/>
-      <c r="DO15" s="4"/>
-      <c r="DP15" s="4"/>
-      <c r="DQ15" s="4"/>
-      <c r="DR15" s="4"/>
-      <c r="DS15" s="4"/>
-      <c r="DT15" s="4"/>
-      <c r="DU15" s="4"/>
-      <c r="DV15" s="4"/>
-      <c r="DW15" s="4"/>
-      <c r="DX15" s="4"/>
-      <c r="DY15" s="4"/>
-      <c r="DZ15" s="4"/>
-      <c r="EA15" s="4"/>
-      <c r="EB15" s="4"/>
-      <c r="EC15" s="4"/>
-      <c r="ED15" s="4"/>
-      <c r="EE15" s="4"/>
-      <c r="EF15" s="4"/>
-      <c r="EG15" s="4"/>
-      <c r="EH15" s="4"/>
-      <c r="EI15" s="4"/>
-      <c r="EJ15" s="4"/>
-      <c r="EK15" s="4"/>
-      <c r="EL15" s="4"/>
-      <c r="EM15" s="4"/>
-      <c r="EN15" s="4"/>
-      <c r="EO15" s="4"/>
-      <c r="EP15" s="4"/>
-      <c r="EQ15" s="4"/>
-      <c r="ER15" s="4"/>
-      <c r="ES15" s="4"/>
-      <c r="ET15" s="4"/>
-      <c r="EU15" s="4"/>
-      <c r="EV15" s="4"/>
-      <c r="EW15" s="4"/>
-      <c r="EX15" s="4"/>
-      <c r="EY15" s="4"/>
-      <c r="EZ15" s="4"/>
-      <c r="FA15" s="4"/>
-      <c r="FB15" s="4"/>
-      <c r="FC15" s="4"/>
-      <c r="FD15" s="4"/>
-      <c r="FE15" s="4"/>
-      <c r="FF15" s="4"/>
-      <c r="FG15" s="4"/>
-      <c r="FH15" s="4"/>
-      <c r="FI15" s="4"/>
-      <c r="FJ15" s="4"/>
-      <c r="FK15" s="4"/>
-      <c r="FL15" s="4"/>
-      <c r="FM15" s="4"/>
-      <c r="FN15" s="4"/>
-      <c r="FO15" s="4"/>
-      <c r="FP15" s="4"/>
-      <c r="FQ15" s="4"/>
-      <c r="FR15" s="4"/>
-      <c r="FS15" s="4"/>
-      <c r="FT15" s="4"/>
-      <c r="FU15" s="4"/>
-      <c r="FV15" s="4"/>
-      <c r="FW15" s="4"/>
-      <c r="FX15" s="4"/>
-      <c r="FY15" s="4"/>
-      <c r="FZ15" s="4"/>
-      <c r="GA15" s="4"/>
-      <c r="GB15" s="4"/>
-      <c r="GC15" s="4"/>
-      <c r="GD15" s="4"/>
-      <c r="GE15" s="4"/>
-      <c r="GF15" s="4"/>
-      <c r="GG15" s="4"/>
-      <c r="GH15" s="4"/>
-      <c r="GI15" s="4"/>
-      <c r="GJ15" s="4"/>
-      <c r="GK15" s="4"/>
-      <c r="GL15" s="4"/>
-      <c r="GM15" s="4"/>
-      <c r="GN15" s="4"/>
-      <c r="GO15" s="4"/>
-      <c r="GP15" s="4"/>
-      <c r="GQ15" s="4"/>
-      <c r="GR15" s="4"/>
-      <c r="GS15" s="4"/>
-      <c r="GT15" s="4"/>
-      <c r="GU15" s="4"/>
-      <c r="GV15" s="4"/>
-      <c r="GW15" s="4"/>
-      <c r="GX15" s="4"/>
-      <c r="GY15" s="4"/>
-      <c r="GZ15" s="4"/>
-      <c r="HA15" s="4"/>
-      <c r="HB15" s="4"/>
-      <c r="HC15" s="4"/>
-      <c r="HD15" s="4"/>
-      <c r="HE15" s="4"/>
-      <c r="HF15" s="4"/>
-      <c r="HG15" s="4"/>
-      <c r="HH15" s="4"/>
-      <c r="HI15" s="4"/>
-      <c r="HJ15" s="4"/>
-      <c r="HK15" s="4"/>
-      <c r="HL15" s="4"/>
-      <c r="HM15" s="4"/>
-      <c r="HN15" s="4"/>
-      <c r="HO15" s="4"/>
-      <c r="HP15" s="4"/>
-      <c r="HQ15" s="4"/>
-      <c r="HR15" s="4"/>
-      <c r="HS15" s="4"/>
-      <c r="HT15" s="4"/>
-      <c r="HU15" s="4"/>
-      <c r="HV15" s="4"/>
-      <c r="HW15" s="4"/>
-      <c r="HX15" s="4"/>
-      <c r="HY15" s="4"/>
-      <c r="HZ15" s="4"/>
-      <c r="IA15" s="4"/>
-      <c r="IB15" s="4"/>
-      <c r="IC15" s="4"/>
-      <c r="ID15" s="4"/>
-      <c r="IE15" s="4"/>
-      <c r="IF15" s="4"/>
-      <c r="IG15" s="4"/>
-      <c r="IH15" s="4"/>
-      <c r="II15" s="4"/>
-      <c r="IJ15" s="4"/>
-      <c r="IK15" s="4"/>
-      <c r="IL15" s="4"/>
-      <c r="IM15" s="4"/>
-      <c r="IN15" s="4"/>
-      <c r="IO15" s="4"/>
-      <c r="IP15" s="4"/>
-      <c r="IQ15" s="4"/>
-      <c r="IR15" s="4"/>
-      <c r="IS15" s="4"/>
-      <c r="IT15" s="4"/>
-      <c r="IU15" s="4"/>
-      <c r="IV15" s="4"/>
-      <c r="IW15" s="4"/>
-      <c r="IX15" s="4"/>
-      <c r="IY15" s="4"/>
-      <c r="IZ15" s="4"/>
-      <c r="JA15" s="4"/>
-      <c r="JB15" s="4"/>
-      <c r="JC15" s="4"/>
-      <c r="JD15" s="4"/>
-      <c r="JE15" s="4"/>
-      <c r="JF15" s="4"/>
-      <c r="JG15" s="4"/>
-      <c r="JH15" s="4"/>
-      <c r="JI15" s="4"/>
-      <c r="JJ15" s="4"/>
-      <c r="JK15" s="4"/>
-      <c r="JL15" s="4"/>
-      <c r="JM15" s="4"/>
-      <c r="JN15" s="4"/>
-      <c r="JO15" s="4"/>
-      <c r="JP15" s="4"/>
-      <c r="JQ15" s="4"/>
-      <c r="JR15" s="4"/>
-      <c r="JS15" s="4"/>
-      <c r="JT15" s="4"/>
-      <c r="JU15" s="4"/>
-      <c r="JV15" s="4"/>
-      <c r="JW15" s="4"/>
-      <c r="JX15" s="4"/>
-      <c r="JY15" s="4"/>
-      <c r="JZ15" s="4"/>
-      <c r="KA15" s="4"/>
-      <c r="KB15" s="4"/>
-      <c r="KC15" s="4"/>
-      <c r="KD15" s="4"/>
-      <c r="KE15" s="4"/>
-      <c r="KF15" s="4"/>
-      <c r="KG15" s="4"/>
-      <c r="KH15" s="4"/>
-      <c r="KI15" s="4"/>
-      <c r="KJ15" s="4"/>
-      <c r="KK15" s="4"/>
-      <c r="KL15" s="4"/>
-      <c r="KM15" s="4"/>
-      <c r="KN15" s="4"/>
-      <c r="KO15" s="4"/>
-      <c r="KP15" s="4"/>
-      <c r="KQ15" s="4"/>
-      <c r="KR15" s="4"/>
-      <c r="KS15" s="4"/>
-      <c r="KT15" s="4"/>
-      <c r="KU15" s="4"/>
-      <c r="KV15" s="4"/>
-      <c r="KW15" s="4"/>
-      <c r="KX15" s="4"/>
-      <c r="KY15" s="4"/>
-      <c r="KZ15" s="4"/>
-      <c r="LA15" s="4"/>
-      <c r="LB15" s="4"/>
-      <c r="LC15" s="4"/>
-      <c r="LD15" s="4"/>
-      <c r="LE15" s="4"/>
-      <c r="LF15" s="4"/>
-      <c r="LG15" s="4"/>
-      <c r="LH15" s="4"/>
-      <c r="LI15" s="4"/>
-      <c r="LJ15" s="4"/>
-      <c r="LK15" s="4"/>
-      <c r="LL15" s="4"/>
-      <c r="LM15" s="4"/>
-      <c r="LN15" s="4"/>
-      <c r="LO15" s="4"/>
-      <c r="LP15" s="4"/>
-      <c r="LQ15" s="4"/>
-      <c r="LR15" s="4"/>
-      <c r="LS15" s="4"/>
-      <c r="LT15" s="4"/>
-      <c r="LU15" s="4"/>
-      <c r="LV15" s="4"/>
-      <c r="LW15" s="4"/>
-      <c r="LX15" s="4"/>
-      <c r="LY15" s="4"/>
-      <c r="LZ15" s="4"/>
-      <c r="MA15" s="4"/>
-      <c r="MB15" s="4"/>
-      <c r="MC15" s="4"/>
-      <c r="MD15" s="4"/>
-      <c r="ME15" s="4"/>
-      <c r="MF15" s="4"/>
-      <c r="MG15" s="4"/>
-      <c r="MH15" s="4"/>
-      <c r="MI15" s="4"/>
-      <c r="MJ15" s="4"/>
-      <c r="MK15" s="4"/>
-      <c r="ML15" s="4"/>
-      <c r="MM15" s="4"/>
-      <c r="MN15" s="4"/>
-      <c r="MO15" s="4"/>
-      <c r="MP15" s="4"/>
-      <c r="MQ15" s="4"/>
-      <c r="MR15" s="4"/>
-      <c r="MS15" s="4"/>
-      <c r="MT15" s="4"/>
-      <c r="MU15" s="4"/>
-      <c r="MV15" s="4"/>
-      <c r="MW15" s="4"/>
-      <c r="MX15" s="4"/>
-      <c r="MY15" s="4"/>
-      <c r="MZ15" s="4"/>
-      <c r="NA15" s="4"/>
-      <c r="NB15" s="4"/>
-      <c r="NC15" s="4"/>
-      <c r="ND15" s="4"/>
-      <c r="NE15" s="4"/>
-      <c r="NF15" s="4"/>
-      <c r="NG15" s="4"/>
-      <c r="NH15" s="4"/>
-      <c r="NI15" s="4"/>
-      <c r="NJ15" s="4"/>
-      <c r="NK15" s="4"/>
-      <c r="NL15" s="4"/>
-      <c r="NM15" s="4"/>
-      <c r="NN15" s="4"/>
-      <c r="NO15" s="4"/>
-      <c r="NP15" s="4"/>
-      <c r="NQ15" s="4"/>
-      <c r="NR15" s="4"/>
-      <c r="NS15" s="4"/>
-      <c r="NT15" s="4"/>
-      <c r="NU15" s="4"/>
-      <c r="NV15" s="4"/>
-      <c r="NW15" s="4"/>
-      <c r="NX15" s="4"/>
-      <c r="NY15" s="4"/>
-      <c r="NZ15" s="4"/>
-      <c r="OA15" s="4"/>
-      <c r="OB15" s="4"/>
-      <c r="OC15" s="4"/>
-      <c r="OD15" s="4"/>
-      <c r="OE15" s="4"/>
-      <c r="OF15" s="4"/>
-      <c r="OG15" s="4"/>
-      <c r="OH15" s="4"/>
-      <c r="OI15" s="4"/>
-      <c r="OJ15" s="4"/>
-      <c r="OK15" s="4"/>
-      <c r="OL15" s="4"/>
-      <c r="OM15" s="4"/>
-      <c r="ON15" s="4"/>
-      <c r="OO15" s="4"/>
-      <c r="OP15" s="4"/>
-      <c r="OQ15" s="4"/>
-      <c r="OR15" s="4"/>
-      <c r="OS15" s="4"/>
-      <c r="OT15" s="4"/>
-      <c r="OU15" s="4"/>
-      <c r="OV15" s="4"/>
-      <c r="OW15" s="4"/>
-      <c r="OX15" s="4"/>
-      <c r="OY15" s="4"/>
-      <c r="OZ15" s="4"/>
-      <c r="PA15" s="4"/>
-      <c r="PB15" s="4"/>
-      <c r="PC15" s="4"/>
-      <c r="PD15" s="4"/>
-      <c r="PE15" s="4"/>
-      <c r="PF15" s="4"/>
-      <c r="PG15" s="4"/>
-      <c r="PH15" s="4"/>
-      <c r="PI15" s="4"/>
-      <c r="PJ15" s="4"/>
-      <c r="PK15" s="4"/>
-      <c r="PL15" s="4"/>
-      <c r="PM15" s="4"/>
-      <c r="PN15" s="4"/>
-      <c r="PO15" s="4"/>
-      <c r="PP15" s="4"/>
-      <c r="PQ15" s="4"/>
-      <c r="PR15" s="4"/>
-      <c r="PS15" s="4"/>
-      <c r="PT15" s="4"/>
-      <c r="PU15" s="4"/>
-      <c r="PV15" s="4"/>
-      <c r="PW15" s="4"/>
-      <c r="PX15" s="4"/>
-      <c r="PY15" s="4"/>
-      <c r="PZ15" s="4"/>
-      <c r="QA15" s="4"/>
-      <c r="QB15" s="4"/>
-      <c r="QC15" s="4"/>
-      <c r="QD15" s="4"/>
-      <c r="QE15" s="4"/>
-      <c r="QF15" s="4"/>
-      <c r="QG15" s="4"/>
-      <c r="QH15" s="4"/>
-      <c r="QI15" s="4"/>
-      <c r="QJ15" s="4"/>
-      <c r="QK15" s="4"/>
-      <c r="QL15" s="4"/>
-      <c r="QM15" s="4"/>
-      <c r="QN15" s="4"/>
-      <c r="QO15" s="4"/>
-      <c r="QP15" s="4"/>
-      <c r="QQ15" s="4"/>
-      <c r="QR15" s="4"/>
-      <c r="QS15" s="4"/>
-      <c r="QT15" s="4"/>
-      <c r="QU15" s="4"/>
-      <c r="QV15" s="4"/>
-      <c r="QW15" s="4"/>
-      <c r="QX15" s="4"/>
-      <c r="QY15" s="4"/>
-      <c r="QZ15" s="4"/>
-      <c r="RA15" s="4"/>
-      <c r="RB15" s="4"/>
-      <c r="RC15" s="4"/>
-      <c r="RD15" s="4"/>
-      <c r="RE15" s="4"/>
-      <c r="RF15" s="4"/>
-      <c r="RG15" s="4"/>
-      <c r="RH15" s="4"/>
-      <c r="RI15" s="4"/>
-      <c r="RJ15" s="4"/>
-      <c r="RK15" s="4"/>
-      <c r="RL15" s="4"/>
-      <c r="RM15" s="4"/>
-      <c r="RN15" s="4"/>
-      <c r="RO15" s="4"/>
-      <c r="RP15" s="4"/>
-      <c r="RQ15" s="4"/>
-      <c r="RR15" s="4"/>
-      <c r="RS15" s="4"/>
-      <c r="RT15" s="4"/>
-      <c r="RU15" s="4"/>
-      <c r="RV15" s="4"/>
-      <c r="RW15" s="4"/>
-      <c r="RX15" s="4"/>
-      <c r="RY15" s="4"/>
-      <c r="RZ15" s="4"/>
-      <c r="SA15" s="4"/>
-      <c r="SB15" s="4"/>
-      <c r="SC15" s="4"/>
-      <c r="SD15" s="4"/>
-      <c r="SE15" s="4"/>
-      <c r="SF15" s="4"/>
-      <c r="SG15" s="4"/>
-      <c r="SH15" s="4"/>
-      <c r="SI15" s="4"/>
-      <c r="SJ15" s="4"/>
-      <c r="SK15" s="4"/>
-      <c r="SL15" s="4"/>
-      <c r="SM15" s="4"/>
-      <c r="SN15" s="4"/>
-      <c r="SO15" s="4"/>
-      <c r="SP15" s="4"/>
-      <c r="SQ15" s="4"/>
-      <c r="SR15" s="4"/>
-      <c r="SS15" s="4"/>
-      <c r="ST15" s="4"/>
-      <c r="SU15" s="4"/>
-      <c r="SV15" s="4"/>
-      <c r="SW15" s="4"/>
-      <c r="SX15" s="4"/>
-      <c r="SY15" s="4"/>
-      <c r="SZ15" s="4"/>
-      <c r="TA15" s="4"/>
-      <c r="TB15" s="4"/>
-      <c r="TC15" s="4"/>
-      <c r="TD15" s="4"/>
-      <c r="TE15" s="4"/>
-      <c r="TF15" s="4"/>
-      <c r="TG15" s="4"/>
-      <c r="TH15" s="4"/>
-      <c r="TI15" s="4"/>
-      <c r="TJ15" s="4"/>
-      <c r="TK15" s="4"/>
-      <c r="TL15" s="4"/>
-      <c r="TM15" s="4"/>
-      <c r="TN15" s="4"/>
-      <c r="TO15" s="4"/>
-      <c r="TP15" s="4"/>
-      <c r="TQ15" s="4"/>
-      <c r="TR15" s="4"/>
-      <c r="TS15" s="4"/>
-      <c r="TT15" s="4"/>
-      <c r="TU15" s="4"/>
-      <c r="TV15" s="4"/>
-      <c r="TW15" s="4"/>
-      <c r="TX15" s="4"/>
-      <c r="TY15" s="4"/>
-      <c r="TZ15" s="4"/>
-      <c r="UA15" s="4"/>
-      <c r="UB15" s="4"/>
-      <c r="UC15" s="4"/>
-      <c r="UD15" s="4"/>
-      <c r="UE15" s="4"/>
-      <c r="UF15" s="4"/>
-      <c r="UG15" s="4"/>
-      <c r="UH15" s="4"/>
-      <c r="UI15" s="4"/>
-      <c r="UJ15" s="4"/>
-      <c r="UK15" s="4"/>
-      <c r="UL15" s="4"/>
-      <c r="UM15" s="4"/>
-      <c r="UN15" s="4"/>
-      <c r="UO15" s="4"/>
-      <c r="UP15" s="4"/>
-      <c r="UQ15" s="4"/>
-      <c r="UR15" s="4"/>
-      <c r="US15" s="4"/>
-      <c r="UT15" s="4"/>
-      <c r="UU15" s="4"/>
-      <c r="UV15" s="4"/>
-      <c r="UW15" s="4"/>
-      <c r="UX15" s="4"/>
-      <c r="UY15" s="4"/>
-      <c r="UZ15" s="4"/>
-      <c r="VA15" s="4"/>
-      <c r="VB15" s="4"/>
-      <c r="VC15" s="4"/>
-      <c r="VD15" s="4"/>
-      <c r="VE15" s="4"/>
-      <c r="VF15" s="4"/>
-      <c r="VG15" s="4"/>
-      <c r="VH15" s="4"/>
-      <c r="VI15" s="4"/>
-      <c r="VJ15" s="4"/>
-      <c r="VK15" s="4"/>
-      <c r="VL15" s="4"/>
-      <c r="VM15" s="4"/>
-      <c r="VN15" s="4"/>
-      <c r="VO15" s="4"/>
-      <c r="VP15" s="4"/>
-      <c r="VQ15" s="4"/>
-      <c r="VR15" s="4"/>
-      <c r="VS15" s="4"/>
-      <c r="VT15" s="4"/>
-      <c r="VU15" s="4"/>
-      <c r="VV15" s="4"/>
-      <c r="VW15" s="4"/>
-      <c r="VX15" s="4"/>
-      <c r="VY15" s="4"/>
-      <c r="VZ15" s="4"/>
-      <c r="WA15" s="4"/>
-      <c r="WB15" s="4"/>
-      <c r="WC15" s="4"/>
-      <c r="WD15" s="4"/>
-      <c r="WE15" s="4"/>
-      <c r="WF15" s="4"/>
-      <c r="WG15" s="4"/>
-      <c r="WH15" s="4"/>
-      <c r="WI15" s="4"/>
-      <c r="WJ15" s="4"/>
-      <c r="WK15" s="4"/>
-      <c r="WL15" s="4"/>
-      <c r="WM15" s="4"/>
-      <c r="WN15" s="4"/>
-      <c r="WO15" s="4"/>
-      <c r="WP15" s="4"/>
-      <c r="WQ15" s="4"/>
-      <c r="WR15" s="4"/>
-      <c r="WS15" s="4"/>
-      <c r="WT15" s="4"/>
-      <c r="WU15" s="4"/>
-      <c r="WV15" s="4"/>
-      <c r="WW15" s="4"/>
-      <c r="WX15" s="4"/>
-      <c r="WY15" s="4"/>
-      <c r="WZ15" s="4"/>
-      <c r="XA15" s="4"/>
-      <c r="XB15" s="4"/>
-      <c r="XC15" s="4"/>
-      <c r="XD15" s="4"/>
-      <c r="XE15" s="4"/>
-      <c r="XF15" s="4"/>
-      <c r="XG15" s="4"/>
-      <c r="XH15" s="4"/>
-      <c r="XI15" s="4"/>
-      <c r="XJ15" s="4"/>
-      <c r="XK15" s="4"/>
-      <c r="XL15" s="4"/>
-      <c r="XM15" s="4"/>
-      <c r="XN15" s="4"/>
-      <c r="XO15" s="4"/>
-      <c r="XP15" s="4"/>
-      <c r="XQ15" s="4"/>
-      <c r="XR15" s="4"/>
-      <c r="XS15" s="4"/>
-      <c r="XT15" s="4"/>
-      <c r="XU15" s="4"/>
-      <c r="XV15" s="4"/>
-      <c r="XW15" s="4"/>
-      <c r="XX15" s="4"/>
-      <c r="XY15" s="4"/>
-      <c r="XZ15" s="4"/>
-      <c r="YA15" s="4"/>
-      <c r="YB15" s="4"/>
-      <c r="YC15" s="4"/>
-      <c r="YD15" s="4"/>
-      <c r="YE15" s="4"/>
-      <c r="YF15" s="4"/>
-      <c r="YG15" s="4"/>
-      <c r="YH15" s="4"/>
-      <c r="YI15" s="4"/>
-      <c r="YJ15" s="4"/>
-      <c r="YK15" s="4"/>
-      <c r="YL15" s="4"/>
-      <c r="YM15" s="4"/>
-      <c r="YN15" s="4"/>
-      <c r="YO15" s="4"/>
-      <c r="YP15" s="4"/>
-      <c r="YQ15" s="4"/>
-      <c r="YR15" s="4"/>
-      <c r="YS15" s="4"/>
-      <c r="YT15" s="4"/>
-      <c r="YU15" s="4"/>
-      <c r="YV15" s="4"/>
-      <c r="YW15" s="4"/>
-      <c r="YX15" s="4"/>
-      <c r="YY15" s="4"/>
-      <c r="YZ15" s="4"/>
-      <c r="ZA15" s="4"/>
-      <c r="ZB15" s="4"/>
-      <c r="ZC15" s="4"/>
-      <c r="ZD15" s="4"/>
-      <c r="ZE15" s="4"/>
-      <c r="ZF15" s="4"/>
-      <c r="ZG15" s="4"/>
-      <c r="ZH15" s="4"/>
-      <c r="ZI15" s="4"/>
-      <c r="ZJ15" s="4"/>
-      <c r="ZK15" s="4"/>
-      <c r="ZL15" s="4"/>
-      <c r="ZM15" s="4"/>
-      <c r="ZN15" s="4"/>
-      <c r="ZO15" s="4"/>
-      <c r="ZP15" s="4"/>
-      <c r="ZQ15" s="4"/>
-      <c r="ZR15" s="4"/>
-      <c r="ZS15" s="4"/>
-      <c r="ZT15" s="4"/>
-      <c r="ZU15" s="4"/>
-      <c r="ZV15" s="4"/>
-      <c r="ZW15" s="4"/>
-      <c r="ZX15" s="4"/>
-      <c r="ZY15" s="4"/>
-      <c r="ZZ15" s="4"/>
-      <c r="AAA15" s="4"/>
-      <c r="AAB15" s="4"/>
-      <c r="AAC15" s="4"/>
-      <c r="AAD15" s="4"/>
-      <c r="AAE15" s="4"/>
-      <c r="AAF15" s="4"/>
-      <c r="AAG15" s="4"/>
-      <c r="AAH15" s="4"/>
-      <c r="AAI15" s="4"/>
-      <c r="AAJ15" s="4"/>
-      <c r="AAK15" s="4"/>
-      <c r="AAL15" s="4"/>
-      <c r="AAM15" s="4"/>
-      <c r="AAN15" s="4"/>
-      <c r="AAO15" s="4"/>
-      <c r="AAP15" s="4"/>
-      <c r="AAQ15" s="4"/>
-      <c r="AAR15" s="4"/>
-      <c r="AAS15" s="4"/>
-      <c r="AAT15" s="4"/>
-      <c r="AAU15" s="4"/>
-      <c r="AAV15" s="4"/>
-      <c r="AAW15" s="4"/>
-      <c r="AAX15" s="4"/>
-      <c r="AAY15" s="4"/>
-      <c r="AAZ15" s="4"/>
-      <c r="ABA15" s="4"/>
-      <c r="ABB15" s="4"/>
-      <c r="ABC15" s="4"/>
-      <c r="ABD15" s="4"/>
-      <c r="ABE15" s="4"/>
-      <c r="ABF15" s="4"/>
-      <c r="ABG15" s="4"/>
-      <c r="ABH15" s="4"/>
-      <c r="ABI15" s="4"/>
-      <c r="ABJ15" s="4"/>
-      <c r="ABK15" s="4"/>
-      <c r="ABL15" s="4"/>
-      <c r="ABM15" s="4"/>
-      <c r="ABN15" s="4"/>
-      <c r="ABO15" s="4"/>
-      <c r="ABP15" s="4"/>
-      <c r="ABQ15" s="4"/>
-      <c r="ABR15" s="4"/>
-      <c r="ABS15" s="4"/>
-      <c r="ABT15" s="4"/>
-      <c r="ABU15" s="4"/>
-      <c r="ABV15" s="4"/>
-      <c r="ABW15" s="4"/>
-      <c r="ABX15" s="4"/>
-      <c r="ABY15" s="4"/>
-      <c r="ABZ15" s="4"/>
-      <c r="ACA15" s="4"/>
-      <c r="ACB15" s="4"/>
-      <c r="ACC15" s="4"/>
-      <c r="ACD15" s="4"/>
-      <c r="ACE15" s="4"/>
-      <c r="ACF15" s="4"/>
-      <c r="ACG15" s="4"/>
-      <c r="ACH15" s="4"/>
-      <c r="ACI15" s="4"/>
-      <c r="ACJ15" s="4"/>
-      <c r="ACK15" s="4"/>
-      <c r="ACL15" s="4"/>
-      <c r="ACM15" s="4"/>
-      <c r="ACN15" s="4"/>
-      <c r="ACO15" s="4"/>
-      <c r="ACP15" s="4"/>
-      <c r="ACQ15" s="4"/>
-      <c r="ACR15" s="4"/>
-      <c r="ACS15" s="4"/>
-      <c r="ACT15" s="4"/>
-      <c r="ACU15" s="4"/>
-      <c r="ACV15" s="4"/>
-      <c r="ACW15" s="4"/>
-      <c r="ACX15" s="4"/>
-      <c r="ACY15" s="4"/>
-      <c r="ACZ15" s="4"/>
-      <c r="ADA15" s="4"/>
-      <c r="ADB15" s="4"/>
-      <c r="ADC15" s="4"/>
-      <c r="ADD15" s="4"/>
-      <c r="ADE15" s="4"/>
-      <c r="ADF15" s="4"/>
-      <c r="ADG15" s="4"/>
-      <c r="ADH15" s="4"/>
-      <c r="ADI15" s="4"/>
-      <c r="ADJ15" s="4"/>
-      <c r="ADK15" s="4"/>
-      <c r="ADL15" s="4"/>
-      <c r="ADM15" s="4"/>
-      <c r="ADN15" s="4"/>
-      <c r="ADO15" s="4"/>
-      <c r="ADP15" s="4"/>
-      <c r="ADQ15" s="4"/>
-      <c r="ADR15" s="4"/>
-      <c r="ADS15" s="4"/>
-      <c r="ADT15" s="4"/>
-      <c r="ADU15" s="4"/>
-      <c r="ADV15" s="4"/>
-      <c r="ADW15" s="4"/>
-      <c r="ADX15" s="4"/>
-      <c r="ADY15" s="4"/>
-      <c r="ADZ15" s="4"/>
-      <c r="AEA15" s="4"/>
-      <c r="AEB15" s="4"/>
-      <c r="AEC15" s="4"/>
-      <c r="AED15" s="4"/>
-      <c r="AEE15" s="4"/>
-      <c r="AEF15" s="4"/>
-      <c r="AEG15" s="4"/>
-      <c r="AEH15" s="4"/>
-      <c r="AEI15" s="4"/>
-      <c r="AEJ15" s="4"/>
-      <c r="AEK15" s="4"/>
-      <c r="AEL15" s="4"/>
-      <c r="AEM15" s="4"/>
-      <c r="AEN15" s="4"/>
-      <c r="AEO15" s="4"/>
-      <c r="AEP15" s="4"/>
-      <c r="AEQ15" s="4"/>
-      <c r="AER15" s="4"/>
-      <c r="AES15" s="4"/>
-      <c r="AET15" s="4"/>
-      <c r="AEU15" s="4"/>
-      <c r="AEV15" s="4"/>
-      <c r="AEW15" s="4"/>
-      <c r="AEX15" s="4"/>
-      <c r="AEY15" s="4"/>
-      <c r="AEZ15" s="4"/>
-      <c r="AFA15" s="4"/>
-      <c r="AFB15" s="4"/>
-      <c r="AFC15" s="4"/>
-      <c r="AFD15" s="4"/>
-      <c r="AFE15" s="4"/>
-      <c r="AFF15" s="4"/>
-      <c r="AFG15" s="4"/>
-      <c r="AFH15" s="4"/>
-      <c r="AFI15" s="4"/>
-      <c r="AFJ15" s="4"/>
-      <c r="AFK15" s="4"/>
-      <c r="AFL15" s="4"/>
-      <c r="AFM15" s="4"/>
-      <c r="AFN15" s="4"/>
-      <c r="AFO15" s="4"/>
-      <c r="AFP15" s="4"/>
-      <c r="AFQ15" s="4"/>
-      <c r="AFR15" s="4"/>
-      <c r="AFS15" s="4"/>
-      <c r="AFT15" s="4"/>
-      <c r="AFU15" s="4"/>
-      <c r="AFV15" s="4"/>
-      <c r="AFW15" s="4"/>
-      <c r="AFX15" s="4"/>
-      <c r="AFY15" s="4"/>
-      <c r="AFZ15" s="4"/>
-      <c r="AGA15" s="4"/>
-      <c r="AGB15" s="4"/>
-      <c r="AGC15" s="4"/>
-      <c r="AGD15" s="4"/>
-      <c r="AGE15" s="4"/>
-      <c r="AGF15" s="4"/>
-      <c r="AGG15" s="4"/>
-      <c r="AGH15" s="4"/>
-      <c r="AGI15" s="4"/>
-      <c r="AGJ15" s="4"/>
-      <c r="AGK15" s="4"/>
-      <c r="AGL15" s="4"/>
-      <c r="AGM15" s="4"/>
-      <c r="AGN15" s="4"/>
-      <c r="AGO15" s="4"/>
-      <c r="AGP15" s="4"/>
-      <c r="AGQ15" s="4"/>
-      <c r="AGR15" s="4"/>
-      <c r="AGS15" s="4"/>
-      <c r="AGT15" s="4"/>
-      <c r="AGU15" s="4"/>
-      <c r="AGV15" s="4"/>
-      <c r="AGW15" s="4"/>
-      <c r="AGX15" s="4"/>
-      <c r="AGY15" s="4"/>
-      <c r="AGZ15" s="4"/>
-      <c r="AHA15" s="4"/>
-      <c r="AHB15" s="4"/>
-      <c r="AHC15" s="4"/>
-      <c r="AHD15" s="4"/>
-      <c r="AHE15" s="4"/>
-      <c r="AHF15" s="4"/>
-      <c r="AHG15" s="4"/>
-      <c r="AHH15" s="4"/>
-      <c r="AHI15" s="4"/>
-      <c r="AHJ15" s="4"/>
-      <c r="AHK15" s="4"/>
-      <c r="AHL15" s="4"/>
-      <c r="AHM15" s="4"/>
-      <c r="AHN15" s="4"/>
-      <c r="AHO15" s="4"/>
-      <c r="AHP15" s="4"/>
-      <c r="AHQ15" s="4"/>
-      <c r="AHR15" s="4"/>
-      <c r="AHS15" s="4"/>
-      <c r="AHT15" s="4"/>
-      <c r="AHU15" s="4"/>
-      <c r="AHV15" s="4"/>
-      <c r="AHW15" s="4"/>
-      <c r="AHX15" s="4"/>
-      <c r="AHY15" s="4"/>
-      <c r="AHZ15" s="4"/>
-      <c r="AIA15" s="4"/>
-      <c r="AIB15" s="4"/>
-      <c r="AIC15" s="4"/>
-      <c r="AID15" s="4"/>
-      <c r="AIE15" s="4"/>
-      <c r="AIF15" s="4"/>
-      <c r="AIG15" s="4"/>
-      <c r="AIH15" s="4"/>
-      <c r="AII15" s="4"/>
-      <c r="AIJ15" s="4"/>
-      <c r="AIK15" s="4"/>
-      <c r="AIL15" s="4"/>
-      <c r="AIM15" s="4"/>
-      <c r="AIN15" s="4"/>
-      <c r="AIO15" s="4"/>
-      <c r="AIP15" s="4"/>
-      <c r="AIQ15" s="4"/>
-      <c r="AIR15" s="4"/>
-      <c r="AIS15" s="4"/>
-      <c r="AIT15" s="4"/>
-      <c r="AIU15" s="4"/>
-      <c r="AIV15" s="4"/>
-      <c r="AIW15" s="4"/>
-      <c r="AIX15" s="4"/>
-      <c r="AIY15" s="4"/>
-      <c r="AIZ15" s="4"/>
-      <c r="AJA15" s="4"/>
-      <c r="AJB15" s="4"/>
-      <c r="AJC15" s="4"/>
-      <c r="AJD15" s="4"/>
-      <c r="AJE15" s="4"/>
-      <c r="AJF15" s="4"/>
-      <c r="AJG15" s="4"/>
-      <c r="AJH15" s="4"/>
-      <c r="AJI15" s="4"/>
-      <c r="AJJ15" s="4"/>
-      <c r="AJK15" s="4"/>
-      <c r="AJL15" s="4"/>
-      <c r="AJM15" s="4"/>
-      <c r="AJN15" s="4"/>
-      <c r="AJO15" s="4"/>
-      <c r="AJP15" s="4"/>
-      <c r="AJQ15" s="4"/>
-      <c r="AJR15" s="4"/>
-      <c r="AJS15" s="4"/>
-      <c r="AJT15" s="4"/>
-      <c r="AJU15" s="4"/>
-      <c r="AJV15" s="4"/>
-      <c r="AJW15" s="4"/>
-      <c r="AJX15" s="4"/>
-      <c r="AJY15" s="4"/>
-      <c r="AJZ15" s="4"/>
-      <c r="AKA15" s="4"/>
-      <c r="AKB15" s="4"/>
-      <c r="AKC15" s="4"/>
-      <c r="AKD15" s="4"/>
-      <c r="AKE15" s="4"/>
-      <c r="AKF15" s="4"/>
-      <c r="AKG15" s="4"/>
-      <c r="AKH15" s="4"/>
-      <c r="AKI15" s="4"/>
-      <c r="AKJ15" s="4"/>
-      <c r="AKK15" s="4"/>
-      <c r="AKL15" s="4"/>
-      <c r="AKM15" s="4"/>
-      <c r="AKN15" s="4"/>
-      <c r="AKO15" s="4"/>
-      <c r="AKP15" s="4"/>
-      <c r="AKQ15" s="4"/>
-      <c r="AKR15" s="4"/>
-      <c r="AKS15" s="4"/>
-      <c r="AKT15" s="4"/>
-      <c r="AKU15" s="4"/>
-      <c r="AKV15" s="4"/>
-      <c r="AKW15" s="4"/>
-      <c r="AKX15" s="4"/>
-      <c r="AKY15" s="4"/>
-      <c r="AKZ15" s="4"/>
-      <c r="ALA15" s="4"/>
-      <c r="ALB15" s="4"/>
-      <c r="ALC15" s="4"/>
-      <c r="ALD15" s="4"/>
-      <c r="ALE15" s="4"/>
-      <c r="ALF15" s="4"/>
-      <c r="ALG15" s="4"/>
-      <c r="ALH15" s="4"/>
-      <c r="ALI15" s="4"/>
-      <c r="ALJ15" s="4"/>
-      <c r="ALK15" s="4"/>
-      <c r="ALL15" s="4"/>
-      <c r="ALM15" s="4"/>
-      <c r="ALN15" s="4"/>
-      <c r="ALO15" s="4"/>
-      <c r="ALP15" s="4"/>
-      <c r="ALQ15" s="4"/>
-      <c r="ALR15" s="4"/>
-      <c r="ALS15" s="4"/>
-      <c r="ALT15" s="4"/>
-      <c r="ALU15" s="4"/>
-      <c r="ALV15" s="4"/>
-      <c r="ALW15" s="4"/>
-      <c r="ALX15" s="4"/>
-      <c r="ALY15" s="4"/>
-      <c r="ALZ15" s="4"/>
-      <c r="AMA15" s="4"/>
-      <c r="AMB15" s="4"/>
-      <c r="AMC15" s="4"/>
-      <c r="AMD15" s="4"/>
-      <c r="AME15" s="4"/>
-      <c r="AMF15" s="4"/>
-      <c r="AMG15" s="4"/>
-      <c r="AMH15" s="4"/>
-      <c r="AMI15" s="4"/>
-      <c r="AMJ15" s="4"/>
-      <c r="AMK15" s="4"/>
-      <c r="AML15" s="4"/>
-      <c r="AMM15" s="4"/>
-      <c r="AMN15" s="4"/>
-      <c r="AMO15" s="4"/>
-      <c r="AMP15" s="4"/>
-      <c r="AMQ15" s="4"/>
-      <c r="AMR15" s="4"/>
-    </row>
-    <row r="16" spans="1:1032" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="3"/>
-      <c r="BX16" s="3"/>
-      <c r="BY16" s="3"/>
-    </row>
-    <row r="17" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-    </row>
-    <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="65" t="s">
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="70"/>
+    </row>
+    <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="66"/>
-    </row>
-    <row r="19" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="34">
+      <c r="B18" s="31">
         <v>43466</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C18" s="32">
         <v>43497</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D18" s="32">
         <v>43525</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>11</v>
+      <c r="E18" s="33" t="s">
+        <v>9</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F18" s="32">
         <v>43466</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G18" s="32">
         <v>43497</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H18" s="32">
         <v>43525</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>11</v>
+      <c r="I18" s="33" t="s">
+        <v>9</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J18" s="32">
         <v>43466</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K18" s="32">
         <v>43497</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L18" s="32">
         <v>43525</v>
       </c>
-      <c r="M19" s="36" t="s">
-        <v>11</v>
+      <c r="M18" s="33" t="s">
+        <v>9</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N18" s="32">
         <v>43466</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O18" s="32">
         <v>43497</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P18" s="32">
         <v>43525</v>
       </c>
-      <c r="Q19" s="36" t="s">
-        <v>11</v>
+      <c r="Q18" s="33" t="s">
+        <v>9</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R18" s="32">
         <v>43466</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S18" s="32">
         <v>43497</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T18" s="32">
         <v>43525</v>
       </c>
-      <c r="U19" s="36" t="s">
-        <v>11</v>
+      <c r="U18" s="33" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>12</v>
+    <row r="19" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>10</v>
       </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+    </row>
+    <row r="20" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -10186,41 +9185,97 @@
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="61"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="15"/>
+      <c r="BX20" s="15"/>
+      <c r="BY20" s="15"/>
     </row>
     <row r="21" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
@@ -10270,40 +9325,44 @@
       <c r="BX21" s="15"/>
       <c r="BY21" s="15"/>
     </row>
-    <row r="22" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="18"/>
+    <row r="22" spans="1:1032" s="42" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
+      <c r="AB22" s="19"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
+      <c r="AG22" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
@@ -10349,17 +9408,15 @@
       <c r="BX22" s="15"/>
       <c r="BY22" s="15"/>
     </row>
-    <row r="23" spans="1:1032" s="45" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+    <row r="23" spans="1:1032" s="42" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -10384,9 +9441,7 @@
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
-      <c r="AG23" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15"/>
       <c r="AJ23" s="15"/>
@@ -10432,12 +9487,14 @@
       <c r="BX23" s="15"/>
       <c r="BY23" s="15"/>
     </row>
-    <row r="24" spans="1:1032" s="45" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+    <row r="24" spans="1:1032" s="42" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A24" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -10511,20 +9568,20 @@
       <c r="BX24" s="15"/>
       <c r="BY24" s="15"/>
     </row>
-    <row r="25" spans="1:1032" s="47" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:1032" s="43" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="76"/>
+      <c r="B25" s="67">
+        <v>43466</v>
+      </c>
+      <c r="C25" s="62">
+        <v>43497</v>
+      </c>
+      <c r="D25" s="62">
+        <v>43525</v>
+      </c>
+      <c r="E25" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="22">
-        <v>43466</v>
-      </c>
-      <c r="C25" s="22">
-        <v>43497</v>
-      </c>
-      <c r="D25" s="22">
-        <v>43525</v>
-      </c>
-      <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -10599,6 +9656,11 @@
       <c r="BY25" s="15"/>
     </row>
     <row r="26" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
@@ -10645,41 +9707,11 @@
       <c r="BX26" s="15"/>
       <c r="BY26" s="15"/>
     </row>
-    <row r="27" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
+    <row r="27" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
       <c r="AI27" s="15"/>
@@ -10725,993 +9757,38 @@
       <c r="BW27" s="15"/>
       <c r="BX27" s="15"/>
       <c r="BY27" s="15"/>
-      <c r="BZ27" s="19"/>
-      <c r="CA27" s="19"/>
-      <c r="CB27" s="19"/>
-      <c r="CC27" s="19"/>
-      <c r="CD27" s="19"/>
-      <c r="CE27" s="19"/>
-      <c r="CF27" s="19"/>
-      <c r="CG27" s="19"/>
-      <c r="CH27" s="19"/>
-      <c r="CI27" s="19"/>
-      <c r="CJ27" s="19"/>
-      <c r="CK27" s="19"/>
-      <c r="CL27" s="19"/>
-      <c r="CM27" s="19"/>
-      <c r="CN27" s="19"/>
-      <c r="CO27" s="19"/>
-      <c r="CP27" s="19"/>
-      <c r="CQ27" s="19"/>
-      <c r="CR27" s="19"/>
-      <c r="CS27" s="19"/>
-      <c r="CT27" s="19"/>
-      <c r="CU27" s="19"/>
-      <c r="CV27" s="19"/>
-      <c r="CW27" s="19"/>
-      <c r="CX27" s="19"/>
-      <c r="CY27" s="19"/>
-      <c r="CZ27" s="19"/>
-      <c r="DA27" s="19"/>
-      <c r="DB27" s="19"/>
-      <c r="DC27" s="19"/>
-      <c r="DD27" s="19"/>
-      <c r="DE27" s="19"/>
-      <c r="DF27" s="19"/>
-      <c r="DG27" s="19"/>
-      <c r="DH27" s="19"/>
-      <c r="DI27" s="19"/>
-      <c r="DJ27" s="19"/>
-      <c r="DK27" s="19"/>
-      <c r="DL27" s="19"/>
-      <c r="DM27" s="19"/>
-      <c r="DN27" s="19"/>
-      <c r="DO27" s="19"/>
-      <c r="DP27" s="19"/>
-      <c r="DQ27" s="19"/>
-      <c r="DR27" s="19"/>
-      <c r="DS27" s="19"/>
-      <c r="DT27" s="19"/>
-      <c r="DU27" s="19"/>
-      <c r="DV27" s="19"/>
-      <c r="DW27" s="19"/>
-      <c r="DX27" s="19"/>
-      <c r="DY27" s="19"/>
-      <c r="DZ27" s="19"/>
-      <c r="EA27" s="19"/>
-      <c r="EB27" s="19"/>
-      <c r="EC27" s="19"/>
-      <c r="ED27" s="19"/>
-      <c r="EE27" s="19"/>
-      <c r="EF27" s="19"/>
-      <c r="EG27" s="19"/>
-      <c r="EH27" s="19"/>
-      <c r="EI27" s="19"/>
-      <c r="EJ27" s="19"/>
-      <c r="EK27" s="19"/>
-      <c r="EL27" s="19"/>
-      <c r="EM27" s="19"/>
-      <c r="EN27" s="19"/>
-      <c r="EO27" s="19"/>
-      <c r="EP27" s="19"/>
-      <c r="EQ27" s="19"/>
-      <c r="ER27" s="19"/>
-      <c r="ES27" s="19"/>
-      <c r="ET27" s="19"/>
-      <c r="EU27" s="19"/>
-      <c r="EV27" s="19"/>
-      <c r="EW27" s="19"/>
-      <c r="EX27" s="19"/>
-      <c r="EY27" s="19"/>
-      <c r="EZ27" s="19"/>
-      <c r="FA27" s="19"/>
-      <c r="FB27" s="19"/>
-      <c r="FC27" s="19"/>
-      <c r="FD27" s="19"/>
-      <c r="FE27" s="19"/>
-      <c r="FF27" s="19"/>
-      <c r="FG27" s="19"/>
-      <c r="FH27" s="19"/>
-      <c r="FI27" s="19"/>
-      <c r="FJ27" s="19"/>
-      <c r="FK27" s="19"/>
-      <c r="FL27" s="19"/>
-      <c r="FM27" s="19"/>
-      <c r="FN27" s="19"/>
-      <c r="FO27" s="19"/>
-      <c r="FP27" s="19"/>
-      <c r="FQ27" s="19"/>
-      <c r="FR27" s="19"/>
-      <c r="FS27" s="19"/>
-      <c r="FT27" s="19"/>
-      <c r="FU27" s="19"/>
-      <c r="FV27" s="19"/>
-      <c r="FW27" s="19"/>
-      <c r="FX27" s="19"/>
-      <c r="FY27" s="19"/>
-      <c r="FZ27" s="19"/>
-      <c r="GA27" s="19"/>
-      <c r="GB27" s="19"/>
-      <c r="GC27" s="19"/>
-      <c r="GD27" s="19"/>
-      <c r="GE27" s="19"/>
-      <c r="GF27" s="19"/>
-      <c r="GG27" s="19"/>
-      <c r="GH27" s="19"/>
-      <c r="GI27" s="19"/>
-      <c r="GJ27" s="19"/>
-      <c r="GK27" s="19"/>
-      <c r="GL27" s="19"/>
-      <c r="GM27" s="19"/>
-      <c r="GN27" s="19"/>
-      <c r="GO27" s="19"/>
-      <c r="GP27" s="19"/>
-      <c r="GQ27" s="19"/>
-      <c r="GR27" s="19"/>
-      <c r="GS27" s="19"/>
-      <c r="GT27" s="19"/>
-      <c r="GU27" s="19"/>
-      <c r="GV27" s="19"/>
-      <c r="GW27" s="19"/>
-      <c r="GX27" s="19"/>
-      <c r="GY27" s="19"/>
-      <c r="GZ27" s="19"/>
-      <c r="HA27" s="19"/>
-      <c r="HB27" s="19"/>
-      <c r="HC27" s="19"/>
-      <c r="HD27" s="19"/>
-      <c r="HE27" s="19"/>
-      <c r="HF27" s="19"/>
-      <c r="HG27" s="19"/>
-      <c r="HH27" s="19"/>
-      <c r="HI27" s="19"/>
-      <c r="HJ27" s="19"/>
-      <c r="HK27" s="19"/>
-      <c r="HL27" s="19"/>
-      <c r="HM27" s="19"/>
-      <c r="HN27" s="19"/>
-      <c r="HO27" s="19"/>
-      <c r="HP27" s="19"/>
-      <c r="HQ27" s="19"/>
-      <c r="HR27" s="19"/>
-      <c r="HS27" s="19"/>
-      <c r="HT27" s="19"/>
-      <c r="HU27" s="19"/>
-      <c r="HV27" s="19"/>
-      <c r="HW27" s="19"/>
-      <c r="HX27" s="19"/>
-      <c r="HY27" s="19"/>
-      <c r="HZ27" s="19"/>
-      <c r="IA27" s="19"/>
-      <c r="IB27" s="19"/>
-      <c r="IC27" s="19"/>
-      <c r="ID27" s="19"/>
-      <c r="IE27" s="19"/>
-      <c r="IF27" s="19"/>
-      <c r="IG27" s="19"/>
-      <c r="IH27" s="19"/>
-      <c r="II27" s="19"/>
-      <c r="IJ27" s="19"/>
-      <c r="IK27" s="19"/>
-      <c r="IL27" s="19"/>
-      <c r="IM27" s="19"/>
-      <c r="IN27" s="19"/>
-      <c r="IO27" s="19"/>
-      <c r="IP27" s="19"/>
-      <c r="IQ27" s="19"/>
-      <c r="IR27" s="19"/>
-      <c r="IS27" s="19"/>
-      <c r="IT27" s="19"/>
-      <c r="IU27" s="19"/>
-      <c r="IV27" s="19"/>
-      <c r="IW27" s="19"/>
-      <c r="IX27" s="19"/>
-      <c r="IY27" s="19"/>
-      <c r="IZ27" s="19"/>
-      <c r="JA27" s="19"/>
-      <c r="JB27" s="19"/>
-      <c r="JC27" s="19"/>
-      <c r="JD27" s="19"/>
-      <c r="JE27" s="19"/>
-      <c r="JF27" s="19"/>
-      <c r="JG27" s="19"/>
-      <c r="JH27" s="19"/>
-      <c r="JI27" s="19"/>
-      <c r="JJ27" s="19"/>
-      <c r="JK27" s="19"/>
-      <c r="JL27" s="19"/>
-      <c r="JM27" s="19"/>
-      <c r="JN27" s="19"/>
-      <c r="JO27" s="19"/>
-      <c r="JP27" s="19"/>
-      <c r="JQ27" s="19"/>
-      <c r="JR27" s="19"/>
-      <c r="JS27" s="19"/>
-      <c r="JT27" s="19"/>
-      <c r="JU27" s="19"/>
-      <c r="JV27" s="19"/>
-      <c r="JW27" s="19"/>
-      <c r="JX27" s="19"/>
-      <c r="JY27" s="19"/>
-      <c r="JZ27" s="19"/>
-      <c r="KA27" s="19"/>
-      <c r="KB27" s="19"/>
-      <c r="KC27" s="19"/>
-      <c r="KD27" s="19"/>
-      <c r="KE27" s="19"/>
-      <c r="KF27" s="19"/>
-      <c r="KG27" s="19"/>
-      <c r="KH27" s="19"/>
-      <c r="KI27" s="19"/>
-      <c r="KJ27" s="19"/>
-      <c r="KK27" s="19"/>
-      <c r="KL27" s="19"/>
-      <c r="KM27" s="19"/>
-      <c r="KN27" s="19"/>
-      <c r="KO27" s="19"/>
-      <c r="KP27" s="19"/>
-      <c r="KQ27" s="19"/>
-      <c r="KR27" s="19"/>
-      <c r="KS27" s="19"/>
-      <c r="KT27" s="19"/>
-      <c r="KU27" s="19"/>
-      <c r="KV27" s="19"/>
-      <c r="KW27" s="19"/>
-      <c r="KX27" s="19"/>
-      <c r="KY27" s="19"/>
-      <c r="KZ27" s="19"/>
-      <c r="LA27" s="19"/>
-      <c r="LB27" s="19"/>
-      <c r="LC27" s="19"/>
-      <c r="LD27" s="19"/>
-      <c r="LE27" s="19"/>
-      <c r="LF27" s="19"/>
-      <c r="LG27" s="19"/>
-      <c r="LH27" s="19"/>
-      <c r="LI27" s="19"/>
-      <c r="LJ27" s="19"/>
-      <c r="LK27" s="19"/>
-      <c r="LL27" s="19"/>
-      <c r="LM27" s="19"/>
-      <c r="LN27" s="19"/>
-      <c r="LO27" s="19"/>
-      <c r="LP27" s="19"/>
-      <c r="LQ27" s="19"/>
-      <c r="LR27" s="19"/>
-      <c r="LS27" s="19"/>
-      <c r="LT27" s="19"/>
-      <c r="LU27" s="19"/>
-      <c r="LV27" s="19"/>
-      <c r="LW27" s="19"/>
-      <c r="LX27" s="19"/>
-      <c r="LY27" s="19"/>
-      <c r="LZ27" s="19"/>
-      <c r="MA27" s="19"/>
-      <c r="MB27" s="19"/>
-      <c r="MC27" s="19"/>
-      <c r="MD27" s="19"/>
-      <c r="ME27" s="19"/>
-      <c r="MF27" s="19"/>
-      <c r="MG27" s="19"/>
-      <c r="MH27" s="19"/>
-      <c r="MI27" s="19"/>
-      <c r="MJ27" s="19"/>
-      <c r="MK27" s="19"/>
-      <c r="ML27" s="19"/>
-      <c r="MM27" s="19"/>
-      <c r="MN27" s="19"/>
-      <c r="MO27" s="19"/>
-      <c r="MP27" s="19"/>
-      <c r="MQ27" s="19"/>
-      <c r="MR27" s="19"/>
-      <c r="MS27" s="19"/>
-      <c r="MT27" s="19"/>
-      <c r="MU27" s="19"/>
-      <c r="MV27" s="19"/>
-      <c r="MW27" s="19"/>
-      <c r="MX27" s="19"/>
-      <c r="MY27" s="19"/>
-      <c r="MZ27" s="19"/>
-      <c r="NA27" s="19"/>
-      <c r="NB27" s="19"/>
-      <c r="NC27" s="19"/>
-      <c r="ND27" s="19"/>
-      <c r="NE27" s="19"/>
-      <c r="NF27" s="19"/>
-      <c r="NG27" s="19"/>
-      <c r="NH27" s="19"/>
-      <c r="NI27" s="19"/>
-      <c r="NJ27" s="19"/>
-      <c r="NK27" s="19"/>
-      <c r="NL27" s="19"/>
-      <c r="NM27" s="19"/>
-      <c r="NN27" s="19"/>
-      <c r="NO27" s="19"/>
-      <c r="NP27" s="19"/>
-      <c r="NQ27" s="19"/>
-      <c r="NR27" s="19"/>
-      <c r="NS27" s="19"/>
-      <c r="NT27" s="19"/>
-      <c r="NU27" s="19"/>
-      <c r="NV27" s="19"/>
-      <c r="NW27" s="19"/>
-      <c r="NX27" s="19"/>
-      <c r="NY27" s="19"/>
-      <c r="NZ27" s="19"/>
-      <c r="OA27" s="19"/>
-      <c r="OB27" s="19"/>
-      <c r="OC27" s="19"/>
-      <c r="OD27" s="19"/>
-      <c r="OE27" s="19"/>
-      <c r="OF27" s="19"/>
-      <c r="OG27" s="19"/>
-      <c r="OH27" s="19"/>
-      <c r="OI27" s="19"/>
-      <c r="OJ27" s="19"/>
-      <c r="OK27" s="19"/>
-      <c r="OL27" s="19"/>
-      <c r="OM27" s="19"/>
-      <c r="ON27" s="19"/>
-      <c r="OO27" s="19"/>
-      <c r="OP27" s="19"/>
-      <c r="OQ27" s="19"/>
-      <c r="OR27" s="19"/>
-      <c r="OS27" s="19"/>
-      <c r="OT27" s="19"/>
-      <c r="OU27" s="19"/>
-      <c r="OV27" s="19"/>
-      <c r="OW27" s="19"/>
-      <c r="OX27" s="19"/>
-      <c r="OY27" s="19"/>
-      <c r="OZ27" s="19"/>
-      <c r="PA27" s="19"/>
-      <c r="PB27" s="19"/>
-      <c r="PC27" s="19"/>
-      <c r="PD27" s="19"/>
-      <c r="PE27" s="19"/>
-      <c r="PF27" s="19"/>
-      <c r="PG27" s="19"/>
-      <c r="PH27" s="19"/>
-      <c r="PI27" s="19"/>
-      <c r="PJ27" s="19"/>
-      <c r="PK27" s="19"/>
-      <c r="PL27" s="19"/>
-      <c r="PM27" s="19"/>
-      <c r="PN27" s="19"/>
-      <c r="PO27" s="19"/>
-      <c r="PP27" s="19"/>
-      <c r="PQ27" s="19"/>
-      <c r="PR27" s="19"/>
-      <c r="PS27" s="19"/>
-      <c r="PT27" s="19"/>
-      <c r="PU27" s="19"/>
-      <c r="PV27" s="19"/>
-      <c r="PW27" s="19"/>
-      <c r="PX27" s="19"/>
-      <c r="PY27" s="19"/>
-      <c r="PZ27" s="19"/>
-      <c r="QA27" s="19"/>
-      <c r="QB27" s="19"/>
-      <c r="QC27" s="19"/>
-      <c r="QD27" s="19"/>
-      <c r="QE27" s="19"/>
-      <c r="QF27" s="19"/>
-      <c r="QG27" s="19"/>
-      <c r="QH27" s="19"/>
-      <c r="QI27" s="19"/>
-      <c r="QJ27" s="19"/>
-      <c r="QK27" s="19"/>
-      <c r="QL27" s="19"/>
-      <c r="QM27" s="19"/>
-      <c r="QN27" s="19"/>
-      <c r="QO27" s="19"/>
-      <c r="QP27" s="19"/>
-      <c r="QQ27" s="19"/>
-      <c r="QR27" s="19"/>
-      <c r="QS27" s="19"/>
-      <c r="QT27" s="19"/>
-      <c r="QU27" s="19"/>
-      <c r="QV27" s="19"/>
-      <c r="QW27" s="19"/>
-      <c r="QX27" s="19"/>
-      <c r="QY27" s="19"/>
-      <c r="QZ27" s="19"/>
-      <c r="RA27" s="19"/>
-      <c r="RB27" s="19"/>
-      <c r="RC27" s="19"/>
-      <c r="RD27" s="19"/>
-      <c r="RE27" s="19"/>
-      <c r="RF27" s="19"/>
-      <c r="RG27" s="19"/>
-      <c r="RH27" s="19"/>
-      <c r="RI27" s="19"/>
-      <c r="RJ27" s="19"/>
-      <c r="RK27" s="19"/>
-      <c r="RL27" s="19"/>
-      <c r="RM27" s="19"/>
-      <c r="RN27" s="19"/>
-      <c r="RO27" s="19"/>
-      <c r="RP27" s="19"/>
-      <c r="RQ27" s="19"/>
-      <c r="RR27" s="19"/>
-      <c r="RS27" s="19"/>
-      <c r="RT27" s="19"/>
-      <c r="RU27" s="19"/>
-      <c r="RV27" s="19"/>
-      <c r="RW27" s="19"/>
-      <c r="RX27" s="19"/>
-      <c r="RY27" s="19"/>
-      <c r="RZ27" s="19"/>
-      <c r="SA27" s="19"/>
-      <c r="SB27" s="19"/>
-      <c r="SC27" s="19"/>
-      <c r="SD27" s="19"/>
-      <c r="SE27" s="19"/>
-      <c r="SF27" s="19"/>
-      <c r="SG27" s="19"/>
-      <c r="SH27" s="19"/>
-      <c r="SI27" s="19"/>
-      <c r="SJ27" s="19"/>
-      <c r="SK27" s="19"/>
-      <c r="SL27" s="19"/>
-      <c r="SM27" s="19"/>
-      <c r="SN27" s="19"/>
-      <c r="SO27" s="19"/>
-      <c r="SP27" s="19"/>
-      <c r="SQ27" s="19"/>
-      <c r="SR27" s="19"/>
-      <c r="SS27" s="19"/>
-      <c r="ST27" s="19"/>
-      <c r="SU27" s="19"/>
-      <c r="SV27" s="19"/>
-      <c r="SW27" s="19"/>
-      <c r="SX27" s="19"/>
-      <c r="SY27" s="19"/>
-      <c r="SZ27" s="19"/>
-      <c r="TA27" s="19"/>
-      <c r="TB27" s="19"/>
-      <c r="TC27" s="19"/>
-      <c r="TD27" s="19"/>
-      <c r="TE27" s="19"/>
-      <c r="TF27" s="19"/>
-      <c r="TG27" s="19"/>
-      <c r="TH27" s="19"/>
-      <c r="TI27" s="19"/>
-      <c r="TJ27" s="19"/>
-      <c r="TK27" s="19"/>
-      <c r="TL27" s="19"/>
-      <c r="TM27" s="19"/>
-      <c r="TN27" s="19"/>
-      <c r="TO27" s="19"/>
-      <c r="TP27" s="19"/>
-      <c r="TQ27" s="19"/>
-      <c r="TR27" s="19"/>
-      <c r="TS27" s="19"/>
-      <c r="TT27" s="19"/>
-      <c r="TU27" s="19"/>
-      <c r="TV27" s="19"/>
-      <c r="TW27" s="19"/>
-      <c r="TX27" s="19"/>
-      <c r="TY27" s="19"/>
-      <c r="TZ27" s="19"/>
-      <c r="UA27" s="19"/>
-      <c r="UB27" s="19"/>
-      <c r="UC27" s="19"/>
-      <c r="UD27" s="19"/>
-      <c r="UE27" s="19"/>
-      <c r="UF27" s="19"/>
-      <c r="UG27" s="19"/>
-      <c r="UH27" s="19"/>
-      <c r="UI27" s="19"/>
-      <c r="UJ27" s="19"/>
-      <c r="UK27" s="19"/>
-      <c r="UL27" s="19"/>
-      <c r="UM27" s="19"/>
-      <c r="UN27" s="19"/>
-      <c r="UO27" s="19"/>
-      <c r="UP27" s="19"/>
-      <c r="UQ27" s="19"/>
-      <c r="UR27" s="19"/>
-      <c r="US27" s="19"/>
-      <c r="UT27" s="19"/>
-      <c r="UU27" s="19"/>
-      <c r="UV27" s="19"/>
-      <c r="UW27" s="19"/>
-      <c r="UX27" s="19"/>
-      <c r="UY27" s="19"/>
-      <c r="UZ27" s="19"/>
-      <c r="VA27" s="19"/>
-      <c r="VB27" s="19"/>
-      <c r="VC27" s="19"/>
-      <c r="VD27" s="19"/>
-      <c r="VE27" s="19"/>
-      <c r="VF27" s="19"/>
-      <c r="VG27" s="19"/>
-      <c r="VH27" s="19"/>
-      <c r="VI27" s="19"/>
-      <c r="VJ27" s="19"/>
-      <c r="VK27" s="19"/>
-      <c r="VL27" s="19"/>
-      <c r="VM27" s="19"/>
-      <c r="VN27" s="19"/>
-      <c r="VO27" s="19"/>
-      <c r="VP27" s="19"/>
-      <c r="VQ27" s="19"/>
-      <c r="VR27" s="19"/>
-      <c r="VS27" s="19"/>
-      <c r="VT27" s="19"/>
-      <c r="VU27" s="19"/>
-      <c r="VV27" s="19"/>
-      <c r="VW27" s="19"/>
-      <c r="VX27" s="19"/>
-      <c r="VY27" s="19"/>
-      <c r="VZ27" s="19"/>
-      <c r="WA27" s="19"/>
-      <c r="WB27" s="19"/>
-      <c r="WC27" s="19"/>
-      <c r="WD27" s="19"/>
-      <c r="WE27" s="19"/>
-      <c r="WF27" s="19"/>
-      <c r="WG27" s="19"/>
-      <c r="WH27" s="19"/>
-      <c r="WI27" s="19"/>
-      <c r="WJ27" s="19"/>
-      <c r="WK27" s="19"/>
-      <c r="WL27" s="19"/>
-      <c r="WM27" s="19"/>
-      <c r="WN27" s="19"/>
-      <c r="WO27" s="19"/>
-      <c r="WP27" s="19"/>
-      <c r="WQ27" s="19"/>
-      <c r="WR27" s="19"/>
-      <c r="WS27" s="19"/>
-      <c r="WT27" s="19"/>
-      <c r="WU27" s="19"/>
-      <c r="WV27" s="19"/>
-      <c r="WW27" s="19"/>
-      <c r="WX27" s="19"/>
-      <c r="WY27" s="19"/>
-      <c r="WZ27" s="19"/>
-      <c r="XA27" s="19"/>
-      <c r="XB27" s="19"/>
-      <c r="XC27" s="19"/>
-      <c r="XD27" s="19"/>
-      <c r="XE27" s="19"/>
-      <c r="XF27" s="19"/>
-      <c r="XG27" s="19"/>
-      <c r="XH27" s="19"/>
-      <c r="XI27" s="19"/>
-      <c r="XJ27" s="19"/>
-      <c r="XK27" s="19"/>
-      <c r="XL27" s="19"/>
-      <c r="XM27" s="19"/>
-      <c r="XN27" s="19"/>
-      <c r="XO27" s="19"/>
-      <c r="XP27" s="19"/>
-      <c r="XQ27" s="19"/>
-      <c r="XR27" s="19"/>
-      <c r="XS27" s="19"/>
-      <c r="XT27" s="19"/>
-      <c r="XU27" s="19"/>
-      <c r="XV27" s="19"/>
-      <c r="XW27" s="19"/>
-      <c r="XX27" s="19"/>
-      <c r="XY27" s="19"/>
-      <c r="XZ27" s="19"/>
-      <c r="YA27" s="19"/>
-      <c r="YB27" s="19"/>
-      <c r="YC27" s="19"/>
-      <c r="YD27" s="19"/>
-      <c r="YE27" s="19"/>
-      <c r="YF27" s="19"/>
-      <c r="YG27" s="19"/>
-      <c r="YH27" s="19"/>
-      <c r="YI27" s="19"/>
-      <c r="YJ27" s="19"/>
-      <c r="YK27" s="19"/>
-      <c r="YL27" s="19"/>
-      <c r="YM27" s="19"/>
-      <c r="YN27" s="19"/>
-      <c r="YO27" s="19"/>
-      <c r="YP27" s="19"/>
-      <c r="YQ27" s="19"/>
-      <c r="YR27" s="19"/>
-      <c r="YS27" s="19"/>
-      <c r="YT27" s="19"/>
-      <c r="YU27" s="19"/>
-      <c r="YV27" s="19"/>
-      <c r="YW27" s="19"/>
-      <c r="YX27" s="19"/>
-      <c r="YY27" s="19"/>
-      <c r="YZ27" s="19"/>
-      <c r="ZA27" s="19"/>
-      <c r="ZB27" s="19"/>
-      <c r="ZC27" s="19"/>
-      <c r="ZD27" s="19"/>
-      <c r="ZE27" s="19"/>
-      <c r="ZF27" s="19"/>
-      <c r="ZG27" s="19"/>
-      <c r="ZH27" s="19"/>
-      <c r="ZI27" s="19"/>
-      <c r="ZJ27" s="19"/>
-      <c r="ZK27" s="19"/>
-      <c r="ZL27" s="19"/>
-      <c r="ZM27" s="19"/>
-      <c r="ZN27" s="19"/>
-      <c r="ZO27" s="19"/>
-      <c r="ZP27" s="19"/>
-      <c r="ZQ27" s="19"/>
-      <c r="ZR27" s="19"/>
-      <c r="ZS27" s="19"/>
-      <c r="ZT27" s="19"/>
-      <c r="ZU27" s="19"/>
-      <c r="ZV27" s="19"/>
-      <c r="ZW27" s="19"/>
-      <c r="ZX27" s="19"/>
-      <c r="ZY27" s="19"/>
-      <c r="ZZ27" s="19"/>
-      <c r="AAA27" s="19"/>
-      <c r="AAB27" s="19"/>
-      <c r="AAC27" s="19"/>
-      <c r="AAD27" s="19"/>
-      <c r="AAE27" s="19"/>
-      <c r="AAF27" s="19"/>
-      <c r="AAG27" s="19"/>
-      <c r="AAH27" s="19"/>
-      <c r="AAI27" s="19"/>
-      <c r="AAJ27" s="19"/>
-      <c r="AAK27" s="19"/>
-      <c r="AAL27" s="19"/>
-      <c r="AAM27" s="19"/>
-      <c r="AAN27" s="19"/>
-      <c r="AAO27" s="19"/>
-      <c r="AAP27" s="19"/>
-      <c r="AAQ27" s="19"/>
-      <c r="AAR27" s="19"/>
-      <c r="AAS27" s="19"/>
-      <c r="AAT27" s="19"/>
-      <c r="AAU27" s="19"/>
-      <c r="AAV27" s="19"/>
-      <c r="AAW27" s="19"/>
-      <c r="AAX27" s="19"/>
-      <c r="AAY27" s="19"/>
-      <c r="AAZ27" s="19"/>
-      <c r="ABA27" s="19"/>
-      <c r="ABB27" s="19"/>
-      <c r="ABC27" s="19"/>
-      <c r="ABD27" s="19"/>
-      <c r="ABE27" s="19"/>
-      <c r="ABF27" s="19"/>
-      <c r="ABG27" s="19"/>
-      <c r="ABH27" s="19"/>
-      <c r="ABI27" s="19"/>
-      <c r="ABJ27" s="19"/>
-      <c r="ABK27" s="19"/>
-      <c r="ABL27" s="19"/>
-      <c r="ABM27" s="19"/>
-      <c r="ABN27" s="19"/>
-      <c r="ABO27" s="19"/>
-      <c r="ABP27" s="19"/>
-      <c r="ABQ27" s="19"/>
-      <c r="ABR27" s="19"/>
-      <c r="ABS27" s="19"/>
-      <c r="ABT27" s="19"/>
-      <c r="ABU27" s="19"/>
-      <c r="ABV27" s="19"/>
-      <c r="ABW27" s="19"/>
-      <c r="ABX27" s="19"/>
-      <c r="ABY27" s="19"/>
-      <c r="ABZ27" s="19"/>
-      <c r="ACA27" s="19"/>
-      <c r="ACB27" s="19"/>
-      <c r="ACC27" s="19"/>
-      <c r="ACD27" s="19"/>
-      <c r="ACE27" s="19"/>
-      <c r="ACF27" s="19"/>
-      <c r="ACG27" s="19"/>
-      <c r="ACH27" s="19"/>
-      <c r="ACI27" s="19"/>
-      <c r="ACJ27" s="19"/>
-      <c r="ACK27" s="19"/>
-      <c r="ACL27" s="19"/>
-      <c r="ACM27" s="19"/>
-      <c r="ACN27" s="19"/>
-      <c r="ACO27" s="19"/>
-      <c r="ACP27" s="19"/>
-      <c r="ACQ27" s="19"/>
-      <c r="ACR27" s="19"/>
-      <c r="ACS27" s="19"/>
-      <c r="ACT27" s="19"/>
-      <c r="ACU27" s="19"/>
-      <c r="ACV27" s="19"/>
-      <c r="ACW27" s="19"/>
-      <c r="ACX27" s="19"/>
-      <c r="ACY27" s="19"/>
-      <c r="ACZ27" s="19"/>
-      <c r="ADA27" s="19"/>
-      <c r="ADB27" s="19"/>
-      <c r="ADC27" s="19"/>
-      <c r="ADD27" s="19"/>
-      <c r="ADE27" s="19"/>
-      <c r="ADF27" s="19"/>
-      <c r="ADG27" s="19"/>
-      <c r="ADH27" s="19"/>
-      <c r="ADI27" s="19"/>
-      <c r="ADJ27" s="19"/>
-      <c r="ADK27" s="19"/>
-      <c r="ADL27" s="19"/>
-      <c r="ADM27" s="19"/>
-      <c r="ADN27" s="19"/>
-      <c r="ADO27" s="19"/>
-      <c r="ADP27" s="19"/>
-      <c r="ADQ27" s="19"/>
-      <c r="ADR27" s="19"/>
-      <c r="ADS27" s="19"/>
-      <c r="ADT27" s="19"/>
-      <c r="ADU27" s="19"/>
-      <c r="ADV27" s="19"/>
-      <c r="ADW27" s="19"/>
-      <c r="ADX27" s="19"/>
-      <c r="ADY27" s="19"/>
-      <c r="ADZ27" s="19"/>
-      <c r="AEA27" s="19"/>
-      <c r="AEB27" s="19"/>
-      <c r="AEC27" s="19"/>
-      <c r="AED27" s="19"/>
-      <c r="AEE27" s="19"/>
-      <c r="AEF27" s="19"/>
-      <c r="AEG27" s="19"/>
-      <c r="AEH27" s="19"/>
-      <c r="AEI27" s="19"/>
-      <c r="AEJ27" s="19"/>
-      <c r="AEK27" s="19"/>
-      <c r="AEL27" s="19"/>
-      <c r="AEM27" s="19"/>
-      <c r="AEN27" s="19"/>
-      <c r="AEO27" s="19"/>
-      <c r="AEP27" s="19"/>
-      <c r="AEQ27" s="19"/>
-      <c r="AER27" s="19"/>
-      <c r="AES27" s="19"/>
-      <c r="AET27" s="19"/>
-      <c r="AEU27" s="19"/>
-      <c r="AEV27" s="19"/>
-      <c r="AEW27" s="19"/>
-      <c r="AEX27" s="19"/>
-      <c r="AEY27" s="19"/>
-      <c r="AEZ27" s="19"/>
-      <c r="AFA27" s="19"/>
-      <c r="AFB27" s="19"/>
-      <c r="AFC27" s="19"/>
-      <c r="AFD27" s="19"/>
-      <c r="AFE27" s="19"/>
-      <c r="AFF27" s="19"/>
-      <c r="AFG27" s="19"/>
-      <c r="AFH27" s="19"/>
-      <c r="AFI27" s="19"/>
-      <c r="AFJ27" s="19"/>
-      <c r="AFK27" s="19"/>
-      <c r="AFL27" s="19"/>
-      <c r="AFM27" s="19"/>
-      <c r="AFN27" s="19"/>
-      <c r="AFO27" s="19"/>
-      <c r="AFP27" s="19"/>
-      <c r="AFQ27" s="19"/>
-      <c r="AFR27" s="19"/>
-      <c r="AFS27" s="19"/>
-      <c r="AFT27" s="19"/>
-      <c r="AFU27" s="19"/>
-      <c r="AFV27" s="19"/>
-      <c r="AFW27" s="19"/>
-      <c r="AFX27" s="19"/>
-      <c r="AFY27" s="19"/>
-      <c r="AFZ27" s="19"/>
-      <c r="AGA27" s="19"/>
-      <c r="AGB27" s="19"/>
-      <c r="AGC27" s="19"/>
-      <c r="AGD27" s="19"/>
-      <c r="AGE27" s="19"/>
-      <c r="AGF27" s="19"/>
-      <c r="AGG27" s="19"/>
-      <c r="AGH27" s="19"/>
-      <c r="AGI27" s="19"/>
-      <c r="AGJ27" s="19"/>
-      <c r="AGK27" s="19"/>
-      <c r="AGL27" s="19"/>
-      <c r="AGM27" s="19"/>
-      <c r="AGN27" s="19"/>
-      <c r="AGO27" s="19"/>
-      <c r="AGP27" s="19"/>
-      <c r="AGQ27" s="19"/>
-      <c r="AGR27" s="19"/>
-      <c r="AGS27" s="19"/>
-      <c r="AGT27" s="19"/>
-      <c r="AGU27" s="19"/>
-      <c r="AGV27" s="19"/>
-      <c r="AGW27" s="19"/>
-      <c r="AGX27" s="19"/>
-      <c r="AGY27" s="19"/>
-      <c r="AGZ27" s="19"/>
-      <c r="AHA27" s="19"/>
-      <c r="AHB27" s="19"/>
-      <c r="AHC27" s="19"/>
-      <c r="AHD27" s="19"/>
-      <c r="AHE27" s="19"/>
-      <c r="AHF27" s="19"/>
-      <c r="AHG27" s="19"/>
-      <c r="AHH27" s="19"/>
-      <c r="AHI27" s="19"/>
-      <c r="AHJ27" s="19"/>
-      <c r="AHK27" s="19"/>
-      <c r="AHL27" s="19"/>
-      <c r="AHM27" s="19"/>
-      <c r="AHN27" s="19"/>
-      <c r="AHO27" s="19"/>
-      <c r="AHP27" s="19"/>
-      <c r="AHQ27" s="19"/>
-      <c r="AHR27" s="19"/>
-      <c r="AHS27" s="19"/>
-      <c r="AHT27" s="19"/>
-      <c r="AHU27" s="19"/>
-      <c r="AHV27" s="19"/>
-      <c r="AHW27" s="19"/>
-      <c r="AHX27" s="19"/>
-      <c r="AHY27" s="19"/>
-      <c r="AHZ27" s="19"/>
-      <c r="AIA27" s="19"/>
-      <c r="AIB27" s="19"/>
-      <c r="AIC27" s="19"/>
-      <c r="AID27" s="19"/>
-      <c r="AIE27" s="19"/>
-      <c r="AIF27" s="19"/>
-      <c r="AIG27" s="19"/>
-      <c r="AIH27" s="19"/>
-      <c r="AII27" s="19"/>
-      <c r="AIJ27" s="19"/>
-      <c r="AIK27" s="19"/>
-      <c r="AIL27" s="19"/>
-      <c r="AIM27" s="19"/>
-      <c r="AIN27" s="19"/>
-      <c r="AIO27" s="19"/>
-      <c r="AIP27" s="19"/>
-      <c r="AIQ27" s="19"/>
-      <c r="AIR27" s="19"/>
-      <c r="AIS27" s="19"/>
-      <c r="AIT27" s="19"/>
-      <c r="AIU27" s="19"/>
-      <c r="AIV27" s="19"/>
-      <c r="AIW27" s="19"/>
-      <c r="AIX27" s="19"/>
-      <c r="AIY27" s="19"/>
-      <c r="AIZ27" s="19"/>
-      <c r="AJA27" s="19"/>
-      <c r="AJB27" s="19"/>
-      <c r="AJC27" s="19"/>
-      <c r="AJD27" s="19"/>
-      <c r="AJE27" s="19"/>
-      <c r="AJF27" s="19"/>
-      <c r="AJG27" s="19"/>
-      <c r="AJH27" s="19"/>
-      <c r="AJI27" s="19"/>
-      <c r="AJJ27" s="19"/>
-      <c r="AJK27" s="19"/>
-      <c r="AJL27" s="19"/>
-      <c r="AJM27" s="19"/>
-      <c r="AJN27" s="19"/>
-      <c r="AJO27" s="19"/>
-      <c r="AJP27" s="19"/>
-      <c r="AJQ27" s="19"/>
-      <c r="AJR27" s="19"/>
-      <c r="AJS27" s="19"/>
-      <c r="AJT27" s="19"/>
-      <c r="AJU27" s="19"/>
-      <c r="AJV27" s="19"/>
-      <c r="AJW27" s="19"/>
-      <c r="AJX27" s="19"/>
-      <c r="AJY27" s="19"/>
-      <c r="AJZ27" s="19"/>
-      <c r="AKA27" s="19"/>
-      <c r="AKB27" s="19"/>
-      <c r="AKC27" s="19"/>
-      <c r="AKD27" s="19"/>
-      <c r="AKE27" s="19"/>
-      <c r="AKF27" s="19"/>
-      <c r="AKG27" s="19"/>
-      <c r="AKH27" s="19"/>
-      <c r="AKI27" s="19"/>
-      <c r="AKJ27" s="19"/>
-      <c r="AKK27" s="19"/>
-      <c r="AKL27" s="19"/>
-      <c r="AKM27" s="19"/>
-      <c r="AKN27" s="19"/>
-      <c r="AKO27" s="19"/>
-      <c r="AKP27" s="19"/>
-      <c r="AKQ27" s="19"/>
-      <c r="AKR27" s="19"/>
-      <c r="AKS27" s="19"/>
-      <c r="AKT27" s="19"/>
-      <c r="AKU27" s="19"/>
-      <c r="AKV27" s="19"/>
-      <c r="AKW27" s="19"/>
-      <c r="AKX27" s="19"/>
-      <c r="AKY27" s="19"/>
-      <c r="AKZ27" s="19"/>
-      <c r="ALA27" s="19"/>
-      <c r="ALB27" s="19"/>
-      <c r="ALC27" s="19"/>
-      <c r="ALD27" s="19"/>
-      <c r="ALE27" s="19"/>
-      <c r="ALF27" s="19"/>
-      <c r="ALG27" s="19"/>
-      <c r="ALH27" s="19"/>
-      <c r="ALI27" s="19"/>
-      <c r="ALJ27" s="19"/>
-      <c r="ALK27" s="19"/>
-      <c r="ALL27" s="19"/>
-      <c r="ALM27" s="19"/>
-      <c r="ALN27" s="19"/>
-      <c r="ALO27" s="19"/>
-      <c r="ALP27" s="19"/>
-      <c r="ALQ27" s="19"/>
-      <c r="ALR27" s="19"/>
-      <c r="ALS27" s="19"/>
-      <c r="ALT27" s="19"/>
-      <c r="ALU27" s="19"/>
-      <c r="ALV27" s="19"/>
-      <c r="ALW27" s="19"/>
-      <c r="ALX27" s="19"/>
-      <c r="ALY27" s="19"/>
-      <c r="ALZ27" s="19"/>
-      <c r="AMA27" s="19"/>
-      <c r="AMB27" s="19"/>
-      <c r="AMC27" s="19"/>
-      <c r="AMD27" s="19"/>
-      <c r="AME27" s="19"/>
-      <c r="AMF27" s="19"/>
-      <c r="AMG27" s="19"/>
-      <c r="AMH27" s="19"/>
-      <c r="AMI27" s="19"/>
-      <c r="AMJ27" s="19"/>
-      <c r="AMK27" s="19"/>
-      <c r="AML27" s="19"/>
-      <c r="AMM27" s="19"/>
-      <c r="AMN27" s="19"/>
-      <c r="AMO27" s="19"/>
-      <c r="AMP27" s="19"/>
-      <c r="AMQ27" s="19"/>
-      <c r="AMR27" s="19"/>
     </row>
     <row r="28" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="48"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="19"/>
-      <c r="AB28" s="15"/>
+      <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
@@ -12718,8 +10795,10 @@
       <c r="AMR28" s="19"/>
     </row>
     <row r="29" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="44"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -12739,17 +10818,17 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
       <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
       <c r="AG29" s="15"/>
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
@@ -13754,29 +11833,29 @@
     <row r="30" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="45"/>
       <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
+      <c r="Y30" s="44"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -14786,8 +12865,8 @@
       <c r="AMR30" s="19"/>
     </row>
     <row r="31" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -15819,62 +13898,1042 @@
       <c r="AMQ31" s="19"/>
       <c r="AMR31" s="19"/>
     </row>
-    <row r="32" spans="1:1032" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
-      <c r="AV32" s="3"/>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="3"/>
-      <c r="AY32" s="3"/>
-      <c r="AZ32" s="3"/>
-      <c r="BA32" s="3"/>
-      <c r="BB32" s="3"/>
-      <c r="BC32" s="3"/>
-      <c r="BD32" s="3"/>
-      <c r="BE32" s="3"/>
-      <c r="BF32" s="3"/>
-      <c r="BG32" s="3"/>
-      <c r="BH32" s="3"/>
-      <c r="BI32" s="3"/>
-      <c r="BJ32" s="3"/>
-      <c r="BK32" s="3"/>
-      <c r="BL32" s="3"/>
-      <c r="BM32" s="3"/>
-      <c r="BN32" s="3"/>
-      <c r="BO32" s="3"/>
-      <c r="BP32" s="3"/>
-      <c r="BQ32" s="3"/>
-      <c r="BR32" s="3"/>
-      <c r="BS32" s="3"/>
-      <c r="BT32" s="3"/>
-      <c r="BU32" s="3"/>
-      <c r="BV32" s="3"/>
-      <c r="BW32" s="3"/>
-      <c r="BX32" s="3"/>
-      <c r="BY32" s="3"/>
-    </row>
-    <row r="33" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="19"/>
+      <c r="CA32" s="19"/>
+      <c r="CB32" s="19"/>
+      <c r="CC32" s="19"/>
+      <c r="CD32" s="19"/>
+      <c r="CE32" s="19"/>
+      <c r="CF32" s="19"/>
+      <c r="CG32" s="19"/>
+      <c r="CH32" s="19"/>
+      <c r="CI32" s="19"/>
+      <c r="CJ32" s="19"/>
+      <c r="CK32" s="19"/>
+      <c r="CL32" s="19"/>
+      <c r="CM32" s="19"/>
+      <c r="CN32" s="19"/>
+      <c r="CO32" s="19"/>
+      <c r="CP32" s="19"/>
+      <c r="CQ32" s="19"/>
+      <c r="CR32" s="19"/>
+      <c r="CS32" s="19"/>
+      <c r="CT32" s="19"/>
+      <c r="CU32" s="19"/>
+      <c r="CV32" s="19"/>
+      <c r="CW32" s="19"/>
+      <c r="CX32" s="19"/>
+      <c r="CY32" s="19"/>
+      <c r="CZ32" s="19"/>
+      <c r="DA32" s="19"/>
+      <c r="DB32" s="19"/>
+      <c r="DC32" s="19"/>
+      <c r="DD32" s="19"/>
+      <c r="DE32" s="19"/>
+      <c r="DF32" s="19"/>
+      <c r="DG32" s="19"/>
+      <c r="DH32" s="19"/>
+      <c r="DI32" s="19"/>
+      <c r="DJ32" s="19"/>
+      <c r="DK32" s="19"/>
+      <c r="DL32" s="19"/>
+      <c r="DM32" s="19"/>
+      <c r="DN32" s="19"/>
+      <c r="DO32" s="19"/>
+      <c r="DP32" s="19"/>
+      <c r="DQ32" s="19"/>
+      <c r="DR32" s="19"/>
+      <c r="DS32" s="19"/>
+      <c r="DT32" s="19"/>
+      <c r="DU32" s="19"/>
+      <c r="DV32" s="19"/>
+      <c r="DW32" s="19"/>
+      <c r="DX32" s="19"/>
+      <c r="DY32" s="19"/>
+      <c r="DZ32" s="19"/>
+      <c r="EA32" s="19"/>
+      <c r="EB32" s="19"/>
+      <c r="EC32" s="19"/>
+      <c r="ED32" s="19"/>
+      <c r="EE32" s="19"/>
+      <c r="EF32" s="19"/>
+      <c r="EG32" s="19"/>
+      <c r="EH32" s="19"/>
+      <c r="EI32" s="19"/>
+      <c r="EJ32" s="19"/>
+      <c r="EK32" s="19"/>
+      <c r="EL32" s="19"/>
+      <c r="EM32" s="19"/>
+      <c r="EN32" s="19"/>
+      <c r="EO32" s="19"/>
+      <c r="EP32" s="19"/>
+      <c r="EQ32" s="19"/>
+      <c r="ER32" s="19"/>
+      <c r="ES32" s="19"/>
+      <c r="ET32" s="19"/>
+      <c r="EU32" s="19"/>
+      <c r="EV32" s="19"/>
+      <c r="EW32" s="19"/>
+      <c r="EX32" s="19"/>
+      <c r="EY32" s="19"/>
+      <c r="EZ32" s="19"/>
+      <c r="FA32" s="19"/>
+      <c r="FB32" s="19"/>
+      <c r="FC32" s="19"/>
+      <c r="FD32" s="19"/>
+      <c r="FE32" s="19"/>
+      <c r="FF32" s="19"/>
+      <c r="FG32" s="19"/>
+      <c r="FH32" s="19"/>
+      <c r="FI32" s="19"/>
+      <c r="FJ32" s="19"/>
+      <c r="FK32" s="19"/>
+      <c r="FL32" s="19"/>
+      <c r="FM32" s="19"/>
+      <c r="FN32" s="19"/>
+      <c r="FO32" s="19"/>
+      <c r="FP32" s="19"/>
+      <c r="FQ32" s="19"/>
+      <c r="FR32" s="19"/>
+      <c r="FS32" s="19"/>
+      <c r="FT32" s="19"/>
+      <c r="FU32" s="19"/>
+      <c r="FV32" s="19"/>
+      <c r="FW32" s="19"/>
+      <c r="FX32" s="19"/>
+      <c r="FY32" s="19"/>
+      <c r="FZ32" s="19"/>
+      <c r="GA32" s="19"/>
+      <c r="GB32" s="19"/>
+      <c r="GC32" s="19"/>
+      <c r="GD32" s="19"/>
+      <c r="GE32" s="19"/>
+      <c r="GF32" s="19"/>
+      <c r="GG32" s="19"/>
+      <c r="GH32" s="19"/>
+      <c r="GI32" s="19"/>
+      <c r="GJ32" s="19"/>
+      <c r="GK32" s="19"/>
+      <c r="GL32" s="19"/>
+      <c r="GM32" s="19"/>
+      <c r="GN32" s="19"/>
+      <c r="GO32" s="19"/>
+      <c r="GP32" s="19"/>
+      <c r="GQ32" s="19"/>
+      <c r="GR32" s="19"/>
+      <c r="GS32" s="19"/>
+      <c r="GT32" s="19"/>
+      <c r="GU32" s="19"/>
+      <c r="GV32" s="19"/>
+      <c r="GW32" s="19"/>
+      <c r="GX32" s="19"/>
+      <c r="GY32" s="19"/>
+      <c r="GZ32" s="19"/>
+      <c r="HA32" s="19"/>
+      <c r="HB32" s="19"/>
+      <c r="HC32" s="19"/>
+      <c r="HD32" s="19"/>
+      <c r="HE32" s="19"/>
+      <c r="HF32" s="19"/>
+      <c r="HG32" s="19"/>
+      <c r="HH32" s="19"/>
+      <c r="HI32" s="19"/>
+      <c r="HJ32" s="19"/>
+      <c r="HK32" s="19"/>
+      <c r="HL32" s="19"/>
+      <c r="HM32" s="19"/>
+      <c r="HN32" s="19"/>
+      <c r="HO32" s="19"/>
+      <c r="HP32" s="19"/>
+      <c r="HQ32" s="19"/>
+      <c r="HR32" s="19"/>
+      <c r="HS32" s="19"/>
+      <c r="HT32" s="19"/>
+      <c r="HU32" s="19"/>
+      <c r="HV32" s="19"/>
+      <c r="HW32" s="19"/>
+      <c r="HX32" s="19"/>
+      <c r="HY32" s="19"/>
+      <c r="HZ32" s="19"/>
+      <c r="IA32" s="19"/>
+      <c r="IB32" s="19"/>
+      <c r="IC32" s="19"/>
+      <c r="ID32" s="19"/>
+      <c r="IE32" s="19"/>
+      <c r="IF32" s="19"/>
+      <c r="IG32" s="19"/>
+      <c r="IH32" s="19"/>
+      <c r="II32" s="19"/>
+      <c r="IJ32" s="19"/>
+      <c r="IK32" s="19"/>
+      <c r="IL32" s="19"/>
+      <c r="IM32" s="19"/>
+      <c r="IN32" s="19"/>
+      <c r="IO32" s="19"/>
+      <c r="IP32" s="19"/>
+      <c r="IQ32" s="19"/>
+      <c r="IR32" s="19"/>
+      <c r="IS32" s="19"/>
+      <c r="IT32" s="19"/>
+      <c r="IU32" s="19"/>
+      <c r="IV32" s="19"/>
+      <c r="IW32" s="19"/>
+      <c r="IX32" s="19"/>
+      <c r="IY32" s="19"/>
+      <c r="IZ32" s="19"/>
+      <c r="JA32" s="19"/>
+      <c r="JB32" s="19"/>
+      <c r="JC32" s="19"/>
+      <c r="JD32" s="19"/>
+      <c r="JE32" s="19"/>
+      <c r="JF32" s="19"/>
+      <c r="JG32" s="19"/>
+      <c r="JH32" s="19"/>
+      <c r="JI32" s="19"/>
+      <c r="JJ32" s="19"/>
+      <c r="JK32" s="19"/>
+      <c r="JL32" s="19"/>
+      <c r="JM32" s="19"/>
+      <c r="JN32" s="19"/>
+      <c r="JO32" s="19"/>
+      <c r="JP32" s="19"/>
+      <c r="JQ32" s="19"/>
+      <c r="JR32" s="19"/>
+      <c r="JS32" s="19"/>
+      <c r="JT32" s="19"/>
+      <c r="JU32" s="19"/>
+      <c r="JV32" s="19"/>
+      <c r="JW32" s="19"/>
+      <c r="JX32" s="19"/>
+      <c r="JY32" s="19"/>
+      <c r="JZ32" s="19"/>
+      <c r="KA32" s="19"/>
+      <c r="KB32" s="19"/>
+      <c r="KC32" s="19"/>
+      <c r="KD32" s="19"/>
+      <c r="KE32" s="19"/>
+      <c r="KF32" s="19"/>
+      <c r="KG32" s="19"/>
+      <c r="KH32" s="19"/>
+      <c r="KI32" s="19"/>
+      <c r="KJ32" s="19"/>
+      <c r="KK32" s="19"/>
+      <c r="KL32" s="19"/>
+      <c r="KM32" s="19"/>
+      <c r="KN32" s="19"/>
+      <c r="KO32" s="19"/>
+      <c r="KP32" s="19"/>
+      <c r="KQ32" s="19"/>
+      <c r="KR32" s="19"/>
+      <c r="KS32" s="19"/>
+      <c r="KT32" s="19"/>
+      <c r="KU32" s="19"/>
+      <c r="KV32" s="19"/>
+      <c r="KW32" s="19"/>
+      <c r="KX32" s="19"/>
+      <c r="KY32" s="19"/>
+      <c r="KZ32" s="19"/>
+      <c r="LA32" s="19"/>
+      <c r="LB32" s="19"/>
+      <c r="LC32" s="19"/>
+      <c r="LD32" s="19"/>
+      <c r="LE32" s="19"/>
+      <c r="LF32" s="19"/>
+      <c r="LG32" s="19"/>
+      <c r="LH32" s="19"/>
+      <c r="LI32" s="19"/>
+      <c r="LJ32" s="19"/>
+      <c r="LK32" s="19"/>
+      <c r="LL32" s="19"/>
+      <c r="LM32" s="19"/>
+      <c r="LN32" s="19"/>
+      <c r="LO32" s="19"/>
+      <c r="LP32" s="19"/>
+      <c r="LQ32" s="19"/>
+      <c r="LR32" s="19"/>
+      <c r="LS32" s="19"/>
+      <c r="LT32" s="19"/>
+      <c r="LU32" s="19"/>
+      <c r="LV32" s="19"/>
+      <c r="LW32" s="19"/>
+      <c r="LX32" s="19"/>
+      <c r="LY32" s="19"/>
+      <c r="LZ32" s="19"/>
+      <c r="MA32" s="19"/>
+      <c r="MB32" s="19"/>
+      <c r="MC32" s="19"/>
+      <c r="MD32" s="19"/>
+      <c r="ME32" s="19"/>
+      <c r="MF32" s="19"/>
+      <c r="MG32" s="19"/>
+      <c r="MH32" s="19"/>
+      <c r="MI32" s="19"/>
+      <c r="MJ32" s="19"/>
+      <c r="MK32" s="19"/>
+      <c r="ML32" s="19"/>
+      <c r="MM32" s="19"/>
+      <c r="MN32" s="19"/>
+      <c r="MO32" s="19"/>
+      <c r="MP32" s="19"/>
+      <c r="MQ32" s="19"/>
+      <c r="MR32" s="19"/>
+      <c r="MS32" s="19"/>
+      <c r="MT32" s="19"/>
+      <c r="MU32" s="19"/>
+      <c r="MV32" s="19"/>
+      <c r="MW32" s="19"/>
+      <c r="MX32" s="19"/>
+      <c r="MY32" s="19"/>
+      <c r="MZ32" s="19"/>
+      <c r="NA32" s="19"/>
+      <c r="NB32" s="19"/>
+      <c r="NC32" s="19"/>
+      <c r="ND32" s="19"/>
+      <c r="NE32" s="19"/>
+      <c r="NF32" s="19"/>
+      <c r="NG32" s="19"/>
+      <c r="NH32" s="19"/>
+      <c r="NI32" s="19"/>
+      <c r="NJ32" s="19"/>
+      <c r="NK32" s="19"/>
+      <c r="NL32" s="19"/>
+      <c r="NM32" s="19"/>
+      <c r="NN32" s="19"/>
+      <c r="NO32" s="19"/>
+      <c r="NP32" s="19"/>
+      <c r="NQ32" s="19"/>
+      <c r="NR32" s="19"/>
+      <c r="NS32" s="19"/>
+      <c r="NT32" s="19"/>
+      <c r="NU32" s="19"/>
+      <c r="NV32" s="19"/>
+      <c r="NW32" s="19"/>
+      <c r="NX32" s="19"/>
+      <c r="NY32" s="19"/>
+      <c r="NZ32" s="19"/>
+      <c r="OA32" s="19"/>
+      <c r="OB32" s="19"/>
+      <c r="OC32" s="19"/>
+      <c r="OD32" s="19"/>
+      <c r="OE32" s="19"/>
+      <c r="OF32" s="19"/>
+      <c r="OG32" s="19"/>
+      <c r="OH32" s="19"/>
+      <c r="OI32" s="19"/>
+      <c r="OJ32" s="19"/>
+      <c r="OK32" s="19"/>
+      <c r="OL32" s="19"/>
+      <c r="OM32" s="19"/>
+      <c r="ON32" s="19"/>
+      <c r="OO32" s="19"/>
+      <c r="OP32" s="19"/>
+      <c r="OQ32" s="19"/>
+      <c r="OR32" s="19"/>
+      <c r="OS32" s="19"/>
+      <c r="OT32" s="19"/>
+      <c r="OU32" s="19"/>
+      <c r="OV32" s="19"/>
+      <c r="OW32" s="19"/>
+      <c r="OX32" s="19"/>
+      <c r="OY32" s="19"/>
+      <c r="OZ32" s="19"/>
+      <c r="PA32" s="19"/>
+      <c r="PB32" s="19"/>
+      <c r="PC32" s="19"/>
+      <c r="PD32" s="19"/>
+      <c r="PE32" s="19"/>
+      <c r="PF32" s="19"/>
+      <c r="PG32" s="19"/>
+      <c r="PH32" s="19"/>
+      <c r="PI32" s="19"/>
+      <c r="PJ32" s="19"/>
+      <c r="PK32" s="19"/>
+      <c r="PL32" s="19"/>
+      <c r="PM32" s="19"/>
+      <c r="PN32" s="19"/>
+      <c r="PO32" s="19"/>
+      <c r="PP32" s="19"/>
+      <c r="PQ32" s="19"/>
+      <c r="PR32" s="19"/>
+      <c r="PS32" s="19"/>
+      <c r="PT32" s="19"/>
+      <c r="PU32" s="19"/>
+      <c r="PV32" s="19"/>
+      <c r="PW32" s="19"/>
+      <c r="PX32" s="19"/>
+      <c r="PY32" s="19"/>
+      <c r="PZ32" s="19"/>
+      <c r="QA32" s="19"/>
+      <c r="QB32" s="19"/>
+      <c r="QC32" s="19"/>
+      <c r="QD32" s="19"/>
+      <c r="QE32" s="19"/>
+      <c r="QF32" s="19"/>
+      <c r="QG32" s="19"/>
+      <c r="QH32" s="19"/>
+      <c r="QI32" s="19"/>
+      <c r="QJ32" s="19"/>
+      <c r="QK32" s="19"/>
+      <c r="QL32" s="19"/>
+      <c r="QM32" s="19"/>
+      <c r="QN32" s="19"/>
+      <c r="QO32" s="19"/>
+      <c r="QP32" s="19"/>
+      <c r="QQ32" s="19"/>
+      <c r="QR32" s="19"/>
+      <c r="QS32" s="19"/>
+      <c r="QT32" s="19"/>
+      <c r="QU32" s="19"/>
+      <c r="QV32" s="19"/>
+      <c r="QW32" s="19"/>
+      <c r="QX32" s="19"/>
+      <c r="QY32" s="19"/>
+      <c r="QZ32" s="19"/>
+      <c r="RA32" s="19"/>
+      <c r="RB32" s="19"/>
+      <c r="RC32" s="19"/>
+      <c r="RD32" s="19"/>
+      <c r="RE32" s="19"/>
+      <c r="RF32" s="19"/>
+      <c r="RG32" s="19"/>
+      <c r="RH32" s="19"/>
+      <c r="RI32" s="19"/>
+      <c r="RJ32" s="19"/>
+      <c r="RK32" s="19"/>
+      <c r="RL32" s="19"/>
+      <c r="RM32" s="19"/>
+      <c r="RN32" s="19"/>
+      <c r="RO32" s="19"/>
+      <c r="RP32" s="19"/>
+      <c r="RQ32" s="19"/>
+      <c r="RR32" s="19"/>
+      <c r="RS32" s="19"/>
+      <c r="RT32" s="19"/>
+      <c r="RU32" s="19"/>
+      <c r="RV32" s="19"/>
+      <c r="RW32" s="19"/>
+      <c r="RX32" s="19"/>
+      <c r="RY32" s="19"/>
+      <c r="RZ32" s="19"/>
+      <c r="SA32" s="19"/>
+      <c r="SB32" s="19"/>
+      <c r="SC32" s="19"/>
+      <c r="SD32" s="19"/>
+      <c r="SE32" s="19"/>
+      <c r="SF32" s="19"/>
+      <c r="SG32" s="19"/>
+      <c r="SH32" s="19"/>
+      <c r="SI32" s="19"/>
+      <c r="SJ32" s="19"/>
+      <c r="SK32" s="19"/>
+      <c r="SL32" s="19"/>
+      <c r="SM32" s="19"/>
+      <c r="SN32" s="19"/>
+      <c r="SO32" s="19"/>
+      <c r="SP32" s="19"/>
+      <c r="SQ32" s="19"/>
+      <c r="SR32" s="19"/>
+      <c r="SS32" s="19"/>
+      <c r="ST32" s="19"/>
+      <c r="SU32" s="19"/>
+      <c r="SV32" s="19"/>
+      <c r="SW32" s="19"/>
+      <c r="SX32" s="19"/>
+      <c r="SY32" s="19"/>
+      <c r="SZ32" s="19"/>
+      <c r="TA32" s="19"/>
+      <c r="TB32" s="19"/>
+      <c r="TC32" s="19"/>
+      <c r="TD32" s="19"/>
+      <c r="TE32" s="19"/>
+      <c r="TF32" s="19"/>
+      <c r="TG32" s="19"/>
+      <c r="TH32" s="19"/>
+      <c r="TI32" s="19"/>
+      <c r="TJ32" s="19"/>
+      <c r="TK32" s="19"/>
+      <c r="TL32" s="19"/>
+      <c r="TM32" s="19"/>
+      <c r="TN32" s="19"/>
+      <c r="TO32" s="19"/>
+      <c r="TP32" s="19"/>
+      <c r="TQ32" s="19"/>
+      <c r="TR32" s="19"/>
+      <c r="TS32" s="19"/>
+      <c r="TT32" s="19"/>
+      <c r="TU32" s="19"/>
+      <c r="TV32" s="19"/>
+      <c r="TW32" s="19"/>
+      <c r="TX32" s="19"/>
+      <c r="TY32" s="19"/>
+      <c r="TZ32" s="19"/>
+      <c r="UA32" s="19"/>
+      <c r="UB32" s="19"/>
+      <c r="UC32" s="19"/>
+      <c r="UD32" s="19"/>
+      <c r="UE32" s="19"/>
+      <c r="UF32" s="19"/>
+      <c r="UG32" s="19"/>
+      <c r="UH32" s="19"/>
+      <c r="UI32" s="19"/>
+      <c r="UJ32" s="19"/>
+      <c r="UK32" s="19"/>
+      <c r="UL32" s="19"/>
+      <c r="UM32" s="19"/>
+      <c r="UN32" s="19"/>
+      <c r="UO32" s="19"/>
+      <c r="UP32" s="19"/>
+      <c r="UQ32" s="19"/>
+      <c r="UR32" s="19"/>
+      <c r="US32" s="19"/>
+      <c r="UT32" s="19"/>
+      <c r="UU32" s="19"/>
+      <c r="UV32" s="19"/>
+      <c r="UW32" s="19"/>
+      <c r="UX32" s="19"/>
+      <c r="UY32" s="19"/>
+      <c r="UZ32" s="19"/>
+      <c r="VA32" s="19"/>
+      <c r="VB32" s="19"/>
+      <c r="VC32" s="19"/>
+      <c r="VD32" s="19"/>
+      <c r="VE32" s="19"/>
+      <c r="VF32" s="19"/>
+      <c r="VG32" s="19"/>
+      <c r="VH32" s="19"/>
+      <c r="VI32" s="19"/>
+      <c r="VJ32" s="19"/>
+      <c r="VK32" s="19"/>
+      <c r="VL32" s="19"/>
+      <c r="VM32" s="19"/>
+      <c r="VN32" s="19"/>
+      <c r="VO32" s="19"/>
+      <c r="VP32" s="19"/>
+      <c r="VQ32" s="19"/>
+      <c r="VR32" s="19"/>
+      <c r="VS32" s="19"/>
+      <c r="VT32" s="19"/>
+      <c r="VU32" s="19"/>
+      <c r="VV32" s="19"/>
+      <c r="VW32" s="19"/>
+      <c r="VX32" s="19"/>
+      <c r="VY32" s="19"/>
+      <c r="VZ32" s="19"/>
+      <c r="WA32" s="19"/>
+      <c r="WB32" s="19"/>
+      <c r="WC32" s="19"/>
+      <c r="WD32" s="19"/>
+      <c r="WE32" s="19"/>
+      <c r="WF32" s="19"/>
+      <c r="WG32" s="19"/>
+      <c r="WH32" s="19"/>
+      <c r="WI32" s="19"/>
+      <c r="WJ32" s="19"/>
+      <c r="WK32" s="19"/>
+      <c r="WL32" s="19"/>
+      <c r="WM32" s="19"/>
+      <c r="WN32" s="19"/>
+      <c r="WO32" s="19"/>
+      <c r="WP32" s="19"/>
+      <c r="WQ32" s="19"/>
+      <c r="WR32" s="19"/>
+      <c r="WS32" s="19"/>
+      <c r="WT32" s="19"/>
+      <c r="WU32" s="19"/>
+      <c r="WV32" s="19"/>
+      <c r="WW32" s="19"/>
+      <c r="WX32" s="19"/>
+      <c r="WY32" s="19"/>
+      <c r="WZ32" s="19"/>
+      <c r="XA32" s="19"/>
+      <c r="XB32" s="19"/>
+      <c r="XC32" s="19"/>
+      <c r="XD32" s="19"/>
+      <c r="XE32" s="19"/>
+      <c r="XF32" s="19"/>
+      <c r="XG32" s="19"/>
+      <c r="XH32" s="19"/>
+      <c r="XI32" s="19"/>
+      <c r="XJ32" s="19"/>
+      <c r="XK32" s="19"/>
+      <c r="XL32" s="19"/>
+      <c r="XM32" s="19"/>
+      <c r="XN32" s="19"/>
+      <c r="XO32" s="19"/>
+      <c r="XP32" s="19"/>
+      <c r="XQ32" s="19"/>
+      <c r="XR32" s="19"/>
+      <c r="XS32" s="19"/>
+      <c r="XT32" s="19"/>
+      <c r="XU32" s="19"/>
+      <c r="XV32" s="19"/>
+      <c r="XW32" s="19"/>
+      <c r="XX32" s="19"/>
+      <c r="XY32" s="19"/>
+      <c r="XZ32" s="19"/>
+      <c r="YA32" s="19"/>
+      <c r="YB32" s="19"/>
+      <c r="YC32" s="19"/>
+      <c r="YD32" s="19"/>
+      <c r="YE32" s="19"/>
+      <c r="YF32" s="19"/>
+      <c r="YG32" s="19"/>
+      <c r="YH32" s="19"/>
+      <c r="YI32" s="19"/>
+      <c r="YJ32" s="19"/>
+      <c r="YK32" s="19"/>
+      <c r="YL32" s="19"/>
+      <c r="YM32" s="19"/>
+      <c r="YN32" s="19"/>
+      <c r="YO32" s="19"/>
+      <c r="YP32" s="19"/>
+      <c r="YQ32" s="19"/>
+      <c r="YR32" s="19"/>
+      <c r="YS32" s="19"/>
+      <c r="YT32" s="19"/>
+      <c r="YU32" s="19"/>
+      <c r="YV32" s="19"/>
+      <c r="YW32" s="19"/>
+      <c r="YX32" s="19"/>
+      <c r="YY32" s="19"/>
+      <c r="YZ32" s="19"/>
+      <c r="ZA32" s="19"/>
+      <c r="ZB32" s="19"/>
+      <c r="ZC32" s="19"/>
+      <c r="ZD32" s="19"/>
+      <c r="ZE32" s="19"/>
+      <c r="ZF32" s="19"/>
+      <c r="ZG32" s="19"/>
+      <c r="ZH32" s="19"/>
+      <c r="ZI32" s="19"/>
+      <c r="ZJ32" s="19"/>
+      <c r="ZK32" s="19"/>
+      <c r="ZL32" s="19"/>
+      <c r="ZM32" s="19"/>
+      <c r="ZN32" s="19"/>
+      <c r="ZO32" s="19"/>
+      <c r="ZP32" s="19"/>
+      <c r="ZQ32" s="19"/>
+      <c r="ZR32" s="19"/>
+      <c r="ZS32" s="19"/>
+      <c r="ZT32" s="19"/>
+      <c r="ZU32" s="19"/>
+      <c r="ZV32" s="19"/>
+      <c r="ZW32" s="19"/>
+      <c r="ZX32" s="19"/>
+      <c r="ZY32" s="19"/>
+      <c r="ZZ32" s="19"/>
+      <c r="AAA32" s="19"/>
+      <c r="AAB32" s="19"/>
+      <c r="AAC32" s="19"/>
+      <c r="AAD32" s="19"/>
+      <c r="AAE32" s="19"/>
+      <c r="AAF32" s="19"/>
+      <c r="AAG32" s="19"/>
+      <c r="AAH32" s="19"/>
+      <c r="AAI32" s="19"/>
+      <c r="AAJ32" s="19"/>
+      <c r="AAK32" s="19"/>
+      <c r="AAL32" s="19"/>
+      <c r="AAM32" s="19"/>
+      <c r="AAN32" s="19"/>
+      <c r="AAO32" s="19"/>
+      <c r="AAP32" s="19"/>
+      <c r="AAQ32" s="19"/>
+      <c r="AAR32" s="19"/>
+      <c r="AAS32" s="19"/>
+      <c r="AAT32" s="19"/>
+      <c r="AAU32" s="19"/>
+      <c r="AAV32" s="19"/>
+      <c r="AAW32" s="19"/>
+      <c r="AAX32" s="19"/>
+      <c r="AAY32" s="19"/>
+      <c r="AAZ32" s="19"/>
+      <c r="ABA32" s="19"/>
+      <c r="ABB32" s="19"/>
+      <c r="ABC32" s="19"/>
+      <c r="ABD32" s="19"/>
+      <c r="ABE32" s="19"/>
+      <c r="ABF32" s="19"/>
+      <c r="ABG32" s="19"/>
+      <c r="ABH32" s="19"/>
+      <c r="ABI32" s="19"/>
+      <c r="ABJ32" s="19"/>
+      <c r="ABK32" s="19"/>
+      <c r="ABL32" s="19"/>
+      <c r="ABM32" s="19"/>
+      <c r="ABN32" s="19"/>
+      <c r="ABO32" s="19"/>
+      <c r="ABP32" s="19"/>
+      <c r="ABQ32" s="19"/>
+      <c r="ABR32" s="19"/>
+      <c r="ABS32" s="19"/>
+      <c r="ABT32" s="19"/>
+      <c r="ABU32" s="19"/>
+      <c r="ABV32" s="19"/>
+      <c r="ABW32" s="19"/>
+      <c r="ABX32" s="19"/>
+      <c r="ABY32" s="19"/>
+      <c r="ABZ32" s="19"/>
+      <c r="ACA32" s="19"/>
+      <c r="ACB32" s="19"/>
+      <c r="ACC32" s="19"/>
+      <c r="ACD32" s="19"/>
+      <c r="ACE32" s="19"/>
+      <c r="ACF32" s="19"/>
+      <c r="ACG32" s="19"/>
+      <c r="ACH32" s="19"/>
+      <c r="ACI32" s="19"/>
+      <c r="ACJ32" s="19"/>
+      <c r="ACK32" s="19"/>
+      <c r="ACL32" s="19"/>
+      <c r="ACM32" s="19"/>
+      <c r="ACN32" s="19"/>
+      <c r="ACO32" s="19"/>
+      <c r="ACP32" s="19"/>
+      <c r="ACQ32" s="19"/>
+      <c r="ACR32" s="19"/>
+      <c r="ACS32" s="19"/>
+      <c r="ACT32" s="19"/>
+      <c r="ACU32" s="19"/>
+      <c r="ACV32" s="19"/>
+      <c r="ACW32" s="19"/>
+      <c r="ACX32" s="19"/>
+      <c r="ACY32" s="19"/>
+      <c r="ACZ32" s="19"/>
+      <c r="ADA32" s="19"/>
+      <c r="ADB32" s="19"/>
+      <c r="ADC32" s="19"/>
+      <c r="ADD32" s="19"/>
+      <c r="ADE32" s="19"/>
+      <c r="ADF32" s="19"/>
+      <c r="ADG32" s="19"/>
+      <c r="ADH32" s="19"/>
+      <c r="ADI32" s="19"/>
+      <c r="ADJ32" s="19"/>
+      <c r="ADK32" s="19"/>
+      <c r="ADL32" s="19"/>
+      <c r="ADM32" s="19"/>
+      <c r="ADN32" s="19"/>
+      <c r="ADO32" s="19"/>
+      <c r="ADP32" s="19"/>
+      <c r="ADQ32" s="19"/>
+      <c r="ADR32" s="19"/>
+      <c r="ADS32" s="19"/>
+      <c r="ADT32" s="19"/>
+      <c r="ADU32" s="19"/>
+      <c r="ADV32" s="19"/>
+      <c r="ADW32" s="19"/>
+      <c r="ADX32" s="19"/>
+      <c r="ADY32" s="19"/>
+      <c r="ADZ32" s="19"/>
+      <c r="AEA32" s="19"/>
+      <c r="AEB32" s="19"/>
+      <c r="AEC32" s="19"/>
+      <c r="AED32" s="19"/>
+      <c r="AEE32" s="19"/>
+      <c r="AEF32" s="19"/>
+      <c r="AEG32" s="19"/>
+      <c r="AEH32" s="19"/>
+      <c r="AEI32" s="19"/>
+      <c r="AEJ32" s="19"/>
+      <c r="AEK32" s="19"/>
+      <c r="AEL32" s="19"/>
+      <c r="AEM32" s="19"/>
+      <c r="AEN32" s="19"/>
+      <c r="AEO32" s="19"/>
+      <c r="AEP32" s="19"/>
+      <c r="AEQ32" s="19"/>
+      <c r="AER32" s="19"/>
+      <c r="AES32" s="19"/>
+      <c r="AET32" s="19"/>
+      <c r="AEU32" s="19"/>
+      <c r="AEV32" s="19"/>
+      <c r="AEW32" s="19"/>
+      <c r="AEX32" s="19"/>
+      <c r="AEY32" s="19"/>
+      <c r="AEZ32" s="19"/>
+      <c r="AFA32" s="19"/>
+      <c r="AFB32" s="19"/>
+      <c r="AFC32" s="19"/>
+      <c r="AFD32" s="19"/>
+      <c r="AFE32" s="19"/>
+      <c r="AFF32" s="19"/>
+      <c r="AFG32" s="19"/>
+      <c r="AFH32" s="19"/>
+      <c r="AFI32" s="19"/>
+      <c r="AFJ32" s="19"/>
+      <c r="AFK32" s="19"/>
+      <c r="AFL32" s="19"/>
+      <c r="AFM32" s="19"/>
+      <c r="AFN32" s="19"/>
+      <c r="AFO32" s="19"/>
+      <c r="AFP32" s="19"/>
+      <c r="AFQ32" s="19"/>
+      <c r="AFR32" s="19"/>
+      <c r="AFS32" s="19"/>
+      <c r="AFT32" s="19"/>
+      <c r="AFU32" s="19"/>
+      <c r="AFV32" s="19"/>
+      <c r="AFW32" s="19"/>
+      <c r="AFX32" s="19"/>
+      <c r="AFY32" s="19"/>
+      <c r="AFZ32" s="19"/>
+      <c r="AGA32" s="19"/>
+      <c r="AGB32" s="19"/>
+      <c r="AGC32" s="19"/>
+      <c r="AGD32" s="19"/>
+      <c r="AGE32" s="19"/>
+      <c r="AGF32" s="19"/>
+      <c r="AGG32" s="19"/>
+      <c r="AGH32" s="19"/>
+      <c r="AGI32" s="19"/>
+      <c r="AGJ32" s="19"/>
+      <c r="AGK32" s="19"/>
+      <c r="AGL32" s="19"/>
+      <c r="AGM32" s="19"/>
+      <c r="AGN32" s="19"/>
+      <c r="AGO32" s="19"/>
+      <c r="AGP32" s="19"/>
+      <c r="AGQ32" s="19"/>
+      <c r="AGR32" s="19"/>
+      <c r="AGS32" s="19"/>
+      <c r="AGT32" s="19"/>
+      <c r="AGU32" s="19"/>
+      <c r="AGV32" s="19"/>
+      <c r="AGW32" s="19"/>
+      <c r="AGX32" s="19"/>
+      <c r="AGY32" s="19"/>
+      <c r="AGZ32" s="19"/>
+      <c r="AHA32" s="19"/>
+      <c r="AHB32" s="19"/>
+      <c r="AHC32" s="19"/>
+      <c r="AHD32" s="19"/>
+      <c r="AHE32" s="19"/>
+      <c r="AHF32" s="19"/>
+      <c r="AHG32" s="19"/>
+      <c r="AHH32" s="19"/>
+      <c r="AHI32" s="19"/>
+      <c r="AHJ32" s="19"/>
+      <c r="AHK32" s="19"/>
+      <c r="AHL32" s="19"/>
+      <c r="AHM32" s="19"/>
+      <c r="AHN32" s="19"/>
+      <c r="AHO32" s="19"/>
+      <c r="AHP32" s="19"/>
+      <c r="AHQ32" s="19"/>
+      <c r="AHR32" s="19"/>
+      <c r="AHS32" s="19"/>
+      <c r="AHT32" s="19"/>
+      <c r="AHU32" s="19"/>
+      <c r="AHV32" s="19"/>
+      <c r="AHW32" s="19"/>
+      <c r="AHX32" s="19"/>
+      <c r="AHY32" s="19"/>
+      <c r="AHZ32" s="19"/>
+      <c r="AIA32" s="19"/>
+      <c r="AIB32" s="19"/>
+      <c r="AIC32" s="19"/>
+      <c r="AID32" s="19"/>
+      <c r="AIE32" s="19"/>
+      <c r="AIF32" s="19"/>
+      <c r="AIG32" s="19"/>
+      <c r="AIH32" s="19"/>
+      <c r="AII32" s="19"/>
+      <c r="AIJ32" s="19"/>
+      <c r="AIK32" s="19"/>
+      <c r="AIL32" s="19"/>
+      <c r="AIM32" s="19"/>
+      <c r="AIN32" s="19"/>
+      <c r="AIO32" s="19"/>
+      <c r="AIP32" s="19"/>
+      <c r="AIQ32" s="19"/>
+      <c r="AIR32" s="19"/>
+      <c r="AIS32" s="19"/>
+      <c r="AIT32" s="19"/>
+      <c r="AIU32" s="19"/>
+      <c r="AIV32" s="19"/>
+      <c r="AIW32" s="19"/>
+      <c r="AIX32" s="19"/>
+      <c r="AIY32" s="19"/>
+      <c r="AIZ32" s="19"/>
+      <c r="AJA32" s="19"/>
+      <c r="AJB32" s="19"/>
+      <c r="AJC32" s="19"/>
+      <c r="AJD32" s="19"/>
+      <c r="AJE32" s="19"/>
+      <c r="AJF32" s="19"/>
+      <c r="AJG32" s="19"/>
+      <c r="AJH32" s="19"/>
+      <c r="AJI32" s="19"/>
+      <c r="AJJ32" s="19"/>
+      <c r="AJK32" s="19"/>
+      <c r="AJL32" s="19"/>
+      <c r="AJM32" s="19"/>
+      <c r="AJN32" s="19"/>
+      <c r="AJO32" s="19"/>
+      <c r="AJP32" s="19"/>
+      <c r="AJQ32" s="19"/>
+      <c r="AJR32" s="19"/>
+      <c r="AJS32" s="19"/>
+      <c r="AJT32" s="19"/>
+      <c r="AJU32" s="19"/>
+      <c r="AJV32" s="19"/>
+      <c r="AJW32" s="19"/>
+      <c r="AJX32" s="19"/>
+      <c r="AJY32" s="19"/>
+      <c r="AJZ32" s="19"/>
+      <c r="AKA32" s="19"/>
+      <c r="AKB32" s="19"/>
+      <c r="AKC32" s="19"/>
+      <c r="AKD32" s="19"/>
+      <c r="AKE32" s="19"/>
+      <c r="AKF32" s="19"/>
+      <c r="AKG32" s="19"/>
+      <c r="AKH32" s="19"/>
+      <c r="AKI32" s="19"/>
+      <c r="AKJ32" s="19"/>
+      <c r="AKK32" s="19"/>
+      <c r="AKL32" s="19"/>
+      <c r="AKM32" s="19"/>
+      <c r="AKN32" s="19"/>
+      <c r="AKO32" s="19"/>
+      <c r="AKP32" s="19"/>
+      <c r="AKQ32" s="19"/>
+      <c r="AKR32" s="19"/>
+      <c r="AKS32" s="19"/>
+      <c r="AKT32" s="19"/>
+      <c r="AKU32" s="19"/>
+      <c r="AKV32" s="19"/>
+      <c r="AKW32" s="19"/>
+      <c r="AKX32" s="19"/>
+      <c r="AKY32" s="19"/>
+      <c r="AKZ32" s="19"/>
+      <c r="ALA32" s="19"/>
+      <c r="ALB32" s="19"/>
+      <c r="ALC32" s="19"/>
+      <c r="ALD32" s="19"/>
+      <c r="ALE32" s="19"/>
+      <c r="ALF32" s="19"/>
+      <c r="ALG32" s="19"/>
+      <c r="ALH32" s="19"/>
+      <c r="ALI32" s="19"/>
+      <c r="ALJ32" s="19"/>
+      <c r="ALK32" s="19"/>
+      <c r="ALL32" s="19"/>
+      <c r="ALM32" s="19"/>
+      <c r="ALN32" s="19"/>
+      <c r="ALO32" s="19"/>
+      <c r="ALP32" s="19"/>
+      <c r="ALQ32" s="19"/>
+      <c r="ALR32" s="19"/>
+      <c r="ALS32" s="19"/>
+      <c r="ALT32" s="19"/>
+      <c r="ALU32" s="19"/>
+      <c r="ALV32" s="19"/>
+      <c r="ALW32" s="19"/>
+      <c r="ALX32" s="19"/>
+      <c r="ALY32" s="19"/>
+      <c r="ALZ32" s="19"/>
+      <c r="AMA32" s="19"/>
+      <c r="AMB32" s="19"/>
+      <c r="AMC32" s="19"/>
+      <c r="AMD32" s="19"/>
+      <c r="AME32" s="19"/>
+      <c r="AMF32" s="19"/>
+      <c r="AMG32" s="19"/>
+      <c r="AMH32" s="19"/>
+      <c r="AMI32" s="19"/>
+      <c r="AMJ32" s="19"/>
+      <c r="AMK32" s="19"/>
+      <c r="AML32" s="19"/>
+      <c r="AMM32" s="19"/>
+      <c r="AMN32" s="19"/>
+      <c r="AMO32" s="19"/>
+      <c r="AMP32" s="19"/>
+      <c r="AMQ32" s="19"/>
+      <c r="AMR32" s="19"/>
+    </row>
+    <row r="33" spans="2:77" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -15928,7 +14987,7 @@
       <c r="BX33" s="3"/>
       <c r="BY33" s="3"/>
     </row>
-    <row r="34" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -15982,7 +15041,7 @@
       <c r="BX34" s="3"/>
       <c r="BY34" s="3"/>
     </row>
-    <row r="35" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -16036,7 +15095,7 @@
       <c r="BX35" s="3"/>
       <c r="BY35" s="3"/>
     </row>
-    <row r="36" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -16090,7 +15149,7 @@
       <c r="BX36" s="3"/>
       <c r="BY36" s="3"/>
     </row>
-    <row r="37" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -16144,7 +15203,7 @@
       <c r="BX37" s="3"/>
       <c r="BY37" s="3"/>
     </row>
-    <row r="38" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -16198,7 +15257,7 @@
       <c r="BX38" s="3"/>
       <c r="BY38" s="3"/>
     </row>
-    <row r="39" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
@@ -16252,7 +15311,7 @@
       <c r="BX39" s="3"/>
       <c r="BY39" s="3"/>
     </row>
-    <row r="40" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -16306,7 +15365,7 @@
       <c r="BX40" s="3"/>
       <c r="BY40" s="3"/>
     </row>
-    <row r="41" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -16360,7 +15419,7 @@
       <c r="BX41" s="3"/>
       <c r="BY41" s="3"/>
     </row>
-    <row r="42" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
@@ -16414,7 +15473,7 @@
       <c r="BX42" s="3"/>
       <c r="BY42" s="3"/>
     </row>
-    <row r="43" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -16468,7 +15527,7 @@
       <c r="BX43" s="3"/>
       <c r="BY43" s="3"/>
     </row>
-    <row r="44" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -16522,7 +15581,7 @@
       <c r="BX44" s="3"/>
       <c r="BY44" s="3"/>
     </row>
-    <row r="45" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -16576,7 +15635,7 @@
       <c r="BX45" s="3"/>
       <c r="BY45" s="3"/>
     </row>
-    <row r="46" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -16630,7 +15689,7 @@
       <c r="BX46" s="3"/>
       <c r="BY46" s="3"/>
     </row>
-    <row r="47" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
@@ -16684,7 +15743,7 @@
       <c r="BX47" s="3"/>
       <c r="BY47" s="3"/>
     </row>
-    <row r="48" spans="26:77" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:77" x14ac:dyDescent="0.3">
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -44440,17 +43499,71 @@
       <c r="BX561" s="3"/>
       <c r="BY561" s="3"/>
     </row>
+    <row r="562" spans="26:77" x14ac:dyDescent="0.3">
+      <c r="Z562" s="3"/>
+      <c r="AA562" s="3"/>
+      <c r="AB562" s="3"/>
+      <c r="AC562" s="3"/>
+      <c r="AD562" s="3"/>
+      <c r="AE562" s="3"/>
+      <c r="AF562" s="3"/>
+      <c r="AG562" s="3"/>
+      <c r="AH562" s="3"/>
+      <c r="AI562" s="3"/>
+      <c r="AJ562" s="3"/>
+      <c r="AK562" s="3"/>
+      <c r="AL562" s="3"/>
+      <c r="AM562" s="3"/>
+      <c r="AN562" s="3"/>
+      <c r="AO562" s="3"/>
+      <c r="AP562" s="3"/>
+      <c r="AQ562" s="3"/>
+      <c r="AR562" s="3"/>
+      <c r="AS562" s="3"/>
+      <c r="AT562" s="3"/>
+      <c r="AU562" s="3"/>
+      <c r="AV562" s="3"/>
+      <c r="AW562" s="3"/>
+      <c r="AX562" s="3"/>
+      <c r="AY562" s="3"/>
+      <c r="AZ562" s="3"/>
+      <c r="BA562" s="3"/>
+      <c r="BB562" s="3"/>
+      <c r="BC562" s="3"/>
+      <c r="BD562" s="3"/>
+      <c r="BE562" s="3"/>
+      <c r="BF562" s="3"/>
+      <c r="BG562" s="3"/>
+      <c r="BH562" s="3"/>
+      <c r="BI562" s="3"/>
+      <c r="BJ562" s="3"/>
+      <c r="BK562" s="3"/>
+      <c r="BL562" s="3"/>
+      <c r="BM562" s="3"/>
+      <c r="BN562" s="3"/>
+      <c r="BO562" s="3"/>
+      <c r="BP562" s="3"/>
+      <c r="BQ562" s="3"/>
+      <c r="BR562" s="3"/>
+      <c r="BS562" s="3"/>
+      <c r="BT562" s="3"/>
+      <c r="BU562" s="3"/>
+      <c r="BV562" s="3"/>
+      <c r="BW562" s="3"/>
+      <c r="BX562" s="3"/>
+      <c r="BY562" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F17:I17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A28" r:id="rId1"/>
+    <hyperlink ref="A29" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -44468,38 +43581,38 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="62"/>
+    <col min="1" max="1" width="15.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>5</v>
+      <c r="A2" s="59" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>22</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/cli/authority_stats.xlsx
+++ b/scripts/cli/authority_stats.xlsx
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>xxx Freegle</t>
   </si>
   <si>
     <t>CO2 saved (tonnes)</t>
@@ -588,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -698,19 +695,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -749,7 +733,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -811,9 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,8 +835,6 @@
     <xf numFmtId="167" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -877,6 +856,7 @@
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,7 +878,6 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -1287,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMR562"/>
+  <dimension ref="A1:AMR563"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1304,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:1032" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1708,12 +1687,12 @@
     </row>
     <row r="7" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -5850,12 +5829,12 @@
     </row>
     <row r="11" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="52"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -6888,10 +6867,10 @@
       <c r="A12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -7922,12 +7901,12 @@
     </row>
     <row r="13" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:1032" x14ac:dyDescent="0.3">
@@ -9054,40 +9033,40 @@
     </row>
     <row r="17" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="74" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="69" t="s">
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="69" t="s">
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="66"/>
+    </row>
+    <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A18" s="63" t="s">
         <v>12</v>
-      </c>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="70"/>
-    </row>
-    <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
-        <v>13</v>
       </c>
       <c r="B18" s="31">
         <v>43466</v>
@@ -9150,10 +9129,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>10</v>
-      </c>
+    <row r="19" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -9162,41 +9139,97 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
+      <c r="BU19" s="15"/>
+      <c r="BV19" s="15"/>
+      <c r="BW19" s="15"/>
+      <c r="BX19" s="15"/>
+      <c r="BY19" s="15"/>
     </row>
     <row r="20" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="39"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
@@ -9246,40 +9279,44 @@
       <c r="BX20" s="15"/>
       <c r="BY20" s="15"/>
     </row>
-    <row r="21" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="18"/>
+    <row r="21" spans="1:1032" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
+      <c r="AB21" s="19"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
+      <c r="AG21" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="15"/>
@@ -9325,17 +9362,15 @@
       <c r="BX21" s="15"/>
       <c r="BY21" s="15"/>
     </row>
-    <row r="22" spans="1:1032" s="42" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+    <row r="22" spans="1:1032" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -9360,9 +9395,7 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="15"/>
@@ -9408,12 +9441,14 @@
       <c r="BX22" s="15"/>
       <c r="BY22" s="15"/>
     </row>
-    <row r="23" spans="1:1032" s="42" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+    <row r="23" spans="1:1032" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -9487,14 +9522,20 @@
       <c r="BX23" s="15"/>
       <c r="BY23" s="15"/>
     </row>
-    <row r="24" spans="1:1032" s="42" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
-        <v>8</v>
+    <row r="24" spans="1:1032" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A24" s="64"/>
+      <c r="B24" s="62">
+        <v>43466</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="57">
+        <v>43497</v>
+      </c>
+      <c r="D24" s="57">
+        <v>43525</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -9515,13 +9556,13 @@
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
       <c r="Y24" s="19"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
       <c r="AB24" s="19"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
       <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
@@ -9568,47 +9609,12 @@
       <c r="BX24" s="15"/>
       <c r="BY24" s="15"/>
     </row>
-    <row r="25" spans="1:1032" s="43" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
-      <c r="B25" s="67">
-        <v>43466</v>
-      </c>
-      <c r="C25" s="62">
-        <v>43497</v>
-      </c>
-      <c r="D25" s="62">
-        <v>43525</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
+    <row r="25" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
@@ -9656,11 +9662,11 @@
       <c r="BY25" s="15"/>
     </row>
     <row r="26" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
@@ -9708,10 +9714,11 @@
       <c r="BY26" s="15"/>
     </row>
     <row r="27" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
       <c r="AI27" s="15"/>
@@ -9758,41 +9765,11 @@
       <c r="BX27" s="15"/>
       <c r="BY27" s="15"/>
     </row>
-    <row r="28" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
+    <row r="28" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
@@ -9838,993 +9815,38 @@
       <c r="BW28" s="15"/>
       <c r="BX28" s="15"/>
       <c r="BY28" s="15"/>
-      <c r="BZ28" s="19"/>
-      <c r="CA28" s="19"/>
-      <c r="CB28" s="19"/>
-      <c r="CC28" s="19"/>
-      <c r="CD28" s="19"/>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="19"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="19"/>
-      <c r="CI28" s="19"/>
-      <c r="CJ28" s="19"/>
-      <c r="CK28" s="19"/>
-      <c r="CL28" s="19"/>
-      <c r="CM28" s="19"/>
-      <c r="CN28" s="19"/>
-      <c r="CO28" s="19"/>
-      <c r="CP28" s="19"/>
-      <c r="CQ28" s="19"/>
-      <c r="CR28" s="19"/>
-      <c r="CS28" s="19"/>
-      <c r="CT28" s="19"/>
-      <c r="CU28" s="19"/>
-      <c r="CV28" s="19"/>
-      <c r="CW28" s="19"/>
-      <c r="CX28" s="19"/>
-      <c r="CY28" s="19"/>
-      <c r="CZ28" s="19"/>
-      <c r="DA28" s="19"/>
-      <c r="DB28" s="19"/>
-      <c r="DC28" s="19"/>
-      <c r="DD28" s="19"/>
-      <c r="DE28" s="19"/>
-      <c r="DF28" s="19"/>
-      <c r="DG28" s="19"/>
-      <c r="DH28" s="19"/>
-      <c r="DI28" s="19"/>
-      <c r="DJ28" s="19"/>
-      <c r="DK28" s="19"/>
-      <c r="DL28" s="19"/>
-      <c r="DM28" s="19"/>
-      <c r="DN28" s="19"/>
-      <c r="DO28" s="19"/>
-      <c r="DP28" s="19"/>
-      <c r="DQ28" s="19"/>
-      <c r="DR28" s="19"/>
-      <c r="DS28" s="19"/>
-      <c r="DT28" s="19"/>
-      <c r="DU28" s="19"/>
-      <c r="DV28" s="19"/>
-      <c r="DW28" s="19"/>
-      <c r="DX28" s="19"/>
-      <c r="DY28" s="19"/>
-      <c r="DZ28" s="19"/>
-      <c r="EA28" s="19"/>
-      <c r="EB28" s="19"/>
-      <c r="EC28" s="19"/>
-      <c r="ED28" s="19"/>
-      <c r="EE28" s="19"/>
-      <c r="EF28" s="19"/>
-      <c r="EG28" s="19"/>
-      <c r="EH28" s="19"/>
-      <c r="EI28" s="19"/>
-      <c r="EJ28" s="19"/>
-      <c r="EK28" s="19"/>
-      <c r="EL28" s="19"/>
-      <c r="EM28" s="19"/>
-      <c r="EN28" s="19"/>
-      <c r="EO28" s="19"/>
-      <c r="EP28" s="19"/>
-      <c r="EQ28" s="19"/>
-      <c r="ER28" s="19"/>
-      <c r="ES28" s="19"/>
-      <c r="ET28" s="19"/>
-      <c r="EU28" s="19"/>
-      <c r="EV28" s="19"/>
-      <c r="EW28" s="19"/>
-      <c r="EX28" s="19"/>
-      <c r="EY28" s="19"/>
-      <c r="EZ28" s="19"/>
-      <c r="FA28" s="19"/>
-      <c r="FB28" s="19"/>
-      <c r="FC28" s="19"/>
-      <c r="FD28" s="19"/>
-      <c r="FE28" s="19"/>
-      <c r="FF28" s="19"/>
-      <c r="FG28" s="19"/>
-      <c r="FH28" s="19"/>
-      <c r="FI28" s="19"/>
-      <c r="FJ28" s="19"/>
-      <c r="FK28" s="19"/>
-      <c r="FL28" s="19"/>
-      <c r="FM28" s="19"/>
-      <c r="FN28" s="19"/>
-      <c r="FO28" s="19"/>
-      <c r="FP28" s="19"/>
-      <c r="FQ28" s="19"/>
-      <c r="FR28" s="19"/>
-      <c r="FS28" s="19"/>
-      <c r="FT28" s="19"/>
-      <c r="FU28" s="19"/>
-      <c r="FV28" s="19"/>
-      <c r="FW28" s="19"/>
-      <c r="FX28" s="19"/>
-      <c r="FY28" s="19"/>
-      <c r="FZ28" s="19"/>
-      <c r="GA28" s="19"/>
-      <c r="GB28" s="19"/>
-      <c r="GC28" s="19"/>
-      <c r="GD28" s="19"/>
-      <c r="GE28" s="19"/>
-      <c r="GF28" s="19"/>
-      <c r="GG28" s="19"/>
-      <c r="GH28" s="19"/>
-      <c r="GI28" s="19"/>
-      <c r="GJ28" s="19"/>
-      <c r="GK28" s="19"/>
-      <c r="GL28" s="19"/>
-      <c r="GM28" s="19"/>
-      <c r="GN28" s="19"/>
-      <c r="GO28" s="19"/>
-      <c r="GP28" s="19"/>
-      <c r="GQ28" s="19"/>
-      <c r="GR28" s="19"/>
-      <c r="GS28" s="19"/>
-      <c r="GT28" s="19"/>
-      <c r="GU28" s="19"/>
-      <c r="GV28" s="19"/>
-      <c r="GW28" s="19"/>
-      <c r="GX28" s="19"/>
-      <c r="GY28" s="19"/>
-      <c r="GZ28" s="19"/>
-      <c r="HA28" s="19"/>
-      <c r="HB28" s="19"/>
-      <c r="HC28" s="19"/>
-      <c r="HD28" s="19"/>
-      <c r="HE28" s="19"/>
-      <c r="HF28" s="19"/>
-      <c r="HG28" s="19"/>
-      <c r="HH28" s="19"/>
-      <c r="HI28" s="19"/>
-      <c r="HJ28" s="19"/>
-      <c r="HK28" s="19"/>
-      <c r="HL28" s="19"/>
-      <c r="HM28" s="19"/>
-      <c r="HN28" s="19"/>
-      <c r="HO28" s="19"/>
-      <c r="HP28" s="19"/>
-      <c r="HQ28" s="19"/>
-      <c r="HR28" s="19"/>
-      <c r="HS28" s="19"/>
-      <c r="HT28" s="19"/>
-      <c r="HU28" s="19"/>
-      <c r="HV28" s="19"/>
-      <c r="HW28" s="19"/>
-      <c r="HX28" s="19"/>
-      <c r="HY28" s="19"/>
-      <c r="HZ28" s="19"/>
-      <c r="IA28" s="19"/>
-      <c r="IB28" s="19"/>
-      <c r="IC28" s="19"/>
-      <c r="ID28" s="19"/>
-      <c r="IE28" s="19"/>
-      <c r="IF28" s="19"/>
-      <c r="IG28" s="19"/>
-      <c r="IH28" s="19"/>
-      <c r="II28" s="19"/>
-      <c r="IJ28" s="19"/>
-      <c r="IK28" s="19"/>
-      <c r="IL28" s="19"/>
-      <c r="IM28" s="19"/>
-      <c r="IN28" s="19"/>
-      <c r="IO28" s="19"/>
-      <c r="IP28" s="19"/>
-      <c r="IQ28" s="19"/>
-      <c r="IR28" s="19"/>
-      <c r="IS28" s="19"/>
-      <c r="IT28" s="19"/>
-      <c r="IU28" s="19"/>
-      <c r="IV28" s="19"/>
-      <c r="IW28" s="19"/>
-      <c r="IX28" s="19"/>
-      <c r="IY28" s="19"/>
-      <c r="IZ28" s="19"/>
-      <c r="JA28" s="19"/>
-      <c r="JB28" s="19"/>
-      <c r="JC28" s="19"/>
-      <c r="JD28" s="19"/>
-      <c r="JE28" s="19"/>
-      <c r="JF28" s="19"/>
-      <c r="JG28" s="19"/>
-      <c r="JH28" s="19"/>
-      <c r="JI28" s="19"/>
-      <c r="JJ28" s="19"/>
-      <c r="JK28" s="19"/>
-      <c r="JL28" s="19"/>
-      <c r="JM28" s="19"/>
-      <c r="JN28" s="19"/>
-      <c r="JO28" s="19"/>
-      <c r="JP28" s="19"/>
-      <c r="JQ28" s="19"/>
-      <c r="JR28" s="19"/>
-      <c r="JS28" s="19"/>
-      <c r="JT28" s="19"/>
-      <c r="JU28" s="19"/>
-      <c r="JV28" s="19"/>
-      <c r="JW28" s="19"/>
-      <c r="JX28" s="19"/>
-      <c r="JY28" s="19"/>
-      <c r="JZ28" s="19"/>
-      <c r="KA28" s="19"/>
-      <c r="KB28" s="19"/>
-      <c r="KC28" s="19"/>
-      <c r="KD28" s="19"/>
-      <c r="KE28" s="19"/>
-      <c r="KF28" s="19"/>
-      <c r="KG28" s="19"/>
-      <c r="KH28" s="19"/>
-      <c r="KI28" s="19"/>
-      <c r="KJ28" s="19"/>
-      <c r="KK28" s="19"/>
-      <c r="KL28" s="19"/>
-      <c r="KM28" s="19"/>
-      <c r="KN28" s="19"/>
-      <c r="KO28" s="19"/>
-      <c r="KP28" s="19"/>
-      <c r="KQ28" s="19"/>
-      <c r="KR28" s="19"/>
-      <c r="KS28" s="19"/>
-      <c r="KT28" s="19"/>
-      <c r="KU28" s="19"/>
-      <c r="KV28" s="19"/>
-      <c r="KW28" s="19"/>
-      <c r="KX28" s="19"/>
-      <c r="KY28" s="19"/>
-      <c r="KZ28" s="19"/>
-      <c r="LA28" s="19"/>
-      <c r="LB28" s="19"/>
-      <c r="LC28" s="19"/>
-      <c r="LD28" s="19"/>
-      <c r="LE28" s="19"/>
-      <c r="LF28" s="19"/>
-      <c r="LG28" s="19"/>
-      <c r="LH28" s="19"/>
-      <c r="LI28" s="19"/>
-      <c r="LJ28" s="19"/>
-      <c r="LK28" s="19"/>
-      <c r="LL28" s="19"/>
-      <c r="LM28" s="19"/>
-      <c r="LN28" s="19"/>
-      <c r="LO28" s="19"/>
-      <c r="LP28" s="19"/>
-      <c r="LQ28" s="19"/>
-      <c r="LR28" s="19"/>
-      <c r="LS28" s="19"/>
-      <c r="LT28" s="19"/>
-      <c r="LU28" s="19"/>
-      <c r="LV28" s="19"/>
-      <c r="LW28" s="19"/>
-      <c r="LX28" s="19"/>
-      <c r="LY28" s="19"/>
-      <c r="LZ28" s="19"/>
-      <c r="MA28" s="19"/>
-      <c r="MB28" s="19"/>
-      <c r="MC28" s="19"/>
-      <c r="MD28" s="19"/>
-      <c r="ME28" s="19"/>
-      <c r="MF28" s="19"/>
-      <c r="MG28" s="19"/>
-      <c r="MH28" s="19"/>
-      <c r="MI28" s="19"/>
-      <c r="MJ28" s="19"/>
-      <c r="MK28" s="19"/>
-      <c r="ML28" s="19"/>
-      <c r="MM28" s="19"/>
-      <c r="MN28" s="19"/>
-      <c r="MO28" s="19"/>
-      <c r="MP28" s="19"/>
-      <c r="MQ28" s="19"/>
-      <c r="MR28" s="19"/>
-      <c r="MS28" s="19"/>
-      <c r="MT28" s="19"/>
-      <c r="MU28" s="19"/>
-      <c r="MV28" s="19"/>
-      <c r="MW28" s="19"/>
-      <c r="MX28" s="19"/>
-      <c r="MY28" s="19"/>
-      <c r="MZ28" s="19"/>
-      <c r="NA28" s="19"/>
-      <c r="NB28" s="19"/>
-      <c r="NC28" s="19"/>
-      <c r="ND28" s="19"/>
-      <c r="NE28" s="19"/>
-      <c r="NF28" s="19"/>
-      <c r="NG28" s="19"/>
-      <c r="NH28" s="19"/>
-      <c r="NI28" s="19"/>
-      <c r="NJ28" s="19"/>
-      <c r="NK28" s="19"/>
-      <c r="NL28" s="19"/>
-      <c r="NM28" s="19"/>
-      <c r="NN28" s="19"/>
-      <c r="NO28" s="19"/>
-      <c r="NP28" s="19"/>
-      <c r="NQ28" s="19"/>
-      <c r="NR28" s="19"/>
-      <c r="NS28" s="19"/>
-      <c r="NT28" s="19"/>
-      <c r="NU28" s="19"/>
-      <c r="NV28" s="19"/>
-      <c r="NW28" s="19"/>
-      <c r="NX28" s="19"/>
-      <c r="NY28" s="19"/>
-      <c r="NZ28" s="19"/>
-      <c r="OA28" s="19"/>
-      <c r="OB28" s="19"/>
-      <c r="OC28" s="19"/>
-      <c r="OD28" s="19"/>
-      <c r="OE28" s="19"/>
-      <c r="OF28" s="19"/>
-      <c r="OG28" s="19"/>
-      <c r="OH28" s="19"/>
-      <c r="OI28" s="19"/>
-      <c r="OJ28" s="19"/>
-      <c r="OK28" s="19"/>
-      <c r="OL28" s="19"/>
-      <c r="OM28" s="19"/>
-      <c r="ON28" s="19"/>
-      <c r="OO28" s="19"/>
-      <c r="OP28" s="19"/>
-      <c r="OQ28" s="19"/>
-      <c r="OR28" s="19"/>
-      <c r="OS28" s="19"/>
-      <c r="OT28" s="19"/>
-      <c r="OU28" s="19"/>
-      <c r="OV28" s="19"/>
-      <c r="OW28" s="19"/>
-      <c r="OX28" s="19"/>
-      <c r="OY28" s="19"/>
-      <c r="OZ28" s="19"/>
-      <c r="PA28" s="19"/>
-      <c r="PB28" s="19"/>
-      <c r="PC28" s="19"/>
-      <c r="PD28" s="19"/>
-      <c r="PE28" s="19"/>
-      <c r="PF28" s="19"/>
-      <c r="PG28" s="19"/>
-      <c r="PH28" s="19"/>
-      <c r="PI28" s="19"/>
-      <c r="PJ28" s="19"/>
-      <c r="PK28" s="19"/>
-      <c r="PL28" s="19"/>
-      <c r="PM28" s="19"/>
-      <c r="PN28" s="19"/>
-      <c r="PO28" s="19"/>
-      <c r="PP28" s="19"/>
-      <c r="PQ28" s="19"/>
-      <c r="PR28" s="19"/>
-      <c r="PS28" s="19"/>
-      <c r="PT28" s="19"/>
-      <c r="PU28" s="19"/>
-      <c r="PV28" s="19"/>
-      <c r="PW28" s="19"/>
-      <c r="PX28" s="19"/>
-      <c r="PY28" s="19"/>
-      <c r="PZ28" s="19"/>
-      <c r="QA28" s="19"/>
-      <c r="QB28" s="19"/>
-      <c r="QC28" s="19"/>
-      <c r="QD28" s="19"/>
-      <c r="QE28" s="19"/>
-      <c r="QF28" s="19"/>
-      <c r="QG28" s="19"/>
-      <c r="QH28" s="19"/>
-      <c r="QI28" s="19"/>
-      <c r="QJ28" s="19"/>
-      <c r="QK28" s="19"/>
-      <c r="QL28" s="19"/>
-      <c r="QM28" s="19"/>
-      <c r="QN28" s="19"/>
-      <c r="QO28" s="19"/>
-      <c r="QP28" s="19"/>
-      <c r="QQ28" s="19"/>
-      <c r="QR28" s="19"/>
-      <c r="QS28" s="19"/>
-      <c r="QT28" s="19"/>
-      <c r="QU28" s="19"/>
-      <c r="QV28" s="19"/>
-      <c r="QW28" s="19"/>
-      <c r="QX28" s="19"/>
-      <c r="QY28" s="19"/>
-      <c r="QZ28" s="19"/>
-      <c r="RA28" s="19"/>
-      <c r="RB28" s="19"/>
-      <c r="RC28" s="19"/>
-      <c r="RD28" s="19"/>
-      <c r="RE28" s="19"/>
-      <c r="RF28" s="19"/>
-      <c r="RG28" s="19"/>
-      <c r="RH28" s="19"/>
-      <c r="RI28" s="19"/>
-      <c r="RJ28" s="19"/>
-      <c r="RK28" s="19"/>
-      <c r="RL28" s="19"/>
-      <c r="RM28" s="19"/>
-      <c r="RN28" s="19"/>
-      <c r="RO28" s="19"/>
-      <c r="RP28" s="19"/>
-      <c r="RQ28" s="19"/>
-      <c r="RR28" s="19"/>
-      <c r="RS28" s="19"/>
-      <c r="RT28" s="19"/>
-      <c r="RU28" s="19"/>
-      <c r="RV28" s="19"/>
-      <c r="RW28" s="19"/>
-      <c r="RX28" s="19"/>
-      <c r="RY28" s="19"/>
-      <c r="RZ28" s="19"/>
-      <c r="SA28" s="19"/>
-      <c r="SB28" s="19"/>
-      <c r="SC28" s="19"/>
-      <c r="SD28" s="19"/>
-      <c r="SE28" s="19"/>
-      <c r="SF28" s="19"/>
-      <c r="SG28" s="19"/>
-      <c r="SH28" s="19"/>
-      <c r="SI28" s="19"/>
-      <c r="SJ28" s="19"/>
-      <c r="SK28" s="19"/>
-      <c r="SL28" s="19"/>
-      <c r="SM28" s="19"/>
-      <c r="SN28" s="19"/>
-      <c r="SO28" s="19"/>
-      <c r="SP28" s="19"/>
-      <c r="SQ28" s="19"/>
-      <c r="SR28" s="19"/>
-      <c r="SS28" s="19"/>
-      <c r="ST28" s="19"/>
-      <c r="SU28" s="19"/>
-      <c r="SV28" s="19"/>
-      <c r="SW28" s="19"/>
-      <c r="SX28" s="19"/>
-      <c r="SY28" s="19"/>
-      <c r="SZ28" s="19"/>
-      <c r="TA28" s="19"/>
-      <c r="TB28" s="19"/>
-      <c r="TC28" s="19"/>
-      <c r="TD28" s="19"/>
-      <c r="TE28" s="19"/>
-      <c r="TF28" s="19"/>
-      <c r="TG28" s="19"/>
-      <c r="TH28" s="19"/>
-      <c r="TI28" s="19"/>
-      <c r="TJ28" s="19"/>
-      <c r="TK28" s="19"/>
-      <c r="TL28" s="19"/>
-      <c r="TM28" s="19"/>
-      <c r="TN28" s="19"/>
-      <c r="TO28" s="19"/>
-      <c r="TP28" s="19"/>
-      <c r="TQ28" s="19"/>
-      <c r="TR28" s="19"/>
-      <c r="TS28" s="19"/>
-      <c r="TT28" s="19"/>
-      <c r="TU28" s="19"/>
-      <c r="TV28" s="19"/>
-      <c r="TW28" s="19"/>
-      <c r="TX28" s="19"/>
-      <c r="TY28" s="19"/>
-      <c r="TZ28" s="19"/>
-      <c r="UA28" s="19"/>
-      <c r="UB28" s="19"/>
-      <c r="UC28" s="19"/>
-      <c r="UD28" s="19"/>
-      <c r="UE28" s="19"/>
-      <c r="UF28" s="19"/>
-      <c r="UG28" s="19"/>
-      <c r="UH28" s="19"/>
-      <c r="UI28" s="19"/>
-      <c r="UJ28" s="19"/>
-      <c r="UK28" s="19"/>
-      <c r="UL28" s="19"/>
-      <c r="UM28" s="19"/>
-      <c r="UN28" s="19"/>
-      <c r="UO28" s="19"/>
-      <c r="UP28" s="19"/>
-      <c r="UQ28" s="19"/>
-      <c r="UR28" s="19"/>
-      <c r="US28" s="19"/>
-      <c r="UT28" s="19"/>
-      <c r="UU28" s="19"/>
-      <c r="UV28" s="19"/>
-      <c r="UW28" s="19"/>
-      <c r="UX28" s="19"/>
-      <c r="UY28" s="19"/>
-      <c r="UZ28" s="19"/>
-      <c r="VA28" s="19"/>
-      <c r="VB28" s="19"/>
-      <c r="VC28" s="19"/>
-      <c r="VD28" s="19"/>
-      <c r="VE28" s="19"/>
-      <c r="VF28" s="19"/>
-      <c r="VG28" s="19"/>
-      <c r="VH28" s="19"/>
-      <c r="VI28" s="19"/>
-      <c r="VJ28" s="19"/>
-      <c r="VK28" s="19"/>
-      <c r="VL28" s="19"/>
-      <c r="VM28" s="19"/>
-      <c r="VN28" s="19"/>
-      <c r="VO28" s="19"/>
-      <c r="VP28" s="19"/>
-      <c r="VQ28" s="19"/>
-      <c r="VR28" s="19"/>
-      <c r="VS28" s="19"/>
-      <c r="VT28" s="19"/>
-      <c r="VU28" s="19"/>
-      <c r="VV28" s="19"/>
-      <c r="VW28" s="19"/>
-      <c r="VX28" s="19"/>
-      <c r="VY28" s="19"/>
-      <c r="VZ28" s="19"/>
-      <c r="WA28" s="19"/>
-      <c r="WB28" s="19"/>
-      <c r="WC28" s="19"/>
-      <c r="WD28" s="19"/>
-      <c r="WE28" s="19"/>
-      <c r="WF28" s="19"/>
-      <c r="WG28" s="19"/>
-      <c r="WH28" s="19"/>
-      <c r="WI28" s="19"/>
-      <c r="WJ28" s="19"/>
-      <c r="WK28" s="19"/>
-      <c r="WL28" s="19"/>
-      <c r="WM28" s="19"/>
-      <c r="WN28" s="19"/>
-      <c r="WO28" s="19"/>
-      <c r="WP28" s="19"/>
-      <c r="WQ28" s="19"/>
-      <c r="WR28" s="19"/>
-      <c r="WS28" s="19"/>
-      <c r="WT28" s="19"/>
-      <c r="WU28" s="19"/>
-      <c r="WV28" s="19"/>
-      <c r="WW28" s="19"/>
-      <c r="WX28" s="19"/>
-      <c r="WY28" s="19"/>
-      <c r="WZ28" s="19"/>
-      <c r="XA28" s="19"/>
-      <c r="XB28" s="19"/>
-      <c r="XC28" s="19"/>
-      <c r="XD28" s="19"/>
-      <c r="XE28" s="19"/>
-      <c r="XF28" s="19"/>
-      <c r="XG28" s="19"/>
-      <c r="XH28" s="19"/>
-      <c r="XI28" s="19"/>
-      <c r="XJ28" s="19"/>
-      <c r="XK28" s="19"/>
-      <c r="XL28" s="19"/>
-      <c r="XM28" s="19"/>
-      <c r="XN28" s="19"/>
-      <c r="XO28" s="19"/>
-      <c r="XP28" s="19"/>
-      <c r="XQ28" s="19"/>
-      <c r="XR28" s="19"/>
-      <c r="XS28" s="19"/>
-      <c r="XT28" s="19"/>
-      <c r="XU28" s="19"/>
-      <c r="XV28" s="19"/>
-      <c r="XW28" s="19"/>
-      <c r="XX28" s="19"/>
-      <c r="XY28" s="19"/>
-      <c r="XZ28" s="19"/>
-      <c r="YA28" s="19"/>
-      <c r="YB28" s="19"/>
-      <c r="YC28" s="19"/>
-      <c r="YD28" s="19"/>
-      <c r="YE28" s="19"/>
-      <c r="YF28" s="19"/>
-      <c r="YG28" s="19"/>
-      <c r="YH28" s="19"/>
-      <c r="YI28" s="19"/>
-      <c r="YJ28" s="19"/>
-      <c r="YK28" s="19"/>
-      <c r="YL28" s="19"/>
-      <c r="YM28" s="19"/>
-      <c r="YN28" s="19"/>
-      <c r="YO28" s="19"/>
-      <c r="YP28" s="19"/>
-      <c r="YQ28" s="19"/>
-      <c r="YR28" s="19"/>
-      <c r="YS28" s="19"/>
-      <c r="YT28" s="19"/>
-      <c r="YU28" s="19"/>
-      <c r="YV28" s="19"/>
-      <c r="YW28" s="19"/>
-      <c r="YX28" s="19"/>
-      <c r="YY28" s="19"/>
-      <c r="YZ28" s="19"/>
-      <c r="ZA28" s="19"/>
-      <c r="ZB28" s="19"/>
-      <c r="ZC28" s="19"/>
-      <c r="ZD28" s="19"/>
-      <c r="ZE28" s="19"/>
-      <c r="ZF28" s="19"/>
-      <c r="ZG28" s="19"/>
-      <c r="ZH28" s="19"/>
-      <c r="ZI28" s="19"/>
-      <c r="ZJ28" s="19"/>
-      <c r="ZK28" s="19"/>
-      <c r="ZL28" s="19"/>
-      <c r="ZM28" s="19"/>
-      <c r="ZN28" s="19"/>
-      <c r="ZO28" s="19"/>
-      <c r="ZP28" s="19"/>
-      <c r="ZQ28" s="19"/>
-      <c r="ZR28" s="19"/>
-      <c r="ZS28" s="19"/>
-      <c r="ZT28" s="19"/>
-      <c r="ZU28" s="19"/>
-      <c r="ZV28" s="19"/>
-      <c r="ZW28" s="19"/>
-      <c r="ZX28" s="19"/>
-      <c r="ZY28" s="19"/>
-      <c r="ZZ28" s="19"/>
-      <c r="AAA28" s="19"/>
-      <c r="AAB28" s="19"/>
-      <c r="AAC28" s="19"/>
-      <c r="AAD28" s="19"/>
-      <c r="AAE28" s="19"/>
-      <c r="AAF28" s="19"/>
-      <c r="AAG28" s="19"/>
-      <c r="AAH28" s="19"/>
-      <c r="AAI28" s="19"/>
-      <c r="AAJ28" s="19"/>
-      <c r="AAK28" s="19"/>
-      <c r="AAL28" s="19"/>
-      <c r="AAM28" s="19"/>
-      <c r="AAN28" s="19"/>
-      <c r="AAO28" s="19"/>
-      <c r="AAP28" s="19"/>
-      <c r="AAQ28" s="19"/>
-      <c r="AAR28" s="19"/>
-      <c r="AAS28" s="19"/>
-      <c r="AAT28" s="19"/>
-      <c r="AAU28" s="19"/>
-      <c r="AAV28" s="19"/>
-      <c r="AAW28" s="19"/>
-      <c r="AAX28" s="19"/>
-      <c r="AAY28" s="19"/>
-      <c r="AAZ28" s="19"/>
-      <c r="ABA28" s="19"/>
-      <c r="ABB28" s="19"/>
-      <c r="ABC28" s="19"/>
-      <c r="ABD28" s="19"/>
-      <c r="ABE28" s="19"/>
-      <c r="ABF28" s="19"/>
-      <c r="ABG28" s="19"/>
-      <c r="ABH28" s="19"/>
-      <c r="ABI28" s="19"/>
-      <c r="ABJ28" s="19"/>
-      <c r="ABK28" s="19"/>
-      <c r="ABL28" s="19"/>
-      <c r="ABM28" s="19"/>
-      <c r="ABN28" s="19"/>
-      <c r="ABO28" s="19"/>
-      <c r="ABP28" s="19"/>
-      <c r="ABQ28" s="19"/>
-      <c r="ABR28" s="19"/>
-      <c r="ABS28" s="19"/>
-      <c r="ABT28" s="19"/>
-      <c r="ABU28" s="19"/>
-      <c r="ABV28" s="19"/>
-      <c r="ABW28" s="19"/>
-      <c r="ABX28" s="19"/>
-      <c r="ABY28" s="19"/>
-      <c r="ABZ28" s="19"/>
-      <c r="ACA28" s="19"/>
-      <c r="ACB28" s="19"/>
-      <c r="ACC28" s="19"/>
-      <c r="ACD28" s="19"/>
-      <c r="ACE28" s="19"/>
-      <c r="ACF28" s="19"/>
-      <c r="ACG28" s="19"/>
-      <c r="ACH28" s="19"/>
-      <c r="ACI28" s="19"/>
-      <c r="ACJ28" s="19"/>
-      <c r="ACK28" s="19"/>
-      <c r="ACL28" s="19"/>
-      <c r="ACM28" s="19"/>
-      <c r="ACN28" s="19"/>
-      <c r="ACO28" s="19"/>
-      <c r="ACP28" s="19"/>
-      <c r="ACQ28" s="19"/>
-      <c r="ACR28" s="19"/>
-      <c r="ACS28" s="19"/>
-      <c r="ACT28" s="19"/>
-      <c r="ACU28" s="19"/>
-      <c r="ACV28" s="19"/>
-      <c r="ACW28" s="19"/>
-      <c r="ACX28" s="19"/>
-      <c r="ACY28" s="19"/>
-      <c r="ACZ28" s="19"/>
-      <c r="ADA28" s="19"/>
-      <c r="ADB28" s="19"/>
-      <c r="ADC28" s="19"/>
-      <c r="ADD28" s="19"/>
-      <c r="ADE28" s="19"/>
-      <c r="ADF28" s="19"/>
-      <c r="ADG28" s="19"/>
-      <c r="ADH28" s="19"/>
-      <c r="ADI28" s="19"/>
-      <c r="ADJ28" s="19"/>
-      <c r="ADK28" s="19"/>
-      <c r="ADL28" s="19"/>
-      <c r="ADM28" s="19"/>
-      <c r="ADN28" s="19"/>
-      <c r="ADO28" s="19"/>
-      <c r="ADP28" s="19"/>
-      <c r="ADQ28" s="19"/>
-      <c r="ADR28" s="19"/>
-      <c r="ADS28" s="19"/>
-      <c r="ADT28" s="19"/>
-      <c r="ADU28" s="19"/>
-      <c r="ADV28" s="19"/>
-      <c r="ADW28" s="19"/>
-      <c r="ADX28" s="19"/>
-      <c r="ADY28" s="19"/>
-      <c r="ADZ28" s="19"/>
-      <c r="AEA28" s="19"/>
-      <c r="AEB28" s="19"/>
-      <c r="AEC28" s="19"/>
-      <c r="AED28" s="19"/>
-      <c r="AEE28" s="19"/>
-      <c r="AEF28" s="19"/>
-      <c r="AEG28" s="19"/>
-      <c r="AEH28" s="19"/>
-      <c r="AEI28" s="19"/>
-      <c r="AEJ28" s="19"/>
-      <c r="AEK28" s="19"/>
-      <c r="AEL28" s="19"/>
-      <c r="AEM28" s="19"/>
-      <c r="AEN28" s="19"/>
-      <c r="AEO28" s="19"/>
-      <c r="AEP28" s="19"/>
-      <c r="AEQ28" s="19"/>
-      <c r="AER28" s="19"/>
-      <c r="AES28" s="19"/>
-      <c r="AET28" s="19"/>
-      <c r="AEU28" s="19"/>
-      <c r="AEV28" s="19"/>
-      <c r="AEW28" s="19"/>
-      <c r="AEX28" s="19"/>
-      <c r="AEY28" s="19"/>
-      <c r="AEZ28" s="19"/>
-      <c r="AFA28" s="19"/>
-      <c r="AFB28" s="19"/>
-      <c r="AFC28" s="19"/>
-      <c r="AFD28" s="19"/>
-      <c r="AFE28" s="19"/>
-      <c r="AFF28" s="19"/>
-      <c r="AFG28" s="19"/>
-      <c r="AFH28" s="19"/>
-      <c r="AFI28" s="19"/>
-      <c r="AFJ28" s="19"/>
-      <c r="AFK28" s="19"/>
-      <c r="AFL28" s="19"/>
-      <c r="AFM28" s="19"/>
-      <c r="AFN28" s="19"/>
-      <c r="AFO28" s="19"/>
-      <c r="AFP28" s="19"/>
-      <c r="AFQ28" s="19"/>
-      <c r="AFR28" s="19"/>
-      <c r="AFS28" s="19"/>
-      <c r="AFT28" s="19"/>
-      <c r="AFU28" s="19"/>
-      <c r="AFV28" s="19"/>
-      <c r="AFW28" s="19"/>
-      <c r="AFX28" s="19"/>
-      <c r="AFY28" s="19"/>
-      <c r="AFZ28" s="19"/>
-      <c r="AGA28" s="19"/>
-      <c r="AGB28" s="19"/>
-      <c r="AGC28" s="19"/>
-      <c r="AGD28" s="19"/>
-      <c r="AGE28" s="19"/>
-      <c r="AGF28" s="19"/>
-      <c r="AGG28" s="19"/>
-      <c r="AGH28" s="19"/>
-      <c r="AGI28" s="19"/>
-      <c r="AGJ28" s="19"/>
-      <c r="AGK28" s="19"/>
-      <c r="AGL28" s="19"/>
-      <c r="AGM28" s="19"/>
-      <c r="AGN28" s="19"/>
-      <c r="AGO28" s="19"/>
-      <c r="AGP28" s="19"/>
-      <c r="AGQ28" s="19"/>
-      <c r="AGR28" s="19"/>
-      <c r="AGS28" s="19"/>
-      <c r="AGT28" s="19"/>
-      <c r="AGU28" s="19"/>
-      <c r="AGV28" s="19"/>
-      <c r="AGW28" s="19"/>
-      <c r="AGX28" s="19"/>
-      <c r="AGY28" s="19"/>
-      <c r="AGZ28" s="19"/>
-      <c r="AHA28" s="19"/>
-      <c r="AHB28" s="19"/>
-      <c r="AHC28" s="19"/>
-      <c r="AHD28" s="19"/>
-      <c r="AHE28" s="19"/>
-      <c r="AHF28" s="19"/>
-      <c r="AHG28" s="19"/>
-      <c r="AHH28" s="19"/>
-      <c r="AHI28" s="19"/>
-      <c r="AHJ28" s="19"/>
-      <c r="AHK28" s="19"/>
-      <c r="AHL28" s="19"/>
-      <c r="AHM28" s="19"/>
-      <c r="AHN28" s="19"/>
-      <c r="AHO28" s="19"/>
-      <c r="AHP28" s="19"/>
-      <c r="AHQ28" s="19"/>
-      <c r="AHR28" s="19"/>
-      <c r="AHS28" s="19"/>
-      <c r="AHT28" s="19"/>
-      <c r="AHU28" s="19"/>
-      <c r="AHV28" s="19"/>
-      <c r="AHW28" s="19"/>
-      <c r="AHX28" s="19"/>
-      <c r="AHY28" s="19"/>
-      <c r="AHZ28" s="19"/>
-      <c r="AIA28" s="19"/>
-      <c r="AIB28" s="19"/>
-      <c r="AIC28" s="19"/>
-      <c r="AID28" s="19"/>
-      <c r="AIE28" s="19"/>
-      <c r="AIF28" s="19"/>
-      <c r="AIG28" s="19"/>
-      <c r="AIH28" s="19"/>
-      <c r="AII28" s="19"/>
-      <c r="AIJ28" s="19"/>
-      <c r="AIK28" s="19"/>
-      <c r="AIL28" s="19"/>
-      <c r="AIM28" s="19"/>
-      <c r="AIN28" s="19"/>
-      <c r="AIO28" s="19"/>
-      <c r="AIP28" s="19"/>
-      <c r="AIQ28" s="19"/>
-      <c r="AIR28" s="19"/>
-      <c r="AIS28" s="19"/>
-      <c r="AIT28" s="19"/>
-      <c r="AIU28" s="19"/>
-      <c r="AIV28" s="19"/>
-      <c r="AIW28" s="19"/>
-      <c r="AIX28" s="19"/>
-      <c r="AIY28" s="19"/>
-      <c r="AIZ28" s="19"/>
-      <c r="AJA28" s="19"/>
-      <c r="AJB28" s="19"/>
-      <c r="AJC28" s="19"/>
-      <c r="AJD28" s="19"/>
-      <c r="AJE28" s="19"/>
-      <c r="AJF28" s="19"/>
-      <c r="AJG28" s="19"/>
-      <c r="AJH28" s="19"/>
-      <c r="AJI28" s="19"/>
-      <c r="AJJ28" s="19"/>
-      <c r="AJK28" s="19"/>
-      <c r="AJL28" s="19"/>
-      <c r="AJM28" s="19"/>
-      <c r="AJN28" s="19"/>
-      <c r="AJO28" s="19"/>
-      <c r="AJP28" s="19"/>
-      <c r="AJQ28" s="19"/>
-      <c r="AJR28" s="19"/>
-      <c r="AJS28" s="19"/>
-      <c r="AJT28" s="19"/>
-      <c r="AJU28" s="19"/>
-      <c r="AJV28" s="19"/>
-      <c r="AJW28" s="19"/>
-      <c r="AJX28" s="19"/>
-      <c r="AJY28" s="19"/>
-      <c r="AJZ28" s="19"/>
-      <c r="AKA28" s="19"/>
-      <c r="AKB28" s="19"/>
-      <c r="AKC28" s="19"/>
-      <c r="AKD28" s="19"/>
-      <c r="AKE28" s="19"/>
-      <c r="AKF28" s="19"/>
-      <c r="AKG28" s="19"/>
-      <c r="AKH28" s="19"/>
-      <c r="AKI28" s="19"/>
-      <c r="AKJ28" s="19"/>
-      <c r="AKK28" s="19"/>
-      <c r="AKL28" s="19"/>
-      <c r="AKM28" s="19"/>
-      <c r="AKN28" s="19"/>
-      <c r="AKO28" s="19"/>
-      <c r="AKP28" s="19"/>
-      <c r="AKQ28" s="19"/>
-      <c r="AKR28" s="19"/>
-      <c r="AKS28" s="19"/>
-      <c r="AKT28" s="19"/>
-      <c r="AKU28" s="19"/>
-      <c r="AKV28" s="19"/>
-      <c r="AKW28" s="19"/>
-      <c r="AKX28" s="19"/>
-      <c r="AKY28" s="19"/>
-      <c r="AKZ28" s="19"/>
-      <c r="ALA28" s="19"/>
-      <c r="ALB28" s="19"/>
-      <c r="ALC28" s="19"/>
-      <c r="ALD28" s="19"/>
-      <c r="ALE28" s="19"/>
-      <c r="ALF28" s="19"/>
-      <c r="ALG28" s="19"/>
-      <c r="ALH28" s="19"/>
-      <c r="ALI28" s="19"/>
-      <c r="ALJ28" s="19"/>
-      <c r="ALK28" s="19"/>
-      <c r="ALL28" s="19"/>
-      <c r="ALM28" s="19"/>
-      <c r="ALN28" s="19"/>
-      <c r="ALO28" s="19"/>
-      <c r="ALP28" s="19"/>
-      <c r="ALQ28" s="19"/>
-      <c r="ALR28" s="19"/>
-      <c r="ALS28" s="19"/>
-      <c r="ALT28" s="19"/>
-      <c r="ALU28" s="19"/>
-      <c r="ALV28" s="19"/>
-      <c r="ALW28" s="19"/>
-      <c r="ALX28" s="19"/>
-      <c r="ALY28" s="19"/>
-      <c r="ALZ28" s="19"/>
-      <c r="AMA28" s="19"/>
-      <c r="AMB28" s="19"/>
-      <c r="AMC28" s="19"/>
-      <c r="AMD28" s="19"/>
-      <c r="AME28" s="19"/>
-      <c r="AMF28" s="19"/>
-      <c r="AMG28" s="19"/>
-      <c r="AMH28" s="19"/>
-      <c r="AMI28" s="19"/>
-      <c r="AMJ28" s="19"/>
-      <c r="AMK28" s="19"/>
-      <c r="AML28" s="19"/>
-      <c r="AMM28" s="19"/>
-      <c r="AMN28" s="19"/>
-      <c r="AMO28" s="19"/>
-      <c r="AMP28" s="19"/>
-      <c r="AMQ28" s="19"/>
-      <c r="AMR28" s="19"/>
     </row>
     <row r="29" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
-        <v>16</v>
+      <c r="A29" s="41" t="s">
+        <v>17</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="44"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
-      <c r="AB29" s="15"/>
+      <c r="AB29" s="19"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
@@ -11831,8 +10853,10 @@
       <c r="AMR29" s="19"/>
     </row>
     <row r="30" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="41"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -11852,17 +10876,17 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
       <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
@@ -12867,29 +11891,29 @@
     <row r="31" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="42"/>
       <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
+      <c r="Y31" s="41"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
@@ -13899,8 +12923,8 @@
       <c r="AMR31" s="19"/>
     </row>
     <row r="32" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -14932,62 +13956,1042 @@
       <c r="AMQ32" s="19"/>
       <c r="AMR32" s="19"/>
     </row>
-    <row r="33" spans="2:77" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
-      <c r="BK33" s="3"/>
-      <c r="BL33" s="3"/>
-      <c r="BM33" s="3"/>
-      <c r="BN33" s="3"/>
-      <c r="BO33" s="3"/>
-      <c r="BP33" s="3"/>
-      <c r="BQ33" s="3"/>
-      <c r="BR33" s="3"/>
-      <c r="BS33" s="3"/>
-      <c r="BT33" s="3"/>
-      <c r="BU33" s="3"/>
-      <c r="BV33" s="3"/>
-      <c r="BW33" s="3"/>
-      <c r="BX33" s="3"/>
-      <c r="BY33" s="3"/>
-    </row>
-    <row r="34" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="15"/>
+      <c r="BS33" s="15"/>
+      <c r="BT33" s="15"/>
+      <c r="BU33" s="15"/>
+      <c r="BV33" s="15"/>
+      <c r="BW33" s="15"/>
+      <c r="BX33" s="15"/>
+      <c r="BY33" s="15"/>
+      <c r="BZ33" s="19"/>
+      <c r="CA33" s="19"/>
+      <c r="CB33" s="19"/>
+      <c r="CC33" s="19"/>
+      <c r="CD33" s="19"/>
+      <c r="CE33" s="19"/>
+      <c r="CF33" s="19"/>
+      <c r="CG33" s="19"/>
+      <c r="CH33" s="19"/>
+      <c r="CI33" s="19"/>
+      <c r="CJ33" s="19"/>
+      <c r="CK33" s="19"/>
+      <c r="CL33" s="19"/>
+      <c r="CM33" s="19"/>
+      <c r="CN33" s="19"/>
+      <c r="CO33" s="19"/>
+      <c r="CP33" s="19"/>
+      <c r="CQ33" s="19"/>
+      <c r="CR33" s="19"/>
+      <c r="CS33" s="19"/>
+      <c r="CT33" s="19"/>
+      <c r="CU33" s="19"/>
+      <c r="CV33" s="19"/>
+      <c r="CW33" s="19"/>
+      <c r="CX33" s="19"/>
+      <c r="CY33" s="19"/>
+      <c r="CZ33" s="19"/>
+      <c r="DA33" s="19"/>
+      <c r="DB33" s="19"/>
+      <c r="DC33" s="19"/>
+      <c r="DD33" s="19"/>
+      <c r="DE33" s="19"/>
+      <c r="DF33" s="19"/>
+      <c r="DG33" s="19"/>
+      <c r="DH33" s="19"/>
+      <c r="DI33" s="19"/>
+      <c r="DJ33" s="19"/>
+      <c r="DK33" s="19"/>
+      <c r="DL33" s="19"/>
+      <c r="DM33" s="19"/>
+      <c r="DN33" s="19"/>
+      <c r="DO33" s="19"/>
+      <c r="DP33" s="19"/>
+      <c r="DQ33" s="19"/>
+      <c r="DR33" s="19"/>
+      <c r="DS33" s="19"/>
+      <c r="DT33" s="19"/>
+      <c r="DU33" s="19"/>
+      <c r="DV33" s="19"/>
+      <c r="DW33" s="19"/>
+      <c r="DX33" s="19"/>
+      <c r="DY33" s="19"/>
+      <c r="DZ33" s="19"/>
+      <c r="EA33" s="19"/>
+      <c r="EB33" s="19"/>
+      <c r="EC33" s="19"/>
+      <c r="ED33" s="19"/>
+      <c r="EE33" s="19"/>
+      <c r="EF33" s="19"/>
+      <c r="EG33" s="19"/>
+      <c r="EH33" s="19"/>
+      <c r="EI33" s="19"/>
+      <c r="EJ33" s="19"/>
+      <c r="EK33" s="19"/>
+      <c r="EL33" s="19"/>
+      <c r="EM33" s="19"/>
+      <c r="EN33" s="19"/>
+      <c r="EO33" s="19"/>
+      <c r="EP33" s="19"/>
+      <c r="EQ33" s="19"/>
+      <c r="ER33" s="19"/>
+      <c r="ES33" s="19"/>
+      <c r="ET33" s="19"/>
+      <c r="EU33" s="19"/>
+      <c r="EV33" s="19"/>
+      <c r="EW33" s="19"/>
+      <c r="EX33" s="19"/>
+      <c r="EY33" s="19"/>
+      <c r="EZ33" s="19"/>
+      <c r="FA33" s="19"/>
+      <c r="FB33" s="19"/>
+      <c r="FC33" s="19"/>
+      <c r="FD33" s="19"/>
+      <c r="FE33" s="19"/>
+      <c r="FF33" s="19"/>
+      <c r="FG33" s="19"/>
+      <c r="FH33" s="19"/>
+      <c r="FI33" s="19"/>
+      <c r="FJ33" s="19"/>
+      <c r="FK33" s="19"/>
+      <c r="FL33" s="19"/>
+      <c r="FM33" s="19"/>
+      <c r="FN33" s="19"/>
+      <c r="FO33" s="19"/>
+      <c r="FP33" s="19"/>
+      <c r="FQ33" s="19"/>
+      <c r="FR33" s="19"/>
+      <c r="FS33" s="19"/>
+      <c r="FT33" s="19"/>
+      <c r="FU33" s="19"/>
+      <c r="FV33" s="19"/>
+      <c r="FW33" s="19"/>
+      <c r="FX33" s="19"/>
+      <c r="FY33" s="19"/>
+      <c r="FZ33" s="19"/>
+      <c r="GA33" s="19"/>
+      <c r="GB33" s="19"/>
+      <c r="GC33" s="19"/>
+      <c r="GD33" s="19"/>
+      <c r="GE33" s="19"/>
+      <c r="GF33" s="19"/>
+      <c r="GG33" s="19"/>
+      <c r="GH33" s="19"/>
+      <c r="GI33" s="19"/>
+      <c r="GJ33" s="19"/>
+      <c r="GK33" s="19"/>
+      <c r="GL33" s="19"/>
+      <c r="GM33" s="19"/>
+      <c r="GN33" s="19"/>
+      <c r="GO33" s="19"/>
+      <c r="GP33" s="19"/>
+      <c r="GQ33" s="19"/>
+      <c r="GR33" s="19"/>
+      <c r="GS33" s="19"/>
+      <c r="GT33" s="19"/>
+      <c r="GU33" s="19"/>
+      <c r="GV33" s="19"/>
+      <c r="GW33" s="19"/>
+      <c r="GX33" s="19"/>
+      <c r="GY33" s="19"/>
+      <c r="GZ33" s="19"/>
+      <c r="HA33" s="19"/>
+      <c r="HB33" s="19"/>
+      <c r="HC33" s="19"/>
+      <c r="HD33" s="19"/>
+      <c r="HE33" s="19"/>
+      <c r="HF33" s="19"/>
+      <c r="HG33" s="19"/>
+      <c r="HH33" s="19"/>
+      <c r="HI33" s="19"/>
+      <c r="HJ33" s="19"/>
+      <c r="HK33" s="19"/>
+      <c r="HL33" s="19"/>
+      <c r="HM33" s="19"/>
+      <c r="HN33" s="19"/>
+      <c r="HO33" s="19"/>
+      <c r="HP33" s="19"/>
+      <c r="HQ33" s="19"/>
+      <c r="HR33" s="19"/>
+      <c r="HS33" s="19"/>
+      <c r="HT33" s="19"/>
+      <c r="HU33" s="19"/>
+      <c r="HV33" s="19"/>
+      <c r="HW33" s="19"/>
+      <c r="HX33" s="19"/>
+      <c r="HY33" s="19"/>
+      <c r="HZ33" s="19"/>
+      <c r="IA33" s="19"/>
+      <c r="IB33" s="19"/>
+      <c r="IC33" s="19"/>
+      <c r="ID33" s="19"/>
+      <c r="IE33" s="19"/>
+      <c r="IF33" s="19"/>
+      <c r="IG33" s="19"/>
+      <c r="IH33" s="19"/>
+      <c r="II33" s="19"/>
+      <c r="IJ33" s="19"/>
+      <c r="IK33" s="19"/>
+      <c r="IL33" s="19"/>
+      <c r="IM33" s="19"/>
+      <c r="IN33" s="19"/>
+      <c r="IO33" s="19"/>
+      <c r="IP33" s="19"/>
+      <c r="IQ33" s="19"/>
+      <c r="IR33" s="19"/>
+      <c r="IS33" s="19"/>
+      <c r="IT33" s="19"/>
+      <c r="IU33" s="19"/>
+      <c r="IV33" s="19"/>
+      <c r="IW33" s="19"/>
+      <c r="IX33" s="19"/>
+      <c r="IY33" s="19"/>
+      <c r="IZ33" s="19"/>
+      <c r="JA33" s="19"/>
+      <c r="JB33" s="19"/>
+      <c r="JC33" s="19"/>
+      <c r="JD33" s="19"/>
+      <c r="JE33" s="19"/>
+      <c r="JF33" s="19"/>
+      <c r="JG33" s="19"/>
+      <c r="JH33" s="19"/>
+      <c r="JI33" s="19"/>
+      <c r="JJ33" s="19"/>
+      <c r="JK33" s="19"/>
+      <c r="JL33" s="19"/>
+      <c r="JM33" s="19"/>
+      <c r="JN33" s="19"/>
+      <c r="JO33" s="19"/>
+      <c r="JP33" s="19"/>
+      <c r="JQ33" s="19"/>
+      <c r="JR33" s="19"/>
+      <c r="JS33" s="19"/>
+      <c r="JT33" s="19"/>
+      <c r="JU33" s="19"/>
+      <c r="JV33" s="19"/>
+      <c r="JW33" s="19"/>
+      <c r="JX33" s="19"/>
+      <c r="JY33" s="19"/>
+      <c r="JZ33" s="19"/>
+      <c r="KA33" s="19"/>
+      <c r="KB33" s="19"/>
+      <c r="KC33" s="19"/>
+      <c r="KD33" s="19"/>
+      <c r="KE33" s="19"/>
+      <c r="KF33" s="19"/>
+      <c r="KG33" s="19"/>
+      <c r="KH33" s="19"/>
+      <c r="KI33" s="19"/>
+      <c r="KJ33" s="19"/>
+      <c r="KK33" s="19"/>
+      <c r="KL33" s="19"/>
+      <c r="KM33" s="19"/>
+      <c r="KN33" s="19"/>
+      <c r="KO33" s="19"/>
+      <c r="KP33" s="19"/>
+      <c r="KQ33" s="19"/>
+      <c r="KR33" s="19"/>
+      <c r="KS33" s="19"/>
+      <c r="KT33" s="19"/>
+      <c r="KU33" s="19"/>
+      <c r="KV33" s="19"/>
+      <c r="KW33" s="19"/>
+      <c r="KX33" s="19"/>
+      <c r="KY33" s="19"/>
+      <c r="KZ33" s="19"/>
+      <c r="LA33" s="19"/>
+      <c r="LB33" s="19"/>
+      <c r="LC33" s="19"/>
+      <c r="LD33" s="19"/>
+      <c r="LE33" s="19"/>
+      <c r="LF33" s="19"/>
+      <c r="LG33" s="19"/>
+      <c r="LH33" s="19"/>
+      <c r="LI33" s="19"/>
+      <c r="LJ33" s="19"/>
+      <c r="LK33" s="19"/>
+      <c r="LL33" s="19"/>
+      <c r="LM33" s="19"/>
+      <c r="LN33" s="19"/>
+      <c r="LO33" s="19"/>
+      <c r="LP33" s="19"/>
+      <c r="LQ33" s="19"/>
+      <c r="LR33" s="19"/>
+      <c r="LS33" s="19"/>
+      <c r="LT33" s="19"/>
+      <c r="LU33" s="19"/>
+      <c r="LV33" s="19"/>
+      <c r="LW33" s="19"/>
+      <c r="LX33" s="19"/>
+      <c r="LY33" s="19"/>
+      <c r="LZ33" s="19"/>
+      <c r="MA33" s="19"/>
+      <c r="MB33" s="19"/>
+      <c r="MC33" s="19"/>
+      <c r="MD33" s="19"/>
+      <c r="ME33" s="19"/>
+      <c r="MF33" s="19"/>
+      <c r="MG33" s="19"/>
+      <c r="MH33" s="19"/>
+      <c r="MI33" s="19"/>
+      <c r="MJ33" s="19"/>
+      <c r="MK33" s="19"/>
+      <c r="ML33" s="19"/>
+      <c r="MM33" s="19"/>
+      <c r="MN33" s="19"/>
+      <c r="MO33" s="19"/>
+      <c r="MP33" s="19"/>
+      <c r="MQ33" s="19"/>
+      <c r="MR33" s="19"/>
+      <c r="MS33" s="19"/>
+      <c r="MT33" s="19"/>
+      <c r="MU33" s="19"/>
+      <c r="MV33" s="19"/>
+      <c r="MW33" s="19"/>
+      <c r="MX33" s="19"/>
+      <c r="MY33" s="19"/>
+      <c r="MZ33" s="19"/>
+      <c r="NA33" s="19"/>
+      <c r="NB33" s="19"/>
+      <c r="NC33" s="19"/>
+      <c r="ND33" s="19"/>
+      <c r="NE33" s="19"/>
+      <c r="NF33" s="19"/>
+      <c r="NG33" s="19"/>
+      <c r="NH33" s="19"/>
+      <c r="NI33" s="19"/>
+      <c r="NJ33" s="19"/>
+      <c r="NK33" s="19"/>
+      <c r="NL33" s="19"/>
+      <c r="NM33" s="19"/>
+      <c r="NN33" s="19"/>
+      <c r="NO33" s="19"/>
+      <c r="NP33" s="19"/>
+      <c r="NQ33" s="19"/>
+      <c r="NR33" s="19"/>
+      <c r="NS33" s="19"/>
+      <c r="NT33" s="19"/>
+      <c r="NU33" s="19"/>
+      <c r="NV33" s="19"/>
+      <c r="NW33" s="19"/>
+      <c r="NX33" s="19"/>
+      <c r="NY33" s="19"/>
+      <c r="NZ33" s="19"/>
+      <c r="OA33" s="19"/>
+      <c r="OB33" s="19"/>
+      <c r="OC33" s="19"/>
+      <c r="OD33" s="19"/>
+      <c r="OE33" s="19"/>
+      <c r="OF33" s="19"/>
+      <c r="OG33" s="19"/>
+      <c r="OH33" s="19"/>
+      <c r="OI33" s="19"/>
+      <c r="OJ33" s="19"/>
+      <c r="OK33" s="19"/>
+      <c r="OL33" s="19"/>
+      <c r="OM33" s="19"/>
+      <c r="ON33" s="19"/>
+      <c r="OO33" s="19"/>
+      <c r="OP33" s="19"/>
+      <c r="OQ33" s="19"/>
+      <c r="OR33" s="19"/>
+      <c r="OS33" s="19"/>
+      <c r="OT33" s="19"/>
+      <c r="OU33" s="19"/>
+      <c r="OV33" s="19"/>
+      <c r="OW33" s="19"/>
+      <c r="OX33" s="19"/>
+      <c r="OY33" s="19"/>
+      <c r="OZ33" s="19"/>
+      <c r="PA33" s="19"/>
+      <c r="PB33" s="19"/>
+      <c r="PC33" s="19"/>
+      <c r="PD33" s="19"/>
+      <c r="PE33" s="19"/>
+      <c r="PF33" s="19"/>
+      <c r="PG33" s="19"/>
+      <c r="PH33" s="19"/>
+      <c r="PI33" s="19"/>
+      <c r="PJ33" s="19"/>
+      <c r="PK33" s="19"/>
+      <c r="PL33" s="19"/>
+      <c r="PM33" s="19"/>
+      <c r="PN33" s="19"/>
+      <c r="PO33" s="19"/>
+      <c r="PP33" s="19"/>
+      <c r="PQ33" s="19"/>
+      <c r="PR33" s="19"/>
+      <c r="PS33" s="19"/>
+      <c r="PT33" s="19"/>
+      <c r="PU33" s="19"/>
+      <c r="PV33" s="19"/>
+      <c r="PW33" s="19"/>
+      <c r="PX33" s="19"/>
+      <c r="PY33" s="19"/>
+      <c r="PZ33" s="19"/>
+      <c r="QA33" s="19"/>
+      <c r="QB33" s="19"/>
+      <c r="QC33" s="19"/>
+      <c r="QD33" s="19"/>
+      <c r="QE33" s="19"/>
+      <c r="QF33" s="19"/>
+      <c r="QG33" s="19"/>
+      <c r="QH33" s="19"/>
+      <c r="QI33" s="19"/>
+      <c r="QJ33" s="19"/>
+      <c r="QK33" s="19"/>
+      <c r="QL33" s="19"/>
+      <c r="QM33" s="19"/>
+      <c r="QN33" s="19"/>
+      <c r="QO33" s="19"/>
+      <c r="QP33" s="19"/>
+      <c r="QQ33" s="19"/>
+      <c r="QR33" s="19"/>
+      <c r="QS33" s="19"/>
+      <c r="QT33" s="19"/>
+      <c r="QU33" s="19"/>
+      <c r="QV33" s="19"/>
+      <c r="QW33" s="19"/>
+      <c r="QX33" s="19"/>
+      <c r="QY33" s="19"/>
+      <c r="QZ33" s="19"/>
+      <c r="RA33" s="19"/>
+      <c r="RB33" s="19"/>
+      <c r="RC33" s="19"/>
+      <c r="RD33" s="19"/>
+      <c r="RE33" s="19"/>
+      <c r="RF33" s="19"/>
+      <c r="RG33" s="19"/>
+      <c r="RH33" s="19"/>
+      <c r="RI33" s="19"/>
+      <c r="RJ33" s="19"/>
+      <c r="RK33" s="19"/>
+      <c r="RL33" s="19"/>
+      <c r="RM33" s="19"/>
+      <c r="RN33" s="19"/>
+      <c r="RO33" s="19"/>
+      <c r="RP33" s="19"/>
+      <c r="RQ33" s="19"/>
+      <c r="RR33" s="19"/>
+      <c r="RS33" s="19"/>
+      <c r="RT33" s="19"/>
+      <c r="RU33" s="19"/>
+      <c r="RV33" s="19"/>
+      <c r="RW33" s="19"/>
+      <c r="RX33" s="19"/>
+      <c r="RY33" s="19"/>
+      <c r="RZ33" s="19"/>
+      <c r="SA33" s="19"/>
+      <c r="SB33" s="19"/>
+      <c r="SC33" s="19"/>
+      <c r="SD33" s="19"/>
+      <c r="SE33" s="19"/>
+      <c r="SF33" s="19"/>
+      <c r="SG33" s="19"/>
+      <c r="SH33" s="19"/>
+      <c r="SI33" s="19"/>
+      <c r="SJ33" s="19"/>
+      <c r="SK33" s="19"/>
+      <c r="SL33" s="19"/>
+      <c r="SM33" s="19"/>
+      <c r="SN33" s="19"/>
+      <c r="SO33" s="19"/>
+      <c r="SP33" s="19"/>
+      <c r="SQ33" s="19"/>
+      <c r="SR33" s="19"/>
+      <c r="SS33" s="19"/>
+      <c r="ST33" s="19"/>
+      <c r="SU33" s="19"/>
+      <c r="SV33" s="19"/>
+      <c r="SW33" s="19"/>
+      <c r="SX33" s="19"/>
+      <c r="SY33" s="19"/>
+      <c r="SZ33" s="19"/>
+      <c r="TA33" s="19"/>
+      <c r="TB33" s="19"/>
+      <c r="TC33" s="19"/>
+      <c r="TD33" s="19"/>
+      <c r="TE33" s="19"/>
+      <c r="TF33" s="19"/>
+      <c r="TG33" s="19"/>
+      <c r="TH33" s="19"/>
+      <c r="TI33" s="19"/>
+      <c r="TJ33" s="19"/>
+      <c r="TK33" s="19"/>
+      <c r="TL33" s="19"/>
+      <c r="TM33" s="19"/>
+      <c r="TN33" s="19"/>
+      <c r="TO33" s="19"/>
+      <c r="TP33" s="19"/>
+      <c r="TQ33" s="19"/>
+      <c r="TR33" s="19"/>
+      <c r="TS33" s="19"/>
+      <c r="TT33" s="19"/>
+      <c r="TU33" s="19"/>
+      <c r="TV33" s="19"/>
+      <c r="TW33" s="19"/>
+      <c r="TX33" s="19"/>
+      <c r="TY33" s="19"/>
+      <c r="TZ33" s="19"/>
+      <c r="UA33" s="19"/>
+      <c r="UB33" s="19"/>
+      <c r="UC33" s="19"/>
+      <c r="UD33" s="19"/>
+      <c r="UE33" s="19"/>
+      <c r="UF33" s="19"/>
+      <c r="UG33" s="19"/>
+      <c r="UH33" s="19"/>
+      <c r="UI33" s="19"/>
+      <c r="UJ33" s="19"/>
+      <c r="UK33" s="19"/>
+      <c r="UL33" s="19"/>
+      <c r="UM33" s="19"/>
+      <c r="UN33" s="19"/>
+      <c r="UO33" s="19"/>
+      <c r="UP33" s="19"/>
+      <c r="UQ33" s="19"/>
+      <c r="UR33" s="19"/>
+      <c r="US33" s="19"/>
+      <c r="UT33" s="19"/>
+      <c r="UU33" s="19"/>
+      <c r="UV33" s="19"/>
+      <c r="UW33" s="19"/>
+      <c r="UX33" s="19"/>
+      <c r="UY33" s="19"/>
+      <c r="UZ33" s="19"/>
+      <c r="VA33" s="19"/>
+      <c r="VB33" s="19"/>
+      <c r="VC33" s="19"/>
+      <c r="VD33" s="19"/>
+      <c r="VE33" s="19"/>
+      <c r="VF33" s="19"/>
+      <c r="VG33" s="19"/>
+      <c r="VH33" s="19"/>
+      <c r="VI33" s="19"/>
+      <c r="VJ33" s="19"/>
+      <c r="VK33" s="19"/>
+      <c r="VL33" s="19"/>
+      <c r="VM33" s="19"/>
+      <c r="VN33" s="19"/>
+      <c r="VO33" s="19"/>
+      <c r="VP33" s="19"/>
+      <c r="VQ33" s="19"/>
+      <c r="VR33" s="19"/>
+      <c r="VS33" s="19"/>
+      <c r="VT33" s="19"/>
+      <c r="VU33" s="19"/>
+      <c r="VV33" s="19"/>
+      <c r="VW33" s="19"/>
+      <c r="VX33" s="19"/>
+      <c r="VY33" s="19"/>
+      <c r="VZ33" s="19"/>
+      <c r="WA33" s="19"/>
+      <c r="WB33" s="19"/>
+      <c r="WC33" s="19"/>
+      <c r="WD33" s="19"/>
+      <c r="WE33" s="19"/>
+      <c r="WF33" s="19"/>
+      <c r="WG33" s="19"/>
+      <c r="WH33" s="19"/>
+      <c r="WI33" s="19"/>
+      <c r="WJ33" s="19"/>
+      <c r="WK33" s="19"/>
+      <c r="WL33" s="19"/>
+      <c r="WM33" s="19"/>
+      <c r="WN33" s="19"/>
+      <c r="WO33" s="19"/>
+      <c r="WP33" s="19"/>
+      <c r="WQ33" s="19"/>
+      <c r="WR33" s="19"/>
+      <c r="WS33" s="19"/>
+      <c r="WT33" s="19"/>
+      <c r="WU33" s="19"/>
+      <c r="WV33" s="19"/>
+      <c r="WW33" s="19"/>
+      <c r="WX33" s="19"/>
+      <c r="WY33" s="19"/>
+      <c r="WZ33" s="19"/>
+      <c r="XA33" s="19"/>
+      <c r="XB33" s="19"/>
+      <c r="XC33" s="19"/>
+      <c r="XD33" s="19"/>
+      <c r="XE33" s="19"/>
+      <c r="XF33" s="19"/>
+      <c r="XG33" s="19"/>
+      <c r="XH33" s="19"/>
+      <c r="XI33" s="19"/>
+      <c r="XJ33" s="19"/>
+      <c r="XK33" s="19"/>
+      <c r="XL33" s="19"/>
+      <c r="XM33" s="19"/>
+      <c r="XN33" s="19"/>
+      <c r="XO33" s="19"/>
+      <c r="XP33" s="19"/>
+      <c r="XQ33" s="19"/>
+      <c r="XR33" s="19"/>
+      <c r="XS33" s="19"/>
+      <c r="XT33" s="19"/>
+      <c r="XU33" s="19"/>
+      <c r="XV33" s="19"/>
+      <c r="XW33" s="19"/>
+      <c r="XX33" s="19"/>
+      <c r="XY33" s="19"/>
+      <c r="XZ33" s="19"/>
+      <c r="YA33" s="19"/>
+      <c r="YB33" s="19"/>
+      <c r="YC33" s="19"/>
+      <c r="YD33" s="19"/>
+      <c r="YE33" s="19"/>
+      <c r="YF33" s="19"/>
+      <c r="YG33" s="19"/>
+      <c r="YH33" s="19"/>
+      <c r="YI33" s="19"/>
+      <c r="YJ33" s="19"/>
+      <c r="YK33" s="19"/>
+      <c r="YL33" s="19"/>
+      <c r="YM33" s="19"/>
+      <c r="YN33" s="19"/>
+      <c r="YO33" s="19"/>
+      <c r="YP33" s="19"/>
+      <c r="YQ33" s="19"/>
+      <c r="YR33" s="19"/>
+      <c r="YS33" s="19"/>
+      <c r="YT33" s="19"/>
+      <c r="YU33" s="19"/>
+      <c r="YV33" s="19"/>
+      <c r="YW33" s="19"/>
+      <c r="YX33" s="19"/>
+      <c r="YY33" s="19"/>
+      <c r="YZ33" s="19"/>
+      <c r="ZA33" s="19"/>
+      <c r="ZB33" s="19"/>
+      <c r="ZC33" s="19"/>
+      <c r="ZD33" s="19"/>
+      <c r="ZE33" s="19"/>
+      <c r="ZF33" s="19"/>
+      <c r="ZG33" s="19"/>
+      <c r="ZH33" s="19"/>
+      <c r="ZI33" s="19"/>
+      <c r="ZJ33" s="19"/>
+      <c r="ZK33" s="19"/>
+      <c r="ZL33" s="19"/>
+      <c r="ZM33" s="19"/>
+      <c r="ZN33" s="19"/>
+      <c r="ZO33" s="19"/>
+      <c r="ZP33" s="19"/>
+      <c r="ZQ33" s="19"/>
+      <c r="ZR33" s="19"/>
+      <c r="ZS33" s="19"/>
+      <c r="ZT33" s="19"/>
+      <c r="ZU33" s="19"/>
+      <c r="ZV33" s="19"/>
+      <c r="ZW33" s="19"/>
+      <c r="ZX33" s="19"/>
+      <c r="ZY33" s="19"/>
+      <c r="ZZ33" s="19"/>
+      <c r="AAA33" s="19"/>
+      <c r="AAB33" s="19"/>
+      <c r="AAC33" s="19"/>
+      <c r="AAD33" s="19"/>
+      <c r="AAE33" s="19"/>
+      <c r="AAF33" s="19"/>
+      <c r="AAG33" s="19"/>
+      <c r="AAH33" s="19"/>
+      <c r="AAI33" s="19"/>
+      <c r="AAJ33" s="19"/>
+      <c r="AAK33" s="19"/>
+      <c r="AAL33" s="19"/>
+      <c r="AAM33" s="19"/>
+      <c r="AAN33" s="19"/>
+      <c r="AAO33" s="19"/>
+      <c r="AAP33" s="19"/>
+      <c r="AAQ33" s="19"/>
+      <c r="AAR33" s="19"/>
+      <c r="AAS33" s="19"/>
+      <c r="AAT33" s="19"/>
+      <c r="AAU33" s="19"/>
+      <c r="AAV33" s="19"/>
+      <c r="AAW33" s="19"/>
+      <c r="AAX33" s="19"/>
+      <c r="AAY33" s="19"/>
+      <c r="AAZ33" s="19"/>
+      <c r="ABA33" s="19"/>
+      <c r="ABB33" s="19"/>
+      <c r="ABC33" s="19"/>
+      <c r="ABD33" s="19"/>
+      <c r="ABE33" s="19"/>
+      <c r="ABF33" s="19"/>
+      <c r="ABG33" s="19"/>
+      <c r="ABH33" s="19"/>
+      <c r="ABI33" s="19"/>
+      <c r="ABJ33" s="19"/>
+      <c r="ABK33" s="19"/>
+      <c r="ABL33" s="19"/>
+      <c r="ABM33" s="19"/>
+      <c r="ABN33" s="19"/>
+      <c r="ABO33" s="19"/>
+      <c r="ABP33" s="19"/>
+      <c r="ABQ33" s="19"/>
+      <c r="ABR33" s="19"/>
+      <c r="ABS33" s="19"/>
+      <c r="ABT33" s="19"/>
+      <c r="ABU33" s="19"/>
+      <c r="ABV33" s="19"/>
+      <c r="ABW33" s="19"/>
+      <c r="ABX33" s="19"/>
+      <c r="ABY33" s="19"/>
+      <c r="ABZ33" s="19"/>
+      <c r="ACA33" s="19"/>
+      <c r="ACB33" s="19"/>
+      <c r="ACC33" s="19"/>
+      <c r="ACD33" s="19"/>
+      <c r="ACE33" s="19"/>
+      <c r="ACF33" s="19"/>
+      <c r="ACG33" s="19"/>
+      <c r="ACH33" s="19"/>
+      <c r="ACI33" s="19"/>
+      <c r="ACJ33" s="19"/>
+      <c r="ACK33" s="19"/>
+      <c r="ACL33" s="19"/>
+      <c r="ACM33" s="19"/>
+      <c r="ACN33" s="19"/>
+      <c r="ACO33" s="19"/>
+      <c r="ACP33" s="19"/>
+      <c r="ACQ33" s="19"/>
+      <c r="ACR33" s="19"/>
+      <c r="ACS33" s="19"/>
+      <c r="ACT33" s="19"/>
+      <c r="ACU33" s="19"/>
+      <c r="ACV33" s="19"/>
+      <c r="ACW33" s="19"/>
+      <c r="ACX33" s="19"/>
+      <c r="ACY33" s="19"/>
+      <c r="ACZ33" s="19"/>
+      <c r="ADA33" s="19"/>
+      <c r="ADB33" s="19"/>
+      <c r="ADC33" s="19"/>
+      <c r="ADD33" s="19"/>
+      <c r="ADE33" s="19"/>
+      <c r="ADF33" s="19"/>
+      <c r="ADG33" s="19"/>
+      <c r="ADH33" s="19"/>
+      <c r="ADI33" s="19"/>
+      <c r="ADJ33" s="19"/>
+      <c r="ADK33" s="19"/>
+      <c r="ADL33" s="19"/>
+      <c r="ADM33" s="19"/>
+      <c r="ADN33" s="19"/>
+      <c r="ADO33" s="19"/>
+      <c r="ADP33" s="19"/>
+      <c r="ADQ33" s="19"/>
+      <c r="ADR33" s="19"/>
+      <c r="ADS33" s="19"/>
+      <c r="ADT33" s="19"/>
+      <c r="ADU33" s="19"/>
+      <c r="ADV33" s="19"/>
+      <c r="ADW33" s="19"/>
+      <c r="ADX33" s="19"/>
+      <c r="ADY33" s="19"/>
+      <c r="ADZ33" s="19"/>
+      <c r="AEA33" s="19"/>
+      <c r="AEB33" s="19"/>
+      <c r="AEC33" s="19"/>
+      <c r="AED33" s="19"/>
+      <c r="AEE33" s="19"/>
+      <c r="AEF33" s="19"/>
+      <c r="AEG33" s="19"/>
+      <c r="AEH33" s="19"/>
+      <c r="AEI33" s="19"/>
+      <c r="AEJ33" s="19"/>
+      <c r="AEK33" s="19"/>
+      <c r="AEL33" s="19"/>
+      <c r="AEM33" s="19"/>
+      <c r="AEN33" s="19"/>
+      <c r="AEO33" s="19"/>
+      <c r="AEP33" s="19"/>
+      <c r="AEQ33" s="19"/>
+      <c r="AER33" s="19"/>
+      <c r="AES33" s="19"/>
+      <c r="AET33" s="19"/>
+      <c r="AEU33" s="19"/>
+      <c r="AEV33" s="19"/>
+      <c r="AEW33" s="19"/>
+      <c r="AEX33" s="19"/>
+      <c r="AEY33" s="19"/>
+      <c r="AEZ33" s="19"/>
+      <c r="AFA33" s="19"/>
+      <c r="AFB33" s="19"/>
+      <c r="AFC33" s="19"/>
+      <c r="AFD33" s="19"/>
+      <c r="AFE33" s="19"/>
+      <c r="AFF33" s="19"/>
+      <c r="AFG33" s="19"/>
+      <c r="AFH33" s="19"/>
+      <c r="AFI33" s="19"/>
+      <c r="AFJ33" s="19"/>
+      <c r="AFK33" s="19"/>
+      <c r="AFL33" s="19"/>
+      <c r="AFM33" s="19"/>
+      <c r="AFN33" s="19"/>
+      <c r="AFO33" s="19"/>
+      <c r="AFP33" s="19"/>
+      <c r="AFQ33" s="19"/>
+      <c r="AFR33" s="19"/>
+      <c r="AFS33" s="19"/>
+      <c r="AFT33" s="19"/>
+      <c r="AFU33" s="19"/>
+      <c r="AFV33" s="19"/>
+      <c r="AFW33" s="19"/>
+      <c r="AFX33" s="19"/>
+      <c r="AFY33" s="19"/>
+      <c r="AFZ33" s="19"/>
+      <c r="AGA33" s="19"/>
+      <c r="AGB33" s="19"/>
+      <c r="AGC33" s="19"/>
+      <c r="AGD33" s="19"/>
+      <c r="AGE33" s="19"/>
+      <c r="AGF33" s="19"/>
+      <c r="AGG33" s="19"/>
+      <c r="AGH33" s="19"/>
+      <c r="AGI33" s="19"/>
+      <c r="AGJ33" s="19"/>
+      <c r="AGK33" s="19"/>
+      <c r="AGL33" s="19"/>
+      <c r="AGM33" s="19"/>
+      <c r="AGN33" s="19"/>
+      <c r="AGO33" s="19"/>
+      <c r="AGP33" s="19"/>
+      <c r="AGQ33" s="19"/>
+      <c r="AGR33" s="19"/>
+      <c r="AGS33" s="19"/>
+      <c r="AGT33" s="19"/>
+      <c r="AGU33" s="19"/>
+      <c r="AGV33" s="19"/>
+      <c r="AGW33" s="19"/>
+      <c r="AGX33" s="19"/>
+      <c r="AGY33" s="19"/>
+      <c r="AGZ33" s="19"/>
+      <c r="AHA33" s="19"/>
+      <c r="AHB33" s="19"/>
+      <c r="AHC33" s="19"/>
+      <c r="AHD33" s="19"/>
+      <c r="AHE33" s="19"/>
+      <c r="AHF33" s="19"/>
+      <c r="AHG33" s="19"/>
+      <c r="AHH33" s="19"/>
+      <c r="AHI33" s="19"/>
+      <c r="AHJ33" s="19"/>
+      <c r="AHK33" s="19"/>
+      <c r="AHL33" s="19"/>
+      <c r="AHM33" s="19"/>
+      <c r="AHN33" s="19"/>
+      <c r="AHO33" s="19"/>
+      <c r="AHP33" s="19"/>
+      <c r="AHQ33" s="19"/>
+      <c r="AHR33" s="19"/>
+      <c r="AHS33" s="19"/>
+      <c r="AHT33" s="19"/>
+      <c r="AHU33" s="19"/>
+      <c r="AHV33" s="19"/>
+      <c r="AHW33" s="19"/>
+      <c r="AHX33" s="19"/>
+      <c r="AHY33" s="19"/>
+      <c r="AHZ33" s="19"/>
+      <c r="AIA33" s="19"/>
+      <c r="AIB33" s="19"/>
+      <c r="AIC33" s="19"/>
+      <c r="AID33" s="19"/>
+      <c r="AIE33" s="19"/>
+      <c r="AIF33" s="19"/>
+      <c r="AIG33" s="19"/>
+      <c r="AIH33" s="19"/>
+      <c r="AII33" s="19"/>
+      <c r="AIJ33" s="19"/>
+      <c r="AIK33" s="19"/>
+      <c r="AIL33" s="19"/>
+      <c r="AIM33" s="19"/>
+      <c r="AIN33" s="19"/>
+      <c r="AIO33" s="19"/>
+      <c r="AIP33" s="19"/>
+      <c r="AIQ33" s="19"/>
+      <c r="AIR33" s="19"/>
+      <c r="AIS33" s="19"/>
+      <c r="AIT33" s="19"/>
+      <c r="AIU33" s="19"/>
+      <c r="AIV33" s="19"/>
+      <c r="AIW33" s="19"/>
+      <c r="AIX33" s="19"/>
+      <c r="AIY33" s="19"/>
+      <c r="AIZ33" s="19"/>
+      <c r="AJA33" s="19"/>
+      <c r="AJB33" s="19"/>
+      <c r="AJC33" s="19"/>
+      <c r="AJD33" s="19"/>
+      <c r="AJE33" s="19"/>
+      <c r="AJF33" s="19"/>
+      <c r="AJG33" s="19"/>
+      <c r="AJH33" s="19"/>
+      <c r="AJI33" s="19"/>
+      <c r="AJJ33" s="19"/>
+      <c r="AJK33" s="19"/>
+      <c r="AJL33" s="19"/>
+      <c r="AJM33" s="19"/>
+      <c r="AJN33" s="19"/>
+      <c r="AJO33" s="19"/>
+      <c r="AJP33" s="19"/>
+      <c r="AJQ33" s="19"/>
+      <c r="AJR33" s="19"/>
+      <c r="AJS33" s="19"/>
+      <c r="AJT33" s="19"/>
+      <c r="AJU33" s="19"/>
+      <c r="AJV33" s="19"/>
+      <c r="AJW33" s="19"/>
+      <c r="AJX33" s="19"/>
+      <c r="AJY33" s="19"/>
+      <c r="AJZ33" s="19"/>
+      <c r="AKA33" s="19"/>
+      <c r="AKB33" s="19"/>
+      <c r="AKC33" s="19"/>
+      <c r="AKD33" s="19"/>
+      <c r="AKE33" s="19"/>
+      <c r="AKF33" s="19"/>
+      <c r="AKG33" s="19"/>
+      <c r="AKH33" s="19"/>
+      <c r="AKI33" s="19"/>
+      <c r="AKJ33" s="19"/>
+      <c r="AKK33" s="19"/>
+      <c r="AKL33" s="19"/>
+      <c r="AKM33" s="19"/>
+      <c r="AKN33" s="19"/>
+      <c r="AKO33" s="19"/>
+      <c r="AKP33" s="19"/>
+      <c r="AKQ33" s="19"/>
+      <c r="AKR33" s="19"/>
+      <c r="AKS33" s="19"/>
+      <c r="AKT33" s="19"/>
+      <c r="AKU33" s="19"/>
+      <c r="AKV33" s="19"/>
+      <c r="AKW33" s="19"/>
+      <c r="AKX33" s="19"/>
+      <c r="AKY33" s="19"/>
+      <c r="AKZ33" s="19"/>
+      <c r="ALA33" s="19"/>
+      <c r="ALB33" s="19"/>
+      <c r="ALC33" s="19"/>
+      <c r="ALD33" s="19"/>
+      <c r="ALE33" s="19"/>
+      <c r="ALF33" s="19"/>
+      <c r="ALG33" s="19"/>
+      <c r="ALH33" s="19"/>
+      <c r="ALI33" s="19"/>
+      <c r="ALJ33" s="19"/>
+      <c r="ALK33" s="19"/>
+      <c r="ALL33" s="19"/>
+      <c r="ALM33" s="19"/>
+      <c r="ALN33" s="19"/>
+      <c r="ALO33" s="19"/>
+      <c r="ALP33" s="19"/>
+      <c r="ALQ33" s="19"/>
+      <c r="ALR33" s="19"/>
+      <c r="ALS33" s="19"/>
+      <c r="ALT33" s="19"/>
+      <c r="ALU33" s="19"/>
+      <c r="ALV33" s="19"/>
+      <c r="ALW33" s="19"/>
+      <c r="ALX33" s="19"/>
+      <c r="ALY33" s="19"/>
+      <c r="ALZ33" s="19"/>
+      <c r="AMA33" s="19"/>
+      <c r="AMB33" s="19"/>
+      <c r="AMC33" s="19"/>
+      <c r="AMD33" s="19"/>
+      <c r="AME33" s="19"/>
+      <c r="AMF33" s="19"/>
+      <c r="AMG33" s="19"/>
+      <c r="AMH33" s="19"/>
+      <c r="AMI33" s="19"/>
+      <c r="AMJ33" s="19"/>
+      <c r="AMK33" s="19"/>
+      <c r="AML33" s="19"/>
+      <c r="AMM33" s="19"/>
+      <c r="AMN33" s="19"/>
+      <c r="AMO33" s="19"/>
+      <c r="AMP33" s="19"/>
+      <c r="AMQ33" s="19"/>
+      <c r="AMR33" s="19"/>
+    </row>
+    <row r="34" spans="1:1032" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -15041,7 +15045,7 @@
       <c r="BX34" s="3"/>
       <c r="BY34" s="3"/>
     </row>
-    <row r="35" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -15095,7 +15099,7 @@
       <c r="BX35" s="3"/>
       <c r="BY35" s="3"/>
     </row>
-    <row r="36" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -15149,7 +15153,7 @@
       <c r="BX36" s="3"/>
       <c r="BY36" s="3"/>
     </row>
-    <row r="37" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -15203,7 +15207,7 @@
       <c r="BX37" s="3"/>
       <c r="BY37" s="3"/>
     </row>
-    <row r="38" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -15257,7 +15261,7 @@
       <c r="BX38" s="3"/>
       <c r="BY38" s="3"/>
     </row>
-    <row r="39" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
@@ -15311,7 +15315,7 @@
       <c r="BX39" s="3"/>
       <c r="BY39" s="3"/>
     </row>
-    <row r="40" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -15365,7 +15369,7 @@
       <c r="BX40" s="3"/>
       <c r="BY40" s="3"/>
     </row>
-    <row r="41" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -15419,7 +15423,7 @@
       <c r="BX41" s="3"/>
       <c r="BY41" s="3"/>
     </row>
-    <row r="42" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
@@ -15473,7 +15477,7 @@
       <c r="BX42" s="3"/>
       <c r="BY42" s="3"/>
     </row>
-    <row r="43" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -15527,7 +15531,7 @@
       <c r="BX43" s="3"/>
       <c r="BY43" s="3"/>
     </row>
-    <row r="44" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -15581,7 +15585,7 @@
       <c r="BX44" s="3"/>
       <c r="BY44" s="3"/>
     </row>
-    <row r="45" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -15635,7 +15639,7 @@
       <c r="BX45" s="3"/>
       <c r="BY45" s="3"/>
     </row>
-    <row r="46" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -15689,7 +15693,7 @@
       <c r="BX46" s="3"/>
       <c r="BY46" s="3"/>
     </row>
-    <row r="47" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
@@ -15743,7 +15747,7 @@
       <c r="BX47" s="3"/>
       <c r="BY47" s="3"/>
     </row>
-    <row r="48" spans="2:77" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1032" x14ac:dyDescent="0.3">
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -43553,6 +43557,60 @@
       <c r="BX562" s="3"/>
       <c r="BY562" s="3"/>
     </row>
+    <row r="563" spans="26:77" x14ac:dyDescent="0.3">
+      <c r="Z563" s="3"/>
+      <c r="AA563" s="3"/>
+      <c r="AB563" s="3"/>
+      <c r="AC563" s="3"/>
+      <c r="AD563" s="3"/>
+      <c r="AE563" s="3"/>
+      <c r="AF563" s="3"/>
+      <c r="AG563" s="3"/>
+      <c r="AH563" s="3"/>
+      <c r="AI563" s="3"/>
+      <c r="AJ563" s="3"/>
+      <c r="AK563" s="3"/>
+      <c r="AL563" s="3"/>
+      <c r="AM563" s="3"/>
+      <c r="AN563" s="3"/>
+      <c r="AO563" s="3"/>
+      <c r="AP563" s="3"/>
+      <c r="AQ563" s="3"/>
+      <c r="AR563" s="3"/>
+      <c r="AS563" s="3"/>
+      <c r="AT563" s="3"/>
+      <c r="AU563" s="3"/>
+      <c r="AV563" s="3"/>
+      <c r="AW563" s="3"/>
+      <c r="AX563" s="3"/>
+      <c r="AY563" s="3"/>
+      <c r="AZ563" s="3"/>
+      <c r="BA563" s="3"/>
+      <c r="BB563" s="3"/>
+      <c r="BC563" s="3"/>
+      <c r="BD563" s="3"/>
+      <c r="BE563" s="3"/>
+      <c r="BF563" s="3"/>
+      <c r="BG563" s="3"/>
+      <c r="BH563" s="3"/>
+      <c r="BI563" s="3"/>
+      <c r="BJ563" s="3"/>
+      <c r="BK563" s="3"/>
+      <c r="BL563" s="3"/>
+      <c r="BM563" s="3"/>
+      <c r="BN563" s="3"/>
+      <c r="BO563" s="3"/>
+      <c r="BP563" s="3"/>
+      <c r="BQ563" s="3"/>
+      <c r="BR563" s="3"/>
+      <c r="BS563" s="3"/>
+      <c r="BT563" s="3"/>
+      <c r="BU563" s="3"/>
+      <c r="BV563" s="3"/>
+      <c r="BW563" s="3"/>
+      <c r="BX563" s="3"/>
+      <c r="BY563" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="R17:U17"/>
@@ -43563,7 +43621,7 @@
     <mergeCell ref="F17:I17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1"/>
+    <hyperlink ref="A30" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -43586,33 +43644,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="58"/>
+    <col min="1" max="1" width="15.25" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>11</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>20</v>
+      <c r="B4" s="53" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/cli/authority_stats.xlsx
+++ b/scripts/cli/authority_stats.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Standard report" sheetId="1" r:id="rId1"/>
-    <sheet name="Notes" sheetId="2" r:id="rId2"/>
+    <sheet name="Postcode breakdown" sheetId="3" r:id="rId2"/>
+    <sheet name="Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -246,6 +247,30 @@
   </si>
   <si>
     <t>Calculated using WRAP's Benefits of Reuse tool.</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Number of confirmed gifts made</t>
+  </si>
+  <si>
+    <t>Searches</t>
+  </si>
+  <si>
+    <t>CO2 (kg)</t>
+  </si>
+  <si>
+    <t>OFFERs made</t>
+  </si>
+  <si>
+    <t>WANTEDs made</t>
+  </si>
+  <si>
+    <t>Gifts made</t>
+  </si>
+  <si>
+    <t>Weight of gifts made (kg)</t>
   </si>
 </sst>
 </file>
@@ -1268,13 +1293,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMR563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
     <col min="2" max="25" width="8.5" style="2" customWidth="1"/>
     <col min="26" max="75" width="8.5" style="5" customWidth="1"/>
     <col min="76" max="1032" width="8.5" style="2" customWidth="1"/>
@@ -7901,7 +7926,7 @@
     </row>
     <row r="13" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -43636,6 +43661,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/scripts/cli/authority_stats.xlsx
+++ b/scripts/cli/authority_stats.xlsx
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="Standard report" sheetId="1" r:id="rId1"/>
     <sheet name="Postcode breakdown" sheetId="3" r:id="rId2"/>
-    <sheet name="Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -243,12 +242,6 @@
     <t>The full data associated with any shortlinks can be viewed by clicking  the link below and then scrolling to the appropriate shortlink.</t>
   </si>
   <si>
-    <t>Current total number of Freeglers</t>
-  </si>
-  <si>
-    <t>Calculated using WRAP's Benefits of Reuse tool.</t>
-  </si>
-  <si>
     <t>Postcode</t>
   </si>
   <si>
@@ -283,7 +276,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,26 +499,6 @@
       <i/>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -758,7 +731,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -860,9 +833,6 @@
     <xf numFmtId="167" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1712,12 +1682,12 @@
     </row>
     <row r="7" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -7926,7 +7896,7 @@
     </row>
     <row r="13" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -9058,39 +9028,39 @@
     </row>
     <row r="17" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="70" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="65" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="65" t="s">
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="65" t="s">
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="66"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="63"/>
     </row>
     <row r="18" spans="1:1032" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="31">
@@ -9467,7 +9437,7 @@
       <c r="BY22" s="15"/>
     </row>
     <row r="23" spans="1:1032" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="13"/>
@@ -9548,17 +9518,17 @@
       <c r="BY23" s="15"/>
     </row>
     <row r="24" spans="1:1032" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="62">
+      <c r="A24" s="61"/>
+      <c r="B24" s="59">
         <v>43466</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="54">
         <v>43497</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="54">
         <v>43525</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="19"/>
@@ -9635,11 +9605,11 @@
       <c r="BY24" s="15"/>
     </row>
     <row r="25" spans="1:1032" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
@@ -43664,7 +43634,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43676,25 +43646,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -43718,49 +43688,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>